--- a/Datasets/List of Scenarios.xlsx
+++ b/Datasets/List of Scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="13_ncr:1_{AEC70A0C-6861-45D1-8D11-9AFD0C174D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815F1EDC-E7E5-4574-94BD-7B4B86EF0575}"/>
+  <xr:revisionPtr revIDLastSave="751" documentId="13_ncr:1_{AEC70A0C-6861-45D1-8D11-9AFD0C174D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{443DBADC-0498-4445-8BE6-19566EA894D7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="172">
   <si>
     <t>Attack condition</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>924a-924d</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>When short-circuit faults happen, compromised MUs spoof fault-free situations to disable safety protection</t>
@@ -516,69 +513,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(9111, 9121, 9131, 9141)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages every 50ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (a measurement exceed the pre-defined threshold). The malicious program stops injecting when the measurement is back to normal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(9112, 9122, 9132, 9142)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages every 25ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (a measurement exceed the pre-defined threshold). The malicious program stops injecting when the measurement is back to normal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(921, 922, 923, 924)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter original messages with counterfeit measurements to fake fault-free situations even when an over-current status occurs (a measurement exceed the pre-defined threshold). The malicious program stops altering when the measurement is back to normal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">For all 12 sub-scenarios, circuit breakers </t>
     </r>
     <r>
@@ -1928,6 +1862,69 @@
   <si>
     <t>Delete the first 100 SV packets when a fault occurs.
 Thus, delay protection for almost 5 seconds (100*50ms=5s).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9111, 9121, 9131, 9141)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages every 50ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9112, 9122, 9132, 9142)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages every 25ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(921, 922, 923, 924)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alter original messages with counterfeit measurements to fake fault-free situations even when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2237,7 +2234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2358,17 +2355,83 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2379,76 +2442,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2463,53 +2493,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2805,8 +2808,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,22 +2871,22 @@
       <c r="J1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
@@ -2898,19 +2901,19 @@
       <c r="F2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="63" t="s">
+      <c r="G2" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="73">
         <v>9111</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="92" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -2934,22 +2937,22 @@
       <c r="R2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
+      <c r="T2" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="2">
         <v>912</v>
       </c>
@@ -2962,47 +2965,47 @@
       <c r="F3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="42">
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="50">
         <v>20</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="51">
         <v>5</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="49">
         <v>35</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="71">
         <v>10</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="50">
         <v>20</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="51">
         <v>5</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="49">
         <v>25</v>
       </c>
-      <c r="S3" s="62">
+      <c r="S3" s="89">
         <f>SUM(L3:R5)</f>
         <v>120</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="2">
         <v>913</v>
       </c>
@@ -3015,34 +3018,34 @@
       <c r="F4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="63" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="2">
         <v>914</v>
       </c>
@@ -3055,34 +3058,34 @@
       <c r="F5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="61" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="88" t="s">
+      <c r="U5" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10">
         <v>911</v>
       </c>
@@ -3095,19 +3098,19 @@
       <c r="F6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="69" t="s">
+      <c r="G6" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="92" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -3131,20 +3134,20 @@
       <c r="R6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="61"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="10">
         <v>912</v>
       </c>
@@ -3157,47 +3160,47 @@
       <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="42">
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="50">
         <v>20</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="51">
         <v>5</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="49">
         <v>35</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="71">
         <v>10</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="50">
         <v>20</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="51">
         <v>5</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="49">
         <v>25</v>
       </c>
-      <c r="S7" s="62">
+      <c r="S7" s="89">
         <f>SUM(L7:R9)</f>
         <v>120</v>
       </c>
-      <c r="T7" s="61"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10">
         <v>913</v>
       </c>
@@ -3210,36 +3213,36 @@
       <c r="F8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69" t="s">
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="10">
         <v>914</v>
       </c>
@@ -3252,34 +3255,34 @@
       <c r="F9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="45" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="88" t="s">
+      <c r="U9" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="66" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
@@ -3294,19 +3297,19 @@
       <c r="F10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="63" t="s">
+      <c r="G10" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="72" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="18" t="s">
@@ -3315,10 +3318,10 @@
       <c r="M10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="30" t="s">
+      <c r="N10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="34" t="s">
         <v>17</v>
       </c>
       <c r="P10" s="18" t="s">
@@ -3327,23 +3330,21 @@
       <c r="Q10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="45"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="2">
         <v>922</v>
       </c>
@@ -3356,40 +3357,38 @@
       <c r="F11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="42">
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="50">
         <v>20</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="51">
         <v>30</v>
       </c>
-      <c r="N11" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" s="62">
-        <f>SUM(L11:R13)</f>
-        <v>50</v>
-      </c>
+      <c r="N11" s="50">
+        <v>10</v>
+      </c>
+      <c r="O11" s="48">
+        <v>10</v>
+      </c>
+      <c r="P11" s="50">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>30</v>
+      </c>
+      <c r="R11" s="42">
+        <f>SUM(L11:Q13)</f>
+        <v>120</v>
+      </c>
+      <c r="S11" s="91"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="2">
         <v>923</v>
       </c>
@@ -3402,29 +3401,29 @@
       <c r="F12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="63" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="62"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="91"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="2">
         <v>924</v>
       </c>
@@ -3437,19 +3436,19 @@
       <c r="F13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="62"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="91"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -3461,10 +3460,10 @@
       <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
@@ -3477,22 +3476,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>14</v>
@@ -3520,87 +3519,87 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="46">
+      <c r="A16" s="47"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="68">
         <v>932</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="55" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="42">
+        <v>97</v>
+      </c>
+      <c r="L16" s="50">
         <v>20</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="51">
         <v>5</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="49">
         <v>25</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="48">
         <v>10</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="50">
         <v>10</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="51">
         <v>5</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="49">
         <v>25</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16" s="68">
         <f>SUM(L16:R19)</f>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="6">
         <v>2</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54"/>
+        <v>104</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="47"/>
+        <v>109</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="69"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="2">
         <v>933</v>
       </c>
@@ -3611,31 +3610,31 @@
         <v>2</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="47"/>
+        <v>98</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="69"/>
     </row>
     <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="2">
         <v>934</v>
       </c>
@@ -3646,29 +3645,29 @@
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="63"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="48"/>
+        <v>99</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="70"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="10">
         <v>931</v>
       </c>
@@ -3679,22 +3678,22 @@
         <v>2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="52" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>14</v>
@@ -3722,87 +3721,87 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="58">
+      <c r="A21" s="47"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="62">
         <v>932</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="8">
         <v>2</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="56"/>
+        <v>73</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="42">
+        <v>101</v>
+      </c>
+      <c r="L21" s="50">
         <v>20</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="51">
         <v>2</v>
       </c>
-      <c r="N21" s="44">
+      <c r="N21" s="49">
         <v>28</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="48">
         <v>10</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="50">
         <v>10</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="51">
         <v>2</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="49">
         <v>28</v>
       </c>
-      <c r="S21" s="46">
+      <c r="S21" s="68">
         <f>SUM(L21:R24)</f>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="57"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="57"/>
+        <v>105</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="47"/>
+        <v>110</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="69"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="10">
         <v>933</v>
       </c>
@@ -3813,31 +3812,31 @@
         <v>2</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="47"/>
+        <v>102</v>
+      </c>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="69"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="10">
         <v>934</v>
       </c>
@@ -3848,29 +3847,29 @@
         <v>4</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
+        <v>75</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="48"/>
+        <v>103</v>
+      </c>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="70"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
@@ -3883,22 +3882,22 @@
         <v>2</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>14</v>
@@ -3926,87 +3925,87 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="46">
+      <c r="A26" s="47"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="68">
         <v>942</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="55" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="6">
         <v>2</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="53"/>
+        <v>86</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="42">
+        <v>77</v>
+      </c>
+      <c r="L26" s="50">
         <v>20</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="51">
         <v>1</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="49">
         <v>29</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="48">
         <v>10</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="50">
         <v>10</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="51">
         <v>1</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="49">
         <v>29</v>
       </c>
-      <c r="S26" s="46">
+      <c r="S26" s="68">
         <f>SUM(L26:R29)</f>
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="54"/>
+        <v>108</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="47"/>
+        <v>116</v>
+      </c>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="69"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="2">
         <v>943</v>
       </c>
@@ -4017,31 +4016,31 @@
         <v>2</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="47"/>
+        <v>78</v>
+      </c>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="69"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="2">
         <v>944</v>
       </c>
@@ -4052,29 +4051,29 @@
         <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="63"/>
+        <v>88</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="57"/>
       <c r="J29" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="48"/>
+        <v>79</v>
+      </c>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="70"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="10">
         <v>941</v>
       </c>
@@ -4085,22 +4084,22 @@
         <v>2</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="52" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L30" s="18" t="s">
         <v>14</v>
@@ -4128,87 +4127,87 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="58">
+      <c r="A31" s="47"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="62">
         <v>942</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="8">
         <v>2</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="56"/>
+        <v>90</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="L31" s="42">
+        <v>81</v>
+      </c>
+      <c r="L31" s="50">
         <v>20</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="51">
         <v>0.1</v>
       </c>
-      <c r="N31" s="44">
+      <c r="N31" s="49">
         <v>29.9</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="48">
         <v>10</v>
       </c>
-      <c r="P31" s="42">
+      <c r="P31" s="50">
         <v>10</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="51">
         <v>0.1</v>
       </c>
-      <c r="R31" s="44">
+      <c r="R31" s="49">
         <v>29.9</v>
       </c>
-      <c r="S31" s="46">
+      <c r="S31" s="68">
         <f>SUM(L31:R34)</f>
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="57"/>
+        <v>111</v>
+      </c>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="47"/>
+        <v>117</v>
+      </c>
+      <c r="L32" s="50"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="69"/>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="10">
         <v>943</v>
       </c>
@@ -4219,31 +4218,31 @@
         <v>2</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="42"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="69"/>
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="10">
         <v>944</v>
       </c>
@@ -4254,32 +4253,32 @@
         <v>4</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
+        <v>92</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="48"/>
+        <v>83</v>
+      </c>
+      <c r="L34" s="50"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="70"/>
     </row>
     <row r="35" spans="1:22" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
@@ -4292,19 +4291,19 @@
         <v>2</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K36" s="1">
         <v>9411</v>
@@ -4344,8 +4343,8 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="35">
         <v>952</v>
       </c>
@@ -4356,55 +4355,55 @@
         <v>2</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="67"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="53"/>
+        <v>120</v>
+      </c>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K37" s="1">
         <v>9421</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="50">
         <v>20</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M37" s="49">
         <v>30</v>
       </c>
-      <c r="N37" s="45">
+      <c r="N37" s="48">
         <v>10</v>
       </c>
-      <c r="O37" s="42">
+      <c r="O37" s="50">
         <v>10</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="51">
         <v>10</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q37" s="49">
         <v>20</v>
       </c>
-      <c r="R37" s="45">
+      <c r="R37" s="48">
         <v>10</v>
       </c>
-      <c r="S37" s="42">
+      <c r="S37" s="50">
         <v>10</v>
       </c>
-      <c r="T37" s="43">
+      <c r="T37" s="51">
         <v>10</v>
       </c>
-      <c r="U37" s="44">
+      <c r="U37" s="49">
         <v>20</v>
       </c>
-      <c r="V37" s="62">
+      <c r="V37" s="42">
         <f>SUM(L37:U39)</f>
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="2">
         <v>953</v>
       </c>
@@ -4415,34 +4414,34 @@
         <v>2</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K38" s="1">
         <v>9431</v>
       </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="62"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="42"/>
     </row>
     <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="2">
         <v>954</v>
       </c>
@@ -4453,32 +4452,32 @@
         <v>4</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="63"/>
+        <v>123</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K39" s="1">
         <v>9441</v>
       </c>
-      <c r="L39" s="42"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="62"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="42"/>
     </row>
     <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="10">
         <v>951</v>
       </c>
@@ -4489,19 +4488,19 @@
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="52" t="s">
         <v>36</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K40" s="1">
         <v>9412</v>
@@ -4541,8 +4540,8 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="36">
         <v>952</v>
       </c>
@@ -4553,55 +4552,55 @@
         <v>2</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="56"/>
+        <v>125</v>
+      </c>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K41" s="1">
         <v>9422</v>
       </c>
-      <c r="L41" s="42">
+      <c r="L41" s="50">
         <v>20</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="49">
         <v>30</v>
       </c>
-      <c r="N41" s="45">
+      <c r="N41" s="48">
         <v>10</v>
       </c>
-      <c r="O41" s="42">
+      <c r="O41" s="50">
         <v>10</v>
       </c>
-      <c r="P41" s="43">
+      <c r="P41" s="51">
         <v>5</v>
       </c>
-      <c r="Q41" s="44">
+      <c r="Q41" s="49">
         <v>25</v>
       </c>
-      <c r="R41" s="45">
+      <c r="R41" s="48">
         <v>10</v>
       </c>
-      <c r="S41" s="42">
+      <c r="S41" s="50">
         <v>10</v>
       </c>
-      <c r="T41" s="43">
+      <c r="T41" s="51">
         <v>5</v>
       </c>
-      <c r="U41" s="44">
+      <c r="U41" s="49">
         <v>25</v>
       </c>
-      <c r="V41" s="62">
+      <c r="V41" s="42">
         <f>SUM(L41:U43)</f>
         <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="10">
         <v>953</v>
       </c>
@@ -4612,34 +4611,34 @@
         <v>2</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K42" s="1">
         <v>9432</v>
       </c>
-      <c r="L42" s="42"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="62"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="42"/>
     </row>
     <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="51"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="10">
         <v>954</v>
       </c>
@@ -4650,32 +4649,32 @@
         <v>4</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
+        <v>128</v>
+      </c>
+      <c r="G43" s="58"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K43" s="1">
         <v>9442</v>
       </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="62"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="42"/>
     </row>
     <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="2">
         <v>951</v>
       </c>
@@ -4686,19 +4685,19 @@
         <v>2</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="I44" s="52" t="s">
+      <c r="G44" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K44" s="1">
         <v>9413</v>
@@ -4738,8 +4737,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="35">
         <v>952</v>
       </c>
@@ -4750,55 +4749,55 @@
         <v>2</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="67"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="53"/>
+        <v>121</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K45" s="1">
         <v>9423</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L45" s="50">
         <v>20</v>
       </c>
-      <c r="M45" s="44">
+      <c r="M45" s="49">
         <v>30</v>
       </c>
-      <c r="N45" s="45">
+      <c r="N45" s="48">
         <v>10</v>
       </c>
-      <c r="O45" s="42">
+      <c r="O45" s="50">
         <v>10</v>
       </c>
-      <c r="P45" s="43">
+      <c r="P45" s="51">
         <v>4</v>
       </c>
-      <c r="Q45" s="44">
+      <c r="Q45" s="49">
         <v>26</v>
       </c>
-      <c r="R45" s="45">
+      <c r="R45" s="48">
         <v>10</v>
       </c>
-      <c r="S45" s="42">
+      <c r="S45" s="50">
         <v>10</v>
       </c>
-      <c r="T45" s="43">
+      <c r="T45" s="51">
         <v>4</v>
       </c>
-      <c r="U45" s="44">
+      <c r="U45" s="49">
         <v>26</v>
       </c>
-      <c r="V45" s="62">
+      <c r="V45" s="42">
         <f>SUM(L45:U47)</f>
         <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="2">
         <v>953</v>
       </c>
@@ -4809,34 +4808,34 @@
         <v>2</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="67"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K46" s="1">
         <v>9433</v>
       </c>
-      <c r="L46" s="42"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="62"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="42"/>
     </row>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="2">
         <v>954</v>
       </c>
@@ -4847,32 +4846,32 @@
         <v>4</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="67"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="63"/>
+        <v>136</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K47" s="1">
         <v>9443</v>
       </c>
-      <c r="L47" s="42"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="62"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="42"/>
     </row>
     <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="10">
         <v>951</v>
       </c>
@@ -4883,19 +4882,19 @@
         <v>2</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="52" t="s">
         <v>36</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K48" s="1">
         <v>9414</v>
@@ -4935,8 +4934,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="36">
         <v>952</v>
       </c>
@@ -4947,55 +4946,55 @@
         <v>2</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="56"/>
+        <v>126</v>
+      </c>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="53"/>
       <c r="J49" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K49" s="1">
         <v>9424</v>
       </c>
-      <c r="L49" s="42">
+      <c r="L49" s="50">
         <v>20</v>
       </c>
-      <c r="M49" s="44">
+      <c r="M49" s="49">
         <v>30</v>
       </c>
-      <c r="N49" s="45">
+      <c r="N49" s="48">
         <v>10</v>
       </c>
-      <c r="O49" s="42">
+      <c r="O49" s="50">
         <v>10</v>
       </c>
-      <c r="P49" s="43">
+      <c r="P49" s="51">
         <v>1</v>
       </c>
-      <c r="Q49" s="44">
+      <c r="Q49" s="49">
         <v>29</v>
       </c>
-      <c r="R49" s="45">
+      <c r="R49" s="48">
         <v>10</v>
       </c>
-      <c r="S49" s="42">
+      <c r="S49" s="50">
         <v>10</v>
       </c>
-      <c r="T49" s="43">
+      <c r="T49" s="51">
         <v>1</v>
       </c>
-      <c r="U49" s="44">
+      <c r="U49" s="49">
         <v>29</v>
       </c>
-      <c r="V49" s="62">
+      <c r="V49" s="42">
         <f>SUM(L49:U51)</f>
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="10">
         <v>953</v>
       </c>
@@ -5006,34 +5005,34 @@
         <v>2</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K50" s="1">
         <v>9434</v>
       </c>
-      <c r="L50" s="42"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="62"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="42"/>
     </row>
     <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
-      <c r="B51" s="51"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="10">
         <v>954</v>
       </c>
@@ -5044,32 +5043,32 @@
         <v>4</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="69"/>
+        <v>137</v>
+      </c>
+      <c r="G51" s="58"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K51" s="1">
         <v>9444</v>
       </c>
-      <c r="L51" s="42"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="62"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="42"/>
     </row>
     <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="50" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2">
@@ -5082,19 +5081,19 @@
         <v>2</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K52" s="1">
         <v>9511</v>
@@ -5134,8 +5133,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="35">
         <v>962</v>
       </c>
@@ -5146,55 +5145,55 @@
         <v>2</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="67"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="G53" s="46"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K53" s="1">
         <v>9521</v>
       </c>
-      <c r="L53" s="42">
+      <c r="L53" s="50">
         <v>20</v>
       </c>
-      <c r="M53" s="44">
+      <c r="M53" s="49">
         <v>30</v>
       </c>
-      <c r="N53" s="45">
+      <c r="N53" s="48">
         <v>10</v>
       </c>
-      <c r="O53" s="42">
+      <c r="O53" s="50">
         <v>10</v>
       </c>
-      <c r="P53" s="43">
+      <c r="P53" s="51">
         <v>10</v>
       </c>
-      <c r="Q53" s="44">
+      <c r="Q53" s="49">
         <v>20</v>
       </c>
-      <c r="R53" s="45">
+      <c r="R53" s="48">
         <v>10</v>
       </c>
-      <c r="S53" s="42">
+      <c r="S53" s="50">
         <v>10</v>
       </c>
-      <c r="T53" s="43">
+      <c r="T53" s="51">
         <v>10</v>
       </c>
-      <c r="U53" s="44">
+      <c r="U53" s="49">
         <v>20</v>
       </c>
-      <c r="V53" s="62">
+      <c r="V53" s="42">
         <f>SUM(L53:U55)</f>
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="2">
         <v>963</v>
       </c>
@@ -5205,34 +5204,34 @@
         <v>2</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K54" s="1">
         <v>9531</v>
       </c>
-      <c r="L54" s="42"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="62"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="42"/>
     </row>
     <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="51"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="2">
         <v>964</v>
       </c>
@@ -5243,32 +5242,32 @@
         <v>4</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G55" s="67"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="63"/>
+        <v>144</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="57"/>
       <c r="J55" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K55" s="1">
         <v>9541</v>
       </c>
-      <c r="L55" s="42"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="62"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="42"/>
     </row>
     <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="10">
         <v>961</v>
       </c>
@@ -5279,19 +5278,19 @@
         <v>2</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="52" t="s">
         <v>36</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K56" s="1">
         <v>9512</v>
@@ -5331,8 +5330,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="36">
         <v>962</v>
       </c>
@@ -5343,55 +5342,55 @@
         <v>2</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="56"/>
+        <v>146</v>
+      </c>
+      <c r="G57" s="58"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K57" s="1">
         <v>9522</v>
       </c>
-      <c r="L57" s="42">
+      <c r="L57" s="50">
         <v>20</v>
       </c>
-      <c r="M57" s="44">
+      <c r="M57" s="49">
         <v>30</v>
       </c>
-      <c r="N57" s="45">
+      <c r="N57" s="48">
         <v>10</v>
       </c>
-      <c r="O57" s="42">
+      <c r="O57" s="50">
         <v>10</v>
       </c>
-      <c r="P57" s="43">
+      <c r="P57" s="51">
         <v>4</v>
       </c>
-      <c r="Q57" s="44">
+      <c r="Q57" s="49">
         <v>26</v>
       </c>
-      <c r="R57" s="45">
+      <c r="R57" s="48">
         <v>10</v>
       </c>
-      <c r="S57" s="42">
+      <c r="S57" s="50">
         <v>10</v>
       </c>
-      <c r="T57" s="43">
+      <c r="T57" s="51">
         <v>4</v>
       </c>
-      <c r="U57" s="44">
+      <c r="U57" s="49">
         <v>26</v>
       </c>
-      <c r="V57" s="62">
+      <c r="V57" s="42">
         <f>SUM(L57:U59)</f>
         <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="51"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="10">
         <v>963</v>
       </c>
@@ -5402,34 +5401,34 @@
         <v>2</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K58" s="1">
         <v>9532</v>
       </c>
-      <c r="L58" s="42"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="62"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="42"/>
     </row>
     <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="51"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="10">
         <v>964</v>
       </c>
@@ -5440,32 +5439,32 @@
         <v>4</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="69"/>
+        <v>148</v>
+      </c>
+      <c r="G59" s="58"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K59" s="1">
         <v>9542</v>
       </c>
-      <c r="L59" s="42"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="62"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="42"/>
     </row>
     <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="51"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="2">
         <v>961</v>
       </c>
@@ -5476,19 +5475,19 @@
         <v>2</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="I60" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K60" s="1">
         <v>9513</v>
@@ -5528,8 +5527,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
-      <c r="B61" s="51"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="35">
         <v>962</v>
       </c>
@@ -5540,55 +5539,55 @@
         <v>2</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" s="67"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="53"/>
+        <v>150</v>
+      </c>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="56"/>
       <c r="J61" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K61" s="1">
         <v>9523</v>
       </c>
-      <c r="L61" s="42">
+      <c r="L61" s="50">
         <v>20</v>
       </c>
-      <c r="M61" s="44">
+      <c r="M61" s="49">
         <v>30</v>
       </c>
-      <c r="N61" s="45">
+      <c r="N61" s="48">
         <v>10</v>
       </c>
-      <c r="O61" s="42">
+      <c r="O61" s="50">
         <v>10</v>
       </c>
-      <c r="P61" s="43">
+      <c r="P61" s="51">
         <v>10</v>
       </c>
-      <c r="Q61" s="44">
+      <c r="Q61" s="49">
         <v>20</v>
       </c>
-      <c r="R61" s="45">
+      <c r="R61" s="48">
         <v>10</v>
       </c>
-      <c r="S61" s="42">
+      <c r="S61" s="50">
         <v>10</v>
       </c>
-      <c r="T61" s="43">
+      <c r="T61" s="51">
         <v>10</v>
       </c>
-      <c r="U61" s="44">
+      <c r="U61" s="49">
         <v>20</v>
       </c>
-      <c r="V61" s="62">
+      <c r="V61" s="42">
         <f>SUM(L61:U63)</f>
         <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
-      <c r="B62" s="51"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="2">
         <v>963</v>
       </c>
@@ -5599,34 +5598,34 @@
         <v>2</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G62" s="67"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K62" s="1">
         <v>9533</v>
       </c>
-      <c r="L62" s="42"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="45"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="62"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="42"/>
     </row>
     <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
-      <c r="B63" s="51"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="2">
         <v>964</v>
       </c>
@@ -5637,32 +5636,32 @@
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="67"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="63"/>
+        <v>152</v>
+      </c>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="57"/>
       <c r="J63" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K63" s="1">
         <v>9543</v>
       </c>
-      <c r="L63" s="42"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="45"/>
-      <c r="S63" s="42"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="62"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="42"/>
     </row>
     <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
-      <c r="B64" s="51"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="10">
         <v>961</v>
       </c>
@@ -5673,19 +5672,19 @@
         <v>2</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="H64" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="I64" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="52" t="s">
         <v>36</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K64" s="1">
         <v>9514</v>
@@ -5725,8 +5724,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="51"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="36">
         <v>962</v>
       </c>
@@ -5737,55 +5736,55 @@
         <v>2</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="70"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="56"/>
+        <v>154</v>
+      </c>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="53"/>
       <c r="J65" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K65" s="1">
         <v>9524</v>
       </c>
-      <c r="L65" s="42">
+      <c r="L65" s="50">
         <v>20</v>
       </c>
-      <c r="M65" s="44">
+      <c r="M65" s="49">
         <v>30</v>
       </c>
-      <c r="N65" s="45">
+      <c r="N65" s="48">
         <v>10</v>
       </c>
-      <c r="O65" s="42">
+      <c r="O65" s="50">
         <v>10</v>
       </c>
-      <c r="P65" s="43">
+      <c r="P65" s="51">
         <v>2</v>
       </c>
-      <c r="Q65" s="44">
+      <c r="Q65" s="49">
         <v>28</v>
       </c>
-      <c r="R65" s="45">
+      <c r="R65" s="48">
         <v>10</v>
       </c>
-      <c r="S65" s="42">
+      <c r="S65" s="50">
         <v>10</v>
       </c>
-      <c r="T65" s="43">
+      <c r="T65" s="51">
         <v>2</v>
       </c>
-      <c r="U65" s="44">
+      <c r="U65" s="49">
         <v>28</v>
       </c>
-      <c r="V65" s="62">
+      <c r="V65" s="42">
         <f>SUM(L65:U67)</f>
         <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="51"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="10">
         <v>963</v>
       </c>
@@ -5796,34 +5795,34 @@
         <v>2</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G66" s="70"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="58"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="54" t="s">
         <v>37</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K66" s="1">
         <v>9534</v>
       </c>
-      <c r="L66" s="42"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="45"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="62"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="42"/>
     </row>
     <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="92"/>
-      <c r="B67" s="51"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="10">
         <v>964</v>
       </c>
@@ -5834,36 +5833,36 @@
         <v>4</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" s="70"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="69"/>
+        <v>156</v>
+      </c>
+      <c r="G67" s="58"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K67" s="1">
         <v>9544</v>
       </c>
-      <c r="L67" s="42"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="45"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="62"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="42"/>
     </row>
     <row r="68" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="13">
         <f>SUM(E2:E67)</f>
         <v>158</v>
@@ -5875,10 +5874,10 @@
     </row>
     <row r="69" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="66" t="s">
+      <c r="A70" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2">
@@ -5891,19 +5890,19 @@
         <v>2</v>
       </c>
       <c r="F70" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="G70" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="H70" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="I70" s="52" t="s">
+      <c r="I70" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L70" s="18" t="s">
         <v>14</v>
@@ -5931,8 +5930,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="66"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="35">
         <v>972</v>
       </c>
@@ -5943,43 +5942,43 @@
         <v>2</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G71" s="67"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="53"/>
+        <v>163</v>
+      </c>
+      <c r="G71" s="46"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="56"/>
       <c r="J71" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="L71" s="42">
+        <v>142</v>
+      </c>
+      <c r="L71" s="50">
         <v>20</v>
       </c>
-      <c r="M71" s="43">
+      <c r="M71" s="51">
         <v>5</v>
       </c>
-      <c r="N71" s="44">
+      <c r="N71" s="49">
         <v>25</v>
       </c>
-      <c r="O71" s="45">
+      <c r="O71" s="48">
         <v>20</v>
       </c>
-      <c r="P71" s="42">
+      <c r="P71" s="50">
         <v>10</v>
       </c>
-      <c r="Q71" s="43">
+      <c r="Q71" s="51">
         <v>5</v>
       </c>
-      <c r="R71" s="44">
+      <c r="R71" s="49">
         <v>15</v>
       </c>
-      <c r="S71" s="62">
+      <c r="S71" s="42">
         <f>SUM(L71:R71)</f>
         <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="66"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="2">
         <v>973</v>
       </c>
@@ -5990,28 +5989,28 @@
         <v>2</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G72" s="67"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" s="46"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="62"/>
+        <v>143</v>
+      </c>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="42"/>
     </row>
     <row r="73" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="66"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="60"/>
       <c r="C73" s="2">
         <v>974</v>
       </c>
@@ -6022,30 +6021,30 @@
         <v>4</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G73" s="67"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="63"/>
+        <v>165</v>
+      </c>
+      <c r="G73" s="46"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="57"/>
       <c r="J73" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L73" s="42"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="62"/>
+        <v>144</v>
+      </c>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="42"/>
     </row>
     <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="13">
         <f>SUM(E70:E73)</f>
         <v>10</v>
@@ -6115,6 +6114,236 @@
     </row>
   </sheetData>
   <mergeCells count="254">
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="A15:A34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="S71:S73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="S31:S34"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="Q71:Q73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="B52:B67"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="U37:U39"/>
+    <mergeCell ref="T2:Z4"/>
+    <mergeCell ref="U5:Z8"/>
+    <mergeCell ref="U9:Z10"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="V37:V39"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="V45:V47"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="T49:T51"/>
+    <mergeCell ref="U49:U51"/>
+    <mergeCell ref="V49:V51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="U61:U63"/>
+    <mergeCell ref="V61:V63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="R53:R55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="S57:S59"/>
+    <mergeCell ref="T57:T59"/>
     <mergeCell ref="V65:V67"/>
     <mergeCell ref="A36:A67"/>
     <mergeCell ref="G70:G73"/>
@@ -6139,236 +6368,6 @@
     <mergeCell ref="R61:R63"/>
     <mergeCell ref="S61:S63"/>
     <mergeCell ref="T61:T63"/>
-    <mergeCell ref="U61:U63"/>
-    <mergeCell ref="V61:V63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="R53:R55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="S57:S59"/>
-    <mergeCell ref="T57:T59"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="V45:V47"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="T49:T51"/>
-    <mergeCell ref="U49:U51"/>
-    <mergeCell ref="V49:V51"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="U37:U39"/>
-    <mergeCell ref="T2:Z4"/>
-    <mergeCell ref="U5:Z8"/>
-    <mergeCell ref="U9:Z10"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="B52:B67"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="S31:S34"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="Q71:Q73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="V37:V39"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="S37:S39"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S16:S19"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="Q16:Q19"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="A15:A34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6409,17 +6408,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
       <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6438,48 +6437,48 @@
         <v>22</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
       <c r="O2" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="14"/>
       <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="76" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="25">
@@ -6495,26 +6494,26 @@
       <c r="F4" s="27">
         <v>30</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="75">
         <v>90</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81">
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="79">
         <v>60</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="78">
+      <c r="K4" s="80"/>
+      <c r="L4" s="75">
         <v>90</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
       <c r="O4" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="25">
         <v>102</v>
       </c>
@@ -6528,26 +6527,26 @@
       <c r="F5" s="27">
         <v>30</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="75">
         <v>90</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81">
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79">
         <v>60</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="78">
+      <c r="K5" s="80"/>
+      <c r="L5" s="75">
         <v>90</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="80"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="25">
         <v>103</v>
       </c>
@@ -6561,26 +6560,26 @@
       <c r="F6" s="27">
         <v>30</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="75">
         <v>90</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81">
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="79">
         <v>60</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="78">
+      <c r="K6" s="80"/>
+      <c r="L6" s="75">
         <v>90</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
       <c r="O6" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="25">
         <v>104</v>
       </c>
@@ -6594,26 +6593,26 @@
       <c r="F7" s="27">
         <v>30</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="75">
         <v>90</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81">
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="79">
         <v>60</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="78">
+      <c r="K7" s="80"/>
+      <c r="L7" s="75">
         <v>90</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="80"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
       <c r="O7" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="25">
         <v>105</v>
       </c>
@@ -6627,26 +6626,26 @@
       <c r="F8" s="27">
         <v>30</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="75">
         <v>90</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81">
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="79">
         <v>60</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="78">
+      <c r="K8" s="80"/>
+      <c r="L8" s="75">
         <v>90</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="25">
         <v>106</v>
       </c>
@@ -6660,26 +6659,26 @@
       <c r="F9" s="27">
         <v>30</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="75">
         <v>90</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="79">
         <v>60</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="78">
+      <c r="K9" s="80"/>
+      <c r="L9" s="75">
         <v>90</v>
       </c>
-      <c r="M9" s="79"/>
-      <c r="N9" s="80"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
       <c r="O9" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="25">
         <v>107</v>
       </c>
@@ -6693,26 +6692,26 @@
       <c r="F10" s="27">
         <v>30</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="75">
         <v>90</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81">
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="79">
         <v>60</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="78">
+      <c r="K10" s="80"/>
+      <c r="L10" s="75">
         <v>90</v>
       </c>
-      <c r="M10" s="79"/>
-      <c r="N10" s="80"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="25">
         <v>108</v>
       </c>
@@ -6726,26 +6725,26 @@
       <c r="F11" s="27">
         <v>30</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="75">
         <v>90</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81">
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="79">
         <v>60</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="78">
+      <c r="K11" s="80"/>
+      <c r="L11" s="75">
         <v>90</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="77"/>
       <c r="O11" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="25">
         <v>109</v>
       </c>
@@ -6759,26 +6758,26 @@
       <c r="F12" s="27">
         <v>30</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="75">
         <v>90</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81">
+      <c r="H12" s="76"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="79">
         <v>60</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="78">
+      <c r="K12" s="80"/>
+      <c r="L12" s="75">
         <v>90</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="80"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
       <c r="O12" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="25">
         <v>110</v>
       </c>
@@ -6792,47 +6791,26 @@
       <c r="F13" s="27">
         <v>30</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="75">
         <v>90</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81">
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="79">
         <v>60</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="78">
+      <c r="K13" s="80"/>
+      <c r="L13" s="75">
         <v>90</v>
       </c>
-      <c r="M13" s="79"/>
-      <c r="N13" s="80"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="28">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="F2:N2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -6849,6 +6827,27 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L8:N8"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets/List of Scenarios.xlsx
+++ b/Datasets/List of Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="751" documentId="13_ncr:1_{AEC70A0C-6861-45D1-8D11-9AFD0C174D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{443DBADC-0498-4445-8BE6-19566EA894D7}"/>
+  <xr:revisionPtr revIDLastSave="885" documentId="13_ncr:1_{AEC70A0C-6861-45D1-8D11-9AFD0C174D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C8D7A55-EB3D-4539-8DEF-1B5CE05797F6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="172">
   <si>
     <t>Attack condition</t>
   </si>
@@ -2355,9 +2355,36 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2373,18 +2400,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2409,51 +2424,60 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2463,9 +2487,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2492,27 +2513,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,8 +2808,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,13 +2828,14 @@
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
     <col min="23" max="25" width="7.140625" customWidth="1"/>
     <col min="26" max="26" width="11.28515625" customWidth="1"/>
     <col min="27" max="32" width="7.140625" customWidth="1"/>
@@ -2871,22 +2872,22 @@
       <c r="J1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
@@ -2901,19 +2902,19 @@
       <c r="F2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="78">
         <v>9111</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="77" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -2937,22 +2938,22 @@
       <c r="R2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="88" t="s">
+      <c r="S2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="2">
         <v>912</v>
       </c>
@@ -2965,47 +2966,47 @@
       <c r="F3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="50">
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="44">
         <v>20</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="45">
         <v>5</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="46">
         <v>35</v>
       </c>
-      <c r="O3" s="71">
+      <c r="O3" s="68">
         <v>10</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="44">
         <v>20</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="45">
         <v>5</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="46">
         <v>25</v>
       </c>
-      <c r="S3" s="89">
+      <c r="S3" s="67">
         <f>SUM(L3:R5)</f>
         <v>120</v>
       </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="2">
         <v>913</v>
       </c>
@@ -3018,34 +3019,34 @@
       <c r="F4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="57" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="2">
         <v>914</v>
       </c>
@@ -3058,34 +3059,34 @@
       <c r="F5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="71" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="94" t="s">
+      <c r="U5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="10">
         <v>911</v>
       </c>
@@ -3098,19 +3099,19 @@
       <c r="F6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="77" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -3134,20 +3135,20 @@
       <c r="R6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="88" t="s">
+      <c r="S6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="10">
         <v>912</v>
       </c>
@@ -3160,47 +3161,47 @@
       <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="50">
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="44">
         <v>20</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="45">
         <v>5</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="46">
         <v>35</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="68">
         <v>10</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="44">
         <v>20</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="45">
         <v>5</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="46">
         <v>25</v>
       </c>
-      <c r="S7" s="89">
+      <c r="S7" s="67">
         <f>SUM(L7:R9)</f>
         <v>120</v>
       </c>
-      <c r="T7" s="71"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="10">
         <v>913</v>
       </c>
@@ -3213,36 +3214,36 @@
       <c r="F8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="54" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="10">
         <v>914</v>
       </c>
@@ -3255,34 +3256,34 @@
       <c r="F9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="48" t="s">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="94" t="s">
+      <c r="U9" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
@@ -3297,19 +3298,19 @@
       <c r="F10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="82" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="18" t="s">
@@ -3333,18 +3334,18 @@
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="90"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="2">
         <v>922</v>
       </c>
@@ -3357,38 +3358,38 @@
       <c r="F11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="50">
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="44">
         <v>20</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="45">
         <v>30</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N11" s="44">
         <v>10</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="51">
         <v>10</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="44">
         <v>20</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="45">
         <v>30</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="50">
         <f>SUM(L11:Q13)</f>
         <v>120</v>
       </c>
-      <c r="S11" s="91"/>
+      <c r="S11" s="80"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="2">
         <v>923</v>
       </c>
@@ -3401,29 +3402,29 @@
       <c r="F12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="57" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="91"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="80"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="2">
         <v>924</v>
       </c>
@@ -3436,19 +3437,19 @@
       <c r="F13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="91"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="80"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -3460,10 +3461,10 @@
       <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
@@ -3478,13 +3479,13 @@
       <c r="F15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="15" t="s">
@@ -3514,17 +3515,29 @@
       <c r="R15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="68">
+      <c r="A16" s="56"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="47">
         <v>932</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="6">
@@ -3533,73 +3546,89 @@
       <c r="F16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="56"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="K16" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="50">
-        <v>20</v>
-      </c>
-      <c r="M16" s="51">
+      <c r="L16" s="44">
+        <v>15</v>
+      </c>
+      <c r="M16" s="45">
         <v>5</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="46">
+        <v>5</v>
+      </c>
+      <c r="O16" s="51">
+        <v>10</v>
+      </c>
+      <c r="P16" s="44">
         <v>25</v>
       </c>
-      <c r="O16" s="48">
+      <c r="Q16" s="45">
+        <v>5</v>
+      </c>
+      <c r="R16" s="46">
+        <v>5</v>
+      </c>
+      <c r="S16" s="51">
         <v>10</v>
       </c>
-      <c r="P16" s="50">
+      <c r="T16" s="44">
+        <v>25</v>
+      </c>
+      <c r="U16" s="45">
+        <v>5</v>
+      </c>
+      <c r="V16" s="46">
         <v>10</v>
       </c>
-      <c r="Q16" s="51">
-        <v>5</v>
-      </c>
-      <c r="R16" s="49">
-        <v>25</v>
-      </c>
-      <c r="S16" s="68">
-        <f>SUM(L16:R19)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="61"/>
+      <c r="W16" s="47">
+        <f>SUM(L16:V19)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="6">
         <v>2</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="61"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="15" t="s">
         <v>104</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="69"/>
-    </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="66"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="48"/>
+    </row>
+    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="2">
         <v>933</v>
       </c>
@@ -3612,9 +3641,9 @@
       <c r="F18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="57" t="s">
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="15" t="s">
@@ -3623,18 +3652,22 @@
       <c r="K18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="69"/>
-    </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="66"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="48"/>
+    </row>
+    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="2">
         <v>934</v>
       </c>
@@ -3647,27 +3680,31 @@
       <c r="F19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="57"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="15" t="s">
         <v>71</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="70"/>
-    </row>
-    <row r="20" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="66"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="10">
         <v>931</v>
       </c>
@@ -3680,13 +3717,13 @@
       <c r="F20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="17" t="s">
@@ -3716,17 +3753,29 @@
       <c r="R20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="62">
+    <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="70">
         <v>932</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="57" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="8">
@@ -3735,73 +3784,89 @@
       <c r="F21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="53"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="17" t="s">
         <v>73</v>
       </c>
       <c r="K21" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="50">
-        <v>20</v>
-      </c>
-      <c r="M21" s="51">
+      <c r="L21" s="44">
+        <v>15</v>
+      </c>
+      <c r="M21" s="45">
         <v>2</v>
       </c>
-      <c r="N21" s="49">
+      <c r="N21" s="46">
+        <v>5</v>
+      </c>
+      <c r="O21" s="51">
+        <v>10</v>
+      </c>
+      <c r="P21" s="44">
         <v>28</v>
       </c>
-      <c r="O21" s="48">
+      <c r="Q21" s="45">
+        <v>2</v>
+      </c>
+      <c r="R21" s="46">
+        <v>5</v>
+      </c>
+      <c r="S21" s="51">
         <v>10</v>
       </c>
-      <c r="P21" s="50">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="51">
+      <c r="T21" s="44">
+        <v>28</v>
+      </c>
+      <c r="U21" s="45">
         <v>2</v>
       </c>
-      <c r="R21" s="49">
-        <v>28</v>
-      </c>
-      <c r="S21" s="68">
-        <f>SUM(L21:R24)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="V21" s="46">
+        <v>13</v>
+      </c>
+      <c r="W21" s="47">
+        <f>SUM(L21:V24)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="17" t="s">
         <v>105</v>
       </c>
       <c r="K22" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="69"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="66"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="48"/>
+    </row>
+    <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="10">
         <v>933</v>
       </c>
@@ -3814,9 +3879,9 @@
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="54" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="17" t="s">
@@ -3825,18 +3890,22 @@
       <c r="K23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="69"/>
-    </row>
-    <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="66"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="48"/>
+    </row>
+    <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="10">
         <v>934</v>
       </c>
@@ -3849,27 +3918,31 @@
       <c r="F24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="59"/>
       <c r="J24" s="17" t="s">
         <v>75</v>
       </c>
       <c r="K24" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="70"/>
-    </row>
-    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="60" t="s">
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="49"/>
+    </row>
+    <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
@@ -3884,13 +3957,13 @@
       <c r="F25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J25" s="15" t="s">
@@ -3920,17 +3993,29 @@
       <c r="R25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="S25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="68">
+    <row r="26" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="47">
         <v>942</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="6">
@@ -3939,73 +4024,89 @@
       <c r="F26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="15" t="s">
         <v>86</v>
       </c>
       <c r="K26" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L26" s="50">
-        <v>20</v>
-      </c>
-      <c r="M26" s="51">
+      <c r="L26" s="44">
+        <v>15</v>
+      </c>
+      <c r="M26" s="45">
         <v>1</v>
       </c>
-      <c r="N26" s="49">
+      <c r="N26" s="46">
+        <v>5</v>
+      </c>
+      <c r="O26" s="51">
+        <v>10</v>
+      </c>
+      <c r="P26" s="44">
         <v>29</v>
       </c>
-      <c r="O26" s="48">
+      <c r="Q26" s="45">
+        <v>1</v>
+      </c>
+      <c r="R26" s="46">
+        <v>5</v>
+      </c>
+      <c r="S26" s="51">
         <v>10</v>
       </c>
-      <c r="P26" s="50">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="51">
+      <c r="T26" s="44">
+        <v>29</v>
+      </c>
+      <c r="U26" s="45">
         <v>1</v>
       </c>
-      <c r="R26" s="49">
-        <v>29</v>
-      </c>
-      <c r="S26" s="68">
-        <f>SUM(L26:R29)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="61"/>
+      <c r="V26" s="46">
+        <v>14</v>
+      </c>
+      <c r="W26" s="47">
+        <f>SUM(L26:V29)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="61"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="15" t="s">
         <v>108</v>
       </c>
       <c r="K27" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="69"/>
-    </row>
-    <row r="28" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="60"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="48"/>
+    </row>
+    <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="2">
         <v>943</v>
       </c>
@@ -4018,9 +4119,9 @@
       <c r="F28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="57" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="15" t="s">
@@ -4029,18 +4130,22 @@
       <c r="K28" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="69"/>
-    </row>
-    <row r="29" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="60"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="48"/>
+    </row>
+    <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="2">
         <v>944</v>
       </c>
@@ -4053,27 +4158,31 @@
       <c r="F29" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="57"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="15" t="s">
         <v>88</v>
       </c>
       <c r="K29" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="70"/>
-    </row>
-    <row r="30" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="60"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="49"/>
+    </row>
+    <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="10">
         <v>941</v>
       </c>
@@ -4086,13 +4195,13 @@
       <c r="F30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="17" t="s">
@@ -4122,17 +4231,29 @@
       <c r="R30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="62">
+    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="70">
         <v>942</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="57" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="8">
@@ -4141,73 +4262,89 @@
       <c r="F31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="53"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="17" t="s">
         <v>90</v>
       </c>
       <c r="K31" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="50">
-        <v>20</v>
-      </c>
-      <c r="M31" s="51">
+      <c r="L31" s="44">
+        <v>15</v>
+      </c>
+      <c r="M31" s="45">
         <v>0.1</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="46">
+        <v>5</v>
+      </c>
+      <c r="O31" s="51">
+        <v>10</v>
+      </c>
+      <c r="P31" s="44">
         <v>29.9</v>
       </c>
-      <c r="O31" s="48">
+      <c r="Q31" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="46">
+        <v>5</v>
+      </c>
+      <c r="S31" s="51">
         <v>10</v>
       </c>
-      <c r="P31" s="50">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="51">
+      <c r="T31" s="44">
+        <v>29.9</v>
+      </c>
+      <c r="U31" s="45">
         <v>0.1</v>
       </c>
-      <c r="R31" s="49">
-        <v>29.9</v>
-      </c>
-      <c r="S31" s="68">
-        <f>SUM(L31:R34)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="V31" s="46">
+        <v>14.9</v>
+      </c>
+      <c r="W31" s="47">
+        <f>SUM(L31:V34)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="64"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="17" t="s">
         <v>111</v>
       </c>
       <c r="K32" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="69"/>
-    </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="60"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="48"/>
+    </row>
+    <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="10">
         <v>943</v>
       </c>
@@ -4220,9 +4357,9 @@
       <c r="F33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="54" t="s">
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="17" t="s">
@@ -4231,18 +4368,22 @@
       <c r="K33" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="69"/>
-    </row>
-    <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="60"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="48"/>
+    </row>
+    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="10">
         <v>944</v>
       </c>
@@ -4255,30 +4396,34 @@
       <c r="F34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="54"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="59"/>
       <c r="J34" s="17" t="s">
         <v>92</v>
       </c>
       <c r="K34" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="70"/>
-    </row>
-    <row r="35" spans="1:22" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="49"/>
+    </row>
+    <row r="35" spans="1:23" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
@@ -4293,13 +4438,13 @@
       <c r="F36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="47" t="s">
+      <c r="H36" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="15" t="s">
@@ -4314,37 +4459,40 @@
       <c r="M36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="34" t="s">
+      <c r="N36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O36" s="18" t="s">
+      <c r="R36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P36" s="19" t="s">
+      <c r="S36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q36" s="20" t="s">
+      <c r="V36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R36" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V36" s="3" t="s">
+      <c r="W36" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="66"/>
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="35">
         <v>952</v>
       </c>
@@ -4357,53 +4505,56 @@
       <c r="F37" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="56"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="15" t="s">
         <v>120</v>
       </c>
       <c r="K37" s="1">
         <v>9421</v>
       </c>
-      <c r="L37" s="50">
+      <c r="L37" s="44">
         <v>20</v>
       </c>
-      <c r="M37" s="49">
-        <v>30</v>
-      </c>
-      <c r="N37" s="48">
+      <c r="M37" s="46">
+        <v>40</v>
+      </c>
+      <c r="N37" s="44">
+        <v>60</v>
+      </c>
+      <c r="O37" s="45">
+        <v>8</v>
+      </c>
+      <c r="P37" s="46">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="51">
         <v>10</v>
       </c>
-      <c r="O37" s="50">
-        <v>10</v>
-      </c>
-      <c r="P37" s="51">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="49">
+      <c r="R37" s="44">
         <v>20</v>
       </c>
-      <c r="R37" s="48">
-        <v>10</v>
-      </c>
-      <c r="S37" s="50">
-        <v>10</v>
-      </c>
-      <c r="T37" s="51">
-        <v>10</v>
-      </c>
-      <c r="U37" s="49">
-        <v>20</v>
-      </c>
-      <c r="V37" s="42">
-        <f>SUM(L37:U39)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="66"/>
+      <c r="S37" s="46">
+        <v>40</v>
+      </c>
+      <c r="T37" s="44">
+        <v>60</v>
+      </c>
+      <c r="U37" s="45">
+        <v>8</v>
+      </c>
+      <c r="V37" s="46">
+        <v>12</v>
+      </c>
+      <c r="W37" s="50">
+        <f>SUM(L37:V39)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="2">
         <v>953</v>
       </c>
@@ -4416,9 +4567,9 @@
       <c r="F38" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="57" t="s">
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="15" t="s">
@@ -4427,21 +4578,22 @@
       <c r="K38" s="1">
         <v>9431</v>
       </c>
-      <c r="L38" s="50"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="42"/>
-    </row>
-    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="66"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="50"/>
+    </row>
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="2">
         <v>954</v>
       </c>
@@ -4454,30 +4606,31 @@
       <c r="F39" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="57"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="15" t="s">
         <v>123</v>
       </c>
       <c r="K39" s="1">
         <v>9441</v>
       </c>
-      <c r="L39" s="50"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="42"/>
-    </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="66"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="50"/>
+    </row>
+    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="10">
         <v>951</v>
       </c>
@@ -4490,13 +4643,13 @@
       <c r="F40" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="52" t="s">
+      <c r="I40" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J40" s="17" t="s">
@@ -4511,37 +4664,40 @@
       <c r="M40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="34" t="s">
+      <c r="N40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="R40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P40" s="19" t="s">
+      <c r="S40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U40" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="V40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U40" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V40" s="3" t="s">
+      <c r="W40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="66"/>
+    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="36">
         <v>952</v>
       </c>
@@ -4554,53 +4710,56 @@
       <c r="F41" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="53"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="17" t="s">
         <v>125</v>
       </c>
       <c r="K41" s="1">
         <v>9422</v>
       </c>
-      <c r="L41" s="50">
+      <c r="L41" s="44">
         <v>20</v>
       </c>
-      <c r="M41" s="49">
-        <v>30</v>
-      </c>
-      <c r="N41" s="48">
+      <c r="M41" s="46">
+        <v>40</v>
+      </c>
+      <c r="N41" s="44">
+        <v>60</v>
+      </c>
+      <c r="O41" s="45">
+        <v>4</v>
+      </c>
+      <c r="P41" s="46">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="51">
         <v>10</v>
       </c>
-      <c r="O41" s="50">
-        <v>10</v>
-      </c>
-      <c r="P41" s="51">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="49">
-        <v>25</v>
-      </c>
-      <c r="R41" s="48">
-        <v>10</v>
-      </c>
-      <c r="S41" s="50">
-        <v>10</v>
-      </c>
-      <c r="T41" s="51">
-        <v>5</v>
-      </c>
-      <c r="U41" s="49">
-        <v>25</v>
-      </c>
-      <c r="V41" s="42">
-        <f>SUM(L41:U43)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="66"/>
+      <c r="R41" s="44">
+        <v>20</v>
+      </c>
+      <c r="S41" s="46">
+        <v>40</v>
+      </c>
+      <c r="T41" s="44">
+        <v>60</v>
+      </c>
+      <c r="U41" s="45">
+        <v>4</v>
+      </c>
+      <c r="V41" s="46">
+        <v>16</v>
+      </c>
+      <c r="W41" s="50">
+        <f>SUM(L41:V43)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="10">
         <v>953</v>
       </c>
@@ -4613,9 +4772,9 @@
       <c r="F42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="54" t="s">
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="17" t="s">
@@ -4624,21 +4783,22 @@
       <c r="K42" s="1">
         <v>9432</v>
       </c>
-      <c r="L42" s="50"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="42"/>
-    </row>
-    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="66"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="50"/>
+    </row>
+    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="10">
         <v>954</v>
       </c>
@@ -4651,30 +4811,31 @@
       <c r="F43" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="54"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="17" t="s">
         <v>128</v>
       </c>
       <c r="K43" s="1">
         <v>9442</v>
       </c>
-      <c r="L43" s="50"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="42"/>
-    </row>
-    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="66"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="50"/>
+    </row>
+    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="2">
         <v>951</v>
       </c>
@@ -4687,13 +4848,13 @@
       <c r="F44" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="I44" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J44" s="15" t="s">
@@ -4708,37 +4869,40 @@
       <c r="M44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="34" t="s">
+      <c r="N44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="R44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P44" s="19" t="s">
+      <c r="S44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U44" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q44" s="20" t="s">
+      <c r="V44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U44" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="66"/>
+    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="35">
         <v>952</v>
       </c>
@@ -4751,53 +4915,56 @@
       <c r="F45" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="56"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="61"/>
       <c r="J45" s="15" t="s">
         <v>121</v>
       </c>
       <c r="K45" s="1">
         <v>9423</v>
       </c>
-      <c r="L45" s="50">
+      <c r="L45" s="44">
         <v>20</v>
       </c>
-      <c r="M45" s="49">
-        <v>30</v>
-      </c>
-      <c r="N45" s="48">
+      <c r="M45" s="46">
+        <v>40</v>
+      </c>
+      <c r="N45" s="44">
+        <v>60</v>
+      </c>
+      <c r="O45" s="45">
+        <v>4</v>
+      </c>
+      <c r="P45" s="46">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="51">
         <v>10</v>
       </c>
-      <c r="O45" s="50">
-        <v>10</v>
-      </c>
-      <c r="P45" s="51">
+      <c r="R45" s="44">
+        <v>20</v>
+      </c>
+      <c r="S45" s="46">
+        <v>40</v>
+      </c>
+      <c r="T45" s="44">
+        <v>60</v>
+      </c>
+      <c r="U45" s="45">
         <v>4</v>
       </c>
-      <c r="Q45" s="49">
-        <v>26</v>
-      </c>
-      <c r="R45" s="48">
-        <v>10</v>
-      </c>
-      <c r="S45" s="50">
-        <v>10</v>
-      </c>
-      <c r="T45" s="51">
-        <v>4</v>
-      </c>
-      <c r="U45" s="49">
-        <v>26</v>
-      </c>
-      <c r="V45" s="42">
-        <f>SUM(L45:U47)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="66"/>
+      <c r="V45" s="46">
+        <v>16</v>
+      </c>
+      <c r="W45" s="50">
+        <f>SUM(L45:V47)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="2">
         <v>953</v>
       </c>
@@ -4810,9 +4977,9 @@
       <c r="F46" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="57" t="s">
+      <c r="G46" s="55"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="15" t="s">
@@ -4821,21 +4988,22 @@
       <c r="K46" s="1">
         <v>9433</v>
       </c>
-      <c r="L46" s="50"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="42"/>
-    </row>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="66"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="50"/>
+    </row>
+    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="2">
         <v>954</v>
       </c>
@@ -4848,30 +5016,31 @@
       <c r="F47" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="57"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="15" t="s">
         <v>136</v>
       </c>
       <c r="K47" s="1">
         <v>9443</v>
       </c>
-      <c r="L47" s="50"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="42"/>
-    </row>
-    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="66"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="50"/>
+    </row>
+    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="10">
         <v>951</v>
       </c>
@@ -4884,13 +5053,13 @@
       <c r="F48" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I48" s="52" t="s">
+      <c r="I48" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J48" s="17" t="s">
@@ -4905,37 +5074,40 @@
       <c r="M48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="34" t="s">
+      <c r="N48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O48" s="18" t="s">
+      <c r="R48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="19" t="s">
+      <c r="S48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U48" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q48" s="20" t="s">
+      <c r="V48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S48" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U48" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="66"/>
+    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="36">
         <v>952</v>
       </c>
@@ -4948,53 +5120,56 @@
       <c r="F49" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="53"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="17" t="s">
         <v>126</v>
       </c>
       <c r="K49" s="1">
         <v>9424</v>
       </c>
-      <c r="L49" s="50">
+      <c r="L49" s="44">
         <v>20</v>
       </c>
-      <c r="M49" s="49">
-        <v>30</v>
-      </c>
-      <c r="N49" s="48">
+      <c r="M49" s="46">
+        <v>40</v>
+      </c>
+      <c r="N49" s="44">
+        <v>60</v>
+      </c>
+      <c r="O49" s="45">
+        <v>1</v>
+      </c>
+      <c r="P49" s="46">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="51">
         <v>10</v>
       </c>
-      <c r="O49" s="50">
-        <v>10</v>
-      </c>
-      <c r="P49" s="51">
+      <c r="R49" s="44">
+        <v>20</v>
+      </c>
+      <c r="S49" s="46">
+        <v>40</v>
+      </c>
+      <c r="T49" s="44">
+        <v>60</v>
+      </c>
+      <c r="U49" s="45">
         <v>1</v>
       </c>
-      <c r="Q49" s="49">
-        <v>29</v>
-      </c>
-      <c r="R49" s="48">
-        <v>10</v>
-      </c>
-      <c r="S49" s="50">
-        <v>10</v>
-      </c>
-      <c r="T49" s="51">
-        <v>1</v>
-      </c>
-      <c r="U49" s="49">
-        <v>29</v>
-      </c>
-      <c r="V49" s="42">
-        <f>SUM(L49:U51)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="66"/>
+      <c r="V49" s="46">
+        <v>19</v>
+      </c>
+      <c r="W49" s="50">
+        <f>SUM(L49:V51)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="10">
         <v>953</v>
       </c>
@@ -5007,9 +5182,9 @@
       <c r="F50" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="54" t="s">
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="17" t="s">
@@ -5018,21 +5193,22 @@
       <c r="K50" s="1">
         <v>9434</v>
       </c>
-      <c r="L50" s="50"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="51"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="42"/>
-    </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="66"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="50"/>
+    </row>
+    <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="10">
         <v>954</v>
       </c>
@@ -5045,30 +5221,31 @@
       <c r="F51" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="54"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="17" t="s">
         <v>137</v>
       </c>
       <c r="K51" s="1">
         <v>9444</v>
       </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="49"/>
-      <c r="V51" s="42"/>
-    </row>
-    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="65" t="s">
+      <c r="L51" s="44"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="50"/>
+    </row>
+    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="73" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2">
@@ -5083,13 +5260,13 @@
       <c r="F52" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="47" t="s">
+      <c r="H52" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="I52" s="55" t="s">
+      <c r="I52" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J52" s="15" t="s">
@@ -5104,37 +5281,40 @@
       <c r="M52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="34" t="s">
+      <c r="N52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O52" s="18" t="s">
+      <c r="R52" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P52" s="19" t="s">
+      <c r="S52" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U52" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q52" s="20" t="s">
+      <c r="V52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R52" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S52" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U52" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="66"/>
+    <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="35">
         <v>962</v>
       </c>
@@ -5147,53 +5327,56 @@
       <c r="F53" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="46"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="56"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="61"/>
       <c r="J53" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K53" s="1">
         <v>9521</v>
       </c>
-      <c r="L53" s="50">
+      <c r="L53" s="44">
         <v>20</v>
       </c>
-      <c r="M53" s="49">
-        <v>30</v>
-      </c>
-      <c r="N53" s="48">
+      <c r="M53" s="46">
+        <v>40</v>
+      </c>
+      <c r="N53" s="44">
+        <v>60</v>
+      </c>
+      <c r="O53" s="45">
+        <v>8</v>
+      </c>
+      <c r="P53" s="46">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="51">
         <v>10</v>
       </c>
-      <c r="O53" s="50">
-        <v>10</v>
-      </c>
-      <c r="P53" s="51">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="49">
+      <c r="R53" s="44">
         <v>20</v>
       </c>
-      <c r="R53" s="48">
-        <v>10</v>
-      </c>
-      <c r="S53" s="50">
-        <v>10</v>
-      </c>
-      <c r="T53" s="51">
-        <v>10</v>
-      </c>
-      <c r="U53" s="49">
-        <v>20</v>
-      </c>
-      <c r="V53" s="42">
-        <f>SUM(L53:U55)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="66"/>
+      <c r="S53" s="46">
+        <v>40</v>
+      </c>
+      <c r="T53" s="44">
+        <v>60</v>
+      </c>
+      <c r="U53" s="45">
+        <v>8</v>
+      </c>
+      <c r="V53" s="46">
+        <v>12</v>
+      </c>
+      <c r="W53" s="50">
+        <f>SUM(L53:V55)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="2">
         <v>963</v>
       </c>
@@ -5206,9 +5389,9 @@
       <c r="F54" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="G54" s="46"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="57" t="s">
+      <c r="G54" s="55"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="15" t="s">
@@ -5217,21 +5400,22 @@
       <c r="K54" s="1">
         <v>9531</v>
       </c>
-      <c r="L54" s="50"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="42"/>
-    </row>
-    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="66"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="50"/>
+    </row>
+    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="2">
         <v>964</v>
       </c>
@@ -5244,30 +5428,31 @@
       <c r="F55" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="57"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="62"/>
       <c r="J55" s="15" t="s">
         <v>144</v>
       </c>
       <c r="K55" s="1">
         <v>9541</v>
       </c>
-      <c r="L55" s="50"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="42"/>
-    </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="66"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="50"/>
+    </row>
+    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="10">
         <v>961</v>
       </c>
@@ -5280,13 +5465,13 @@
       <c r="F56" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="58" t="s">
+      <c r="G56" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="H56" s="59" t="s">
+      <c r="H56" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="I56" s="52" t="s">
+      <c r="I56" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J56" s="17" t="s">
@@ -5301,37 +5486,40 @@
       <c r="M56" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="34" t="s">
+      <c r="N56" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O56" s="18" t="s">
+      <c r="R56" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P56" s="19" t="s">
+      <c r="S56" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T56" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U56" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="V56" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R56" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S56" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T56" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U56" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V56" s="3" t="s">
+      <c r="W56" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="66"/>
+    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="36">
         <v>962</v>
       </c>
@@ -5344,53 +5532,56 @@
       <c r="F57" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="53"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="58"/>
       <c r="J57" s="17" t="s">
         <v>146</v>
       </c>
       <c r="K57" s="1">
         <v>9522</v>
       </c>
-      <c r="L57" s="50">
+      <c r="L57" s="44">
         <v>20</v>
       </c>
-      <c r="M57" s="49">
-        <v>30</v>
-      </c>
-      <c r="N57" s="48">
+      <c r="M57" s="46">
+        <v>40</v>
+      </c>
+      <c r="N57" s="44">
+        <v>60</v>
+      </c>
+      <c r="O57" s="45">
+        <v>8</v>
+      </c>
+      <c r="P57" s="46">
+        <v>12</v>
+      </c>
+      <c r="Q57" s="51">
         <v>10</v>
       </c>
-      <c r="O57" s="50">
-        <v>10</v>
-      </c>
-      <c r="P57" s="51">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="49">
-        <v>26</v>
-      </c>
-      <c r="R57" s="48">
-        <v>10</v>
-      </c>
-      <c r="S57" s="50">
-        <v>10</v>
-      </c>
-      <c r="T57" s="51">
-        <v>4</v>
-      </c>
-      <c r="U57" s="49">
-        <v>26</v>
-      </c>
-      <c r="V57" s="42">
-        <f>SUM(L57:U59)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="66"/>
+      <c r="R57" s="44">
+        <v>20</v>
+      </c>
+      <c r="S57" s="46">
+        <v>40</v>
+      </c>
+      <c r="T57" s="44">
+        <v>60</v>
+      </c>
+      <c r="U57" s="45">
+        <v>8</v>
+      </c>
+      <c r="V57" s="46">
+        <v>12</v>
+      </c>
+      <c r="W57" s="50">
+        <f>SUM(L57:V59)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="10">
         <v>963</v>
       </c>
@@ -5403,9 +5594,9 @@
       <c r="F58" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="54" t="s">
+      <c r="G58" s="63"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J58" s="17" t="s">
@@ -5414,21 +5605,22 @@
       <c r="K58" s="1">
         <v>9532</v>
       </c>
-      <c r="L58" s="50"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="42"/>
-    </row>
-    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="66"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="50"/>
+    </row>
+    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="74"/>
       <c r="C59" s="10">
         <v>964</v>
       </c>
@@ -5441,30 +5633,31 @@
       <c r="F59" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="54"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="59"/>
       <c r="J59" s="17" t="s">
         <v>148</v>
       </c>
       <c r="K59" s="1">
         <v>9542</v>
       </c>
-      <c r="L59" s="50"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="42"/>
-    </row>
-    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="66"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="50"/>
+    </row>
+    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="2">
         <v>961</v>
       </c>
@@ -5477,13 +5670,13 @@
       <c r="F60" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="46" t="s">
+      <c r="G60" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="H60" s="47" t="s">
+      <c r="H60" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="I60" s="55" t="s">
+      <c r="I60" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J60" s="15" t="s">
@@ -5498,37 +5691,40 @@
       <c r="M60" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N60" s="34" t="s">
+      <c r="N60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O60" s="18" t="s">
+      <c r="R60" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P60" s="19" t="s">
+      <c r="S60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U60" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q60" s="20" t="s">
+      <c r="V60" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R60" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S60" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T60" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U60" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V60" s="3" t="s">
+      <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="66"/>
+    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="53"/>
+      <c r="B61" s="74"/>
       <c r="C61" s="35">
         <v>962</v>
       </c>
@@ -5541,53 +5737,56 @@
       <c r="F61" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="56"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="61"/>
       <c r="J61" s="15" t="s">
         <v>150</v>
       </c>
       <c r="K61" s="1">
         <v>9523</v>
       </c>
-      <c r="L61" s="50">
+      <c r="L61" s="44">
         <v>20</v>
       </c>
-      <c r="M61" s="49">
-        <v>30</v>
-      </c>
-      <c r="N61" s="48">
+      <c r="M61" s="46">
+        <v>40</v>
+      </c>
+      <c r="N61" s="44">
+        <v>60</v>
+      </c>
+      <c r="O61" s="45">
+        <v>8</v>
+      </c>
+      <c r="P61" s="46">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="51">
         <v>10</v>
       </c>
-      <c r="O61" s="50">
-        <v>10</v>
-      </c>
-      <c r="P61" s="51">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="49">
+      <c r="R61" s="44">
         <v>20</v>
       </c>
-      <c r="R61" s="48">
-        <v>10</v>
-      </c>
-      <c r="S61" s="50">
-        <v>10</v>
-      </c>
-      <c r="T61" s="51">
-        <v>10</v>
-      </c>
-      <c r="U61" s="49">
-        <v>20</v>
-      </c>
-      <c r="V61" s="42">
-        <f>SUM(L61:U63)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="66"/>
+      <c r="S61" s="46">
+        <v>40</v>
+      </c>
+      <c r="T61" s="44">
+        <v>60</v>
+      </c>
+      <c r="U61" s="45">
+        <v>8</v>
+      </c>
+      <c r="V61" s="46">
+        <v>12</v>
+      </c>
+      <c r="W61" s="50">
+        <f>SUM(L61:V63)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="2">
         <v>963</v>
       </c>
@@ -5600,9 +5799,9 @@
       <c r="F62" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="57" t="s">
+      <c r="G62" s="55"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="15" t="s">
@@ -5611,21 +5810,22 @@
       <c r="K62" s="1">
         <v>9533</v>
       </c>
-      <c r="L62" s="50"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="42"/>
-    </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="66"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="50"/>
+    </row>
+    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="2">
         <v>964</v>
       </c>
@@ -5638,30 +5838,31 @@
       <c r="F63" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="57"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="62"/>
       <c r="J63" s="15" t="s">
         <v>152</v>
       </c>
       <c r="K63" s="1">
         <v>9543</v>
       </c>
-      <c r="L63" s="50"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="50"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="42"/>
-    </row>
-    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="66"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="50"/>
+    </row>
+    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="10">
         <v>961</v>
       </c>
@@ -5674,13 +5875,13 @@
       <c r="F64" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G64" s="58" t="s">
+      <c r="G64" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H64" s="59" t="s">
+      <c r="H64" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="I64" s="52" t="s">
+      <c r="I64" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J64" s="17" t="s">
@@ -5695,37 +5896,40 @@
       <c r="M64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N64" s="34" t="s">
+      <c r="N64" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O64" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q64" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O64" s="18" t="s">
+      <c r="R64" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P64" s="19" t="s">
+      <c r="S64" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T64" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U64" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q64" s="20" t="s">
+      <c r="V64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R64" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S64" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T64" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="U64" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V64" s="3" t="s">
+      <c r="W64" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="66"/>
+    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="74"/>
       <c r="C65" s="36">
         <v>962</v>
       </c>
@@ -5738,53 +5942,56 @@
       <c r="F65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G65" s="58"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="53"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="58"/>
       <c r="J65" s="17" t="s">
         <v>154</v>
       </c>
       <c r="K65" s="1">
         <v>9524</v>
       </c>
-      <c r="L65" s="50">
+      <c r="L65" s="44">
         <v>20</v>
       </c>
-      <c r="M65" s="49">
-        <v>30</v>
-      </c>
-      <c r="N65" s="48">
+      <c r="M65" s="46">
+        <v>40</v>
+      </c>
+      <c r="N65" s="44">
+        <v>60</v>
+      </c>
+      <c r="O65" s="45">
+        <v>8</v>
+      </c>
+      <c r="P65" s="46">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="51">
         <v>10</v>
       </c>
-      <c r="O65" s="50">
-        <v>10</v>
-      </c>
-      <c r="P65" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q65" s="49">
-        <v>28</v>
-      </c>
-      <c r="R65" s="48">
-        <v>10</v>
-      </c>
-      <c r="S65" s="50">
-        <v>10</v>
-      </c>
-      <c r="T65" s="51">
-        <v>2</v>
-      </c>
-      <c r="U65" s="49">
-        <v>28</v>
-      </c>
-      <c r="V65" s="42">
-        <f>SUM(L65:U67)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="66"/>
+      <c r="R65" s="44">
+        <v>20</v>
+      </c>
+      <c r="S65" s="46">
+        <v>40</v>
+      </c>
+      <c r="T65" s="44">
+        <v>60</v>
+      </c>
+      <c r="U65" s="45">
+        <v>8</v>
+      </c>
+      <c r="V65" s="46">
+        <v>12</v>
+      </c>
+      <c r="W65" s="50">
+        <f>SUM(L65:V67)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="10">
         <v>963</v>
       </c>
@@ -5797,9 +6004,9 @@
       <c r="F66" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="58"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="54" t="s">
+      <c r="G66" s="63"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J66" s="17" t="s">
@@ -5808,21 +6015,22 @@
       <c r="K66" s="1">
         <v>9534</v>
       </c>
-      <c r="L66" s="50"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="42"/>
-    </row>
-    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="66"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="50"/>
+    </row>
+    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="10">
         <v>964</v>
       </c>
@@ -5835,34 +6043,35 @@
       <c r="F67" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="54"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="59"/>
       <c r="J67" s="17" t="s">
         <v>156</v>
       </c>
       <c r="K67" s="1">
         <v>9544</v>
       </c>
-      <c r="L67" s="50"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="42"/>
-    </row>
-    <row r="68" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="67" t="s">
+      <c r="L67" s="44"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="50"/>
+    </row>
+    <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
       <c r="E68" s="13">
         <f>SUM(E2:E67)</f>
         <v>158</v>
@@ -5872,12 +6081,12 @@
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+    <row r="69" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2">
@@ -5892,13 +6101,13 @@
       <c r="F70" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="H70" s="47" t="s">
+      <c r="H70" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="I70" s="55" t="s">
+      <c r="I70" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J70" s="15" t="s">
@@ -5929,9 +6138,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="60"/>
+    <row r="71" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56"/>
+      <c r="B71" s="75"/>
       <c r="C71" s="35">
         <v>972</v>
       </c>
@@ -5944,41 +6153,41 @@
       <c r="F71" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="56"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="61"/>
       <c r="J71" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="L71" s="50">
+      <c r="L71" s="44">
         <v>20</v>
       </c>
-      <c r="M71" s="51">
+      <c r="M71" s="45">
         <v>5</v>
       </c>
-      <c r="N71" s="49">
+      <c r="N71" s="46">
         <v>25</v>
       </c>
-      <c r="O71" s="48">
+      <c r="O71" s="51">
         <v>20</v>
       </c>
-      <c r="P71" s="50">
+      <c r="P71" s="44">
         <v>10</v>
       </c>
-      <c r="Q71" s="51">
+      <c r="Q71" s="45">
         <v>5</v>
       </c>
-      <c r="R71" s="49">
+      <c r="R71" s="46">
         <v>15</v>
       </c>
-      <c r="S71" s="42">
+      <c r="S71" s="50">
         <f>SUM(L71:R71)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="60"/>
+    <row r="72" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="56"/>
+      <c r="B72" s="75"/>
       <c r="C72" s="2">
         <v>973</v>
       </c>
@@ -5991,26 +6200,26 @@
       <c r="F72" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="57" t="s">
+      <c r="G72" s="55"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L72" s="50"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="51"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="42"/>
-    </row>
-    <row r="73" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="60"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="50"/>
+    </row>
+    <row r="73" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="56"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="2">
         <v>974</v>
       </c>
@@ -6023,28 +6232,28 @@
       <c r="F73" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="57"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="62"/>
       <c r="J73" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="50"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="42"/>
-    </row>
-    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="67" t="s">
+      <c r="L73" s="44"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="50"/>
+    </row>
+    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
       <c r="E74" s="13">
         <f>SUM(E70:E73)</f>
         <v>10</v>
@@ -6055,22 +6264,22 @@
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
     </row>
-    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
     </row>
     <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6113,14 +6322,15 @@
       <c r="A93" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="254">
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
+  <mergeCells count="278">
+    <mergeCell ref="V37:V39"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="V45:V47"/>
+    <mergeCell ref="V49:V51"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="V57:V59"/>
+    <mergeCell ref="V61:V63"/>
+    <mergeCell ref="V65:V67"/>
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="A15:A34"/>
     <mergeCell ref="M31:M34"/>
@@ -6245,6 +6455,19 @@
     <mergeCell ref="H25:H29"/>
     <mergeCell ref="G30:G34"/>
     <mergeCell ref="H30:H34"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -6257,11 +6480,6 @@
     <mergeCell ref="H48:H51"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="I50:I51"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="N45:N47"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="I38:I39"/>
     <mergeCell ref="G40:G43"/>
@@ -6285,18 +6503,22 @@
     <mergeCell ref="S41:S43"/>
     <mergeCell ref="T41:T43"/>
     <mergeCell ref="U41:U43"/>
-    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="W41:W43"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="S7:S9"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="N3:N5"/>
-    <mergeCell ref="V37:V39"/>
+    <mergeCell ref="W37:W39"/>
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="S3:S5"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="U61:U63"/>
     <mergeCell ref="T45:T47"/>
     <mergeCell ref="U45:U47"/>
-    <mergeCell ref="V45:V47"/>
+    <mergeCell ref="W45:W47"/>
     <mergeCell ref="L49:L51"/>
     <mergeCell ref="M49:M51"/>
     <mergeCell ref="N49:N51"/>
@@ -6307,34 +6529,13 @@
     <mergeCell ref="S49:S51"/>
     <mergeCell ref="T49:T51"/>
     <mergeCell ref="U49:U51"/>
-    <mergeCell ref="V49:V51"/>
+    <mergeCell ref="W49:W51"/>
     <mergeCell ref="S45:S47"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="U61:U63"/>
-    <mergeCell ref="V61:V63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="Q53:Q55"/>
     <mergeCell ref="R53:R55"/>
     <mergeCell ref="S53:S55"/>
     <mergeCell ref="T53:T55"/>
     <mergeCell ref="U53:U55"/>
-    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="W53:W55"/>
     <mergeCell ref="L57:L59"/>
     <mergeCell ref="M57:M59"/>
     <mergeCell ref="N57:N59"/>
@@ -6344,7 +6545,7 @@
     <mergeCell ref="R57:R59"/>
     <mergeCell ref="S57:S59"/>
     <mergeCell ref="T57:T59"/>
-    <mergeCell ref="V65:V67"/>
+    <mergeCell ref="U57:U59"/>
     <mergeCell ref="A36:A67"/>
     <mergeCell ref="G70:G73"/>
     <mergeCell ref="H70:H73"/>
@@ -6354,11 +6555,25 @@
     <mergeCell ref="O65:O67"/>
     <mergeCell ref="P65:P67"/>
     <mergeCell ref="Q65:Q67"/>
-    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="G60:G63"/>
     <mergeCell ref="S65:S67"/>
     <mergeCell ref="T65:T67"/>
     <mergeCell ref="U65:U67"/>
-    <mergeCell ref="V57:V59"/>
+    <mergeCell ref="W57:W59"/>
     <mergeCell ref="L61:L63"/>
     <mergeCell ref="M61:M63"/>
     <mergeCell ref="N61:N63"/>
@@ -6368,6 +6583,24 @@
     <mergeCell ref="R61:R63"/>
     <mergeCell ref="S61:S63"/>
     <mergeCell ref="T61:T63"/>
+    <mergeCell ref="W61:W63"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="W31:W34"/>
+    <mergeCell ref="T16:T19"/>
+    <mergeCell ref="U16:U19"/>
+    <mergeCell ref="V16:V19"/>
+    <mergeCell ref="W16:W19"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="W26:W29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6408,17 +6641,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
       <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6437,48 +6670,48 @@
         <v>22</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
       <c r="O2" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="14"/>
       <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="87" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="81" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="25">
@@ -6494,26 +6727,26 @@
       <c r="F4" s="27">
         <v>30</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="83">
         <v>90</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="79">
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="86">
         <v>60</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="75">
+      <c r="K4" s="87"/>
+      <c r="L4" s="83">
         <v>90</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
       <c r="O4" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="25">
         <v>102</v>
       </c>
@@ -6527,26 +6760,26 @@
       <c r="F5" s="27">
         <v>30</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="83">
         <v>90</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79">
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86">
         <v>60</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="75">
+      <c r="K5" s="87"/>
+      <c r="L5" s="83">
         <v>90</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
       <c r="O5" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="25">
         <v>103</v>
       </c>
@@ -6560,26 +6793,26 @@
       <c r="F6" s="27">
         <v>30</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="83">
         <v>90</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="79">
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86">
         <v>60</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="75">
+      <c r="K6" s="87"/>
+      <c r="L6" s="83">
         <v>90</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
       <c r="O6" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="25">
         <v>104</v>
       </c>
@@ -6593,26 +6826,26 @@
       <c r="F7" s="27">
         <v>30</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="83">
         <v>90</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79">
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86">
         <v>60</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="75">
+      <c r="K7" s="87"/>
+      <c r="L7" s="83">
         <v>90</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
       <c r="O7" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="25">
         <v>105</v>
       </c>
@@ -6626,26 +6859,26 @@
       <c r="F8" s="27">
         <v>30</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="83">
         <v>90</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="79">
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86">
         <v>60</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="75">
+      <c r="K8" s="87"/>
+      <c r="L8" s="83">
         <v>90</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="25">
         <v>106</v>
       </c>
@@ -6659,26 +6892,26 @@
       <c r="F9" s="27">
         <v>30</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="83">
         <v>90</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="79">
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86">
         <v>60</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="75">
+      <c r="K9" s="87"/>
+      <c r="L9" s="83">
         <v>90</v>
       </c>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="25">
         <v>107</v>
       </c>
@@ -6692,26 +6925,26 @@
       <c r="F10" s="27">
         <v>30</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="83">
         <v>90</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="79">
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86">
         <v>60</v>
       </c>
-      <c r="K10" s="80"/>
-      <c r="L10" s="75">
+      <c r="K10" s="87"/>
+      <c r="L10" s="83">
         <v>90</v>
       </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="25">
         <v>108</v>
       </c>
@@ -6725,26 +6958,26 @@
       <c r="F11" s="27">
         <v>30</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="83">
         <v>90</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="79">
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86">
         <v>60</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="75">
+      <c r="K11" s="87"/>
+      <c r="L11" s="83">
         <v>90</v>
       </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="77"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="25">
         <v>109</v>
       </c>
@@ -6758,26 +6991,26 @@
       <c r="F12" s="27">
         <v>30</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="83">
         <v>90</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="79">
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86">
         <v>60</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="75">
+      <c r="K12" s="87"/>
+      <c r="L12" s="83">
         <v>90</v>
       </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="25">
         <v>110</v>
       </c>
@@ -6791,20 +7024,20 @@
       <c r="F13" s="27">
         <v>30</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="83">
         <v>90</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="79">
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86">
         <v>60</v>
       </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="75">
+      <c r="K13" s="87"/>
+      <c r="L13" s="83">
         <v>90</v>
       </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
       <c r="O13" s="28">
         <v>270</v>
       </c>

--- a/Datasets/List of Scenarios.xlsx
+++ b/Datasets/List of Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="885" documentId="13_ncr:1_{AEC70A0C-6861-45D1-8D11-9AFD0C174D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C8D7A55-EB3D-4539-8DEF-1B5CE05797F6}"/>
+  <xr:revisionPtr revIDLastSave="894" documentId="13_ncr:1_{AEC70A0C-6861-45D1-8D11-9AFD0C174D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006708CA-FE05-46B4-A7D8-B0F365BA7945}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2361,121 +2361,136 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,25 +2508,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2808,8 +2808,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:H43"/>
+    <sheetView tabSelected="1" topLeftCell="G47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71:O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,22 +2872,22 @@
       <c r="J1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
@@ -2902,19 +2902,19 @@
       <c r="F2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="78">
+      <c r="J2" s="63">
         <v>9111</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="69" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -2941,19 +2941,19 @@
       <c r="S2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="65" t="s">
+      <c r="T2" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="75"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="2">
         <v>912</v>
       </c>
@@ -2966,47 +2966,47 @@
       <c r="F3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="44">
+      <c r="G3" s="62"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="60">
         <v>20</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="47">
         <v>5</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="44">
         <v>35</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="65">
         <v>10</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="60">
         <v>20</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="47">
         <v>5</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="44">
         <v>25</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="78">
         <f>SUM(L3:R5)</f>
         <v>120</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="2">
         <v>913</v>
       </c>
@@ -3019,34 +3019,34 @@
       <c r="F4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="62" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="2">
         <v>914</v>
       </c>
@@ -3059,34 +3059,34 @@
       <c r="F5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="10">
         <v>911</v>
       </c>
@@ -3099,19 +3099,19 @@
       <c r="F6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="69" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -3138,17 +3138,17 @@
       <c r="S6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="68"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="10">
         <v>912</v>
       </c>
@@ -3161,47 +3161,47 @@
       <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="44">
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="60">
         <v>20</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="47">
         <v>5</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="44">
         <v>35</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="65">
         <v>10</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="60">
         <v>20</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="47">
         <v>5</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="44">
         <v>25</v>
       </c>
-      <c r="S7" s="67">
+      <c r="S7" s="78">
         <f>SUM(L7:R9)</f>
         <v>120</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="10">
         <v>913</v>
       </c>
@@ -3214,36 +3214,36 @@
       <c r="F8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="59" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="10">
         <v>914</v>
       </c>
@@ -3256,34 +3256,34 @@
       <c r="F9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="51" t="s">
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="66" t="s">
+      <c r="U9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
@@ -3298,19 +3298,19 @@
       <c r="F10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="71" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="18" t="s">
@@ -3335,17 +3335,17 @@
         <v>8</v>
       </c>
       <c r="S10" s="43"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="2">
         <v>922</v>
       </c>
@@ -3358,38 +3358,38 @@
       <c r="F11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="44">
+      <c r="G11" s="62"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="60">
         <v>20</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="47">
         <v>30</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="60">
         <v>10</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="45">
         <v>10</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="60">
         <v>20</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="47">
         <v>30</v>
       </c>
-      <c r="R11" s="50">
+      <c r="R11" s="66">
         <f>SUM(L11:Q13)</f>
         <v>120</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="67"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="75"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="2">
         <v>923</v>
       </c>
@@ -3402,29 +3402,29 @@
       <c r="F12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="62" t="s">
+      <c r="G12" s="62"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="80"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="67"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="2">
         <v>924</v>
       </c>
@@ -3437,19 +3437,19 @@
       <c r="F13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="80"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="67"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -3461,10 +3461,10 @@
       <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
@@ -3479,13 +3479,13 @@
       <c r="F15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="15" t="s">
@@ -3532,12 +3532,12 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="47">
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="56">
         <v>932</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="6">
@@ -3546,89 +3546,89 @@
       <c r="F16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="K16" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="60">
         <v>15</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="47">
         <v>5</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="44">
         <v>5</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="45">
         <v>10</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="60">
         <v>25</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="47">
         <v>5</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="44">
         <v>5</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="45">
         <v>10</v>
       </c>
-      <c r="T16" s="44">
+      <c r="T16" s="60">
         <v>25</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="47">
         <v>5</v>
       </c>
-      <c r="V16" s="46">
+      <c r="V16" s="44">
         <v>10</v>
       </c>
-      <c r="W16" s="47">
+      <c r="W16" s="56">
         <f>SUM(L16:V19)</f>
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="69"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="6">
         <v>2</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="69"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="15" t="s">
         <v>104</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="48"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="82"/>
     </row>
     <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="2">
         <v>933</v>
       </c>
@@ -3641,9 +3641,9 @@
       <c r="F18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="62" t="s">
+      <c r="G18" s="62"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="15" t="s">
@@ -3652,22 +3652,22 @@
       <c r="K18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="48"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="82"/>
     </row>
     <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="2">
         <v>934</v>
       </c>
@@ -3680,31 +3680,31 @@
       <c r="F19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="15" t="s">
         <v>71</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="49"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="57"/>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="10">
         <v>931</v>
       </c>
@@ -3717,13 +3717,13 @@
       <c r="F20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="17" t="s">
@@ -3770,12 +3770,12 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="70">
+      <c r="A21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="58">
         <v>932</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="53" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="8">
@@ -3784,89 +3784,89 @@
       <c r="F21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="58"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="17" t="s">
         <v>73</v>
       </c>
       <c r="K21" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="60">
         <v>15</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="47">
         <v>2</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="44">
         <v>5</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="45">
         <v>10</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="60">
         <v>28</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="47">
         <v>2</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="44">
         <v>5</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="45">
         <v>10</v>
       </c>
-      <c r="T21" s="44">
+      <c r="T21" s="60">
         <v>28</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="47">
         <v>2</v>
       </c>
-      <c r="V21" s="46">
+      <c r="V21" s="44">
         <v>13</v>
       </c>
-      <c r="W21" s="47">
+      <c r="W21" s="56">
         <f>SUM(L21:V24)</f>
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="17" t="s">
         <v>105</v>
       </c>
       <c r="K22" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="48"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="82"/>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="10">
         <v>933</v>
       </c>
@@ -3879,9 +3879,9 @@
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="59" t="s">
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="72" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="17" t="s">
@@ -3890,22 +3890,22 @@
       <c r="K23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="48"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="82"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="10">
         <v>934</v>
       </c>
@@ -3918,31 +3918,31 @@
       <c r="F24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="17" t="s">
         <v>75</v>
       </c>
       <c r="K24" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="49"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="57"/>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
@@ -3957,13 +3957,13 @@
       <c r="F25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J25" s="15" t="s">
@@ -4010,12 +4010,12 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="47">
+      <c r="A26" s="46"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="56">
         <v>942</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="6">
@@ -4024,89 +4024,89 @@
       <c r="F26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="15" t="s">
         <v>86</v>
       </c>
       <c r="K26" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="60">
         <v>15</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="47">
         <v>1</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="44">
         <v>5</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="45">
         <v>10</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="60">
         <v>29</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="47">
         <v>1</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="44">
         <v>5</v>
       </c>
-      <c r="S26" s="51">
+      <c r="S26" s="45">
         <v>10</v>
       </c>
-      <c r="T26" s="44">
+      <c r="T26" s="60">
         <v>29</v>
       </c>
-      <c r="U26" s="45">
+      <c r="U26" s="47">
         <v>1</v>
       </c>
-      <c r="V26" s="46">
+      <c r="V26" s="44">
         <v>14</v>
       </c>
-      <c r="W26" s="47">
+      <c r="W26" s="56">
         <f>SUM(L26:V29)</f>
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="69"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="69"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="15" t="s">
         <v>108</v>
       </c>
       <c r="K27" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="48"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="82"/>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="2">
         <v>943</v>
       </c>
@@ -4119,9 +4119,9 @@
       <c r="F28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="62" t="s">
+      <c r="G28" s="62"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="15" t="s">
@@ -4130,22 +4130,22 @@
       <c r="K28" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="48"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="82"/>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="2">
         <v>944</v>
       </c>
@@ -4158,31 +4158,31 @@
       <c r="F29" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="15" t="s">
         <v>88</v>
       </c>
       <c r="K29" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="49"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="57"/>
     </row>
     <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="10">
         <v>941</v>
       </c>
@@ -4195,13 +4195,13 @@
       <c r="F30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="17" t="s">
@@ -4248,12 +4248,12 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="70">
+      <c r="A31" s="46"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="58">
         <v>942</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="53" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="8">
@@ -4262,89 +4262,89 @@
       <c r="F31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="58"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="17" t="s">
         <v>90</v>
       </c>
       <c r="K31" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="44">
+      <c r="L31" s="60">
         <v>15</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="47">
         <v>0.1</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="44">
         <v>5</v>
       </c>
-      <c r="O31" s="51">
+      <c r="O31" s="45">
         <v>10</v>
       </c>
-      <c r="P31" s="44">
+      <c r="P31" s="60">
         <v>29.9</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="47">
         <v>0.1</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="44">
         <v>5</v>
       </c>
-      <c r="S31" s="51">
+      <c r="S31" s="45">
         <v>10</v>
       </c>
-      <c r="T31" s="44">
+      <c r="T31" s="60">
         <v>29.9</v>
       </c>
-      <c r="U31" s="45">
+      <c r="U31" s="47">
         <v>0.1</v>
       </c>
-      <c r="V31" s="46">
+      <c r="V31" s="44">
         <v>14.9</v>
       </c>
-      <c r="W31" s="47">
+      <c r="W31" s="56">
         <f>SUM(L31:V34)</f>
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="17" t="s">
         <v>111</v>
       </c>
       <c r="K32" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="48"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="82"/>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="10">
         <v>943</v>
       </c>
@@ -4357,9 +4357,9 @@
       <c r="F33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="59" t="s">
+      <c r="G33" s="73"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="72" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="17" t="s">
@@ -4368,22 +4368,22 @@
       <c r="K33" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="48"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="82"/>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="75"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="10">
         <v>944</v>
       </c>
@@ -4396,34 +4396,34 @@
       <c r="F34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="59"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="17" t="s">
         <v>92</v>
       </c>
       <c r="K34" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="49"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="57"/>
     </row>
     <row r="35" spans="1:23" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
@@ -4438,13 +4438,13 @@
       <c r="F36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="56" t="s">
+      <c r="H36" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="I36" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="15" t="s">
@@ -4491,8 +4491,8 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="35">
         <v>952</v>
       </c>
@@ -4505,56 +4505,56 @@
       <c r="F37" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="61"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="51"/>
       <c r="J37" s="15" t="s">
         <v>120</v>
       </c>
       <c r="K37" s="1">
         <v>9421</v>
       </c>
-      <c r="L37" s="44">
+      <c r="L37" s="60">
         <v>20</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="44">
         <v>40</v>
       </c>
-      <c r="N37" s="44">
+      <c r="N37" s="60">
         <v>60</v>
       </c>
-      <c r="O37" s="45">
+      <c r="O37" s="47">
         <v>8</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="44">
         <v>12</v>
       </c>
-      <c r="Q37" s="51">
+      <c r="Q37" s="45">
         <v>10</v>
       </c>
-      <c r="R37" s="44">
+      <c r="R37" s="60">
         <v>20</v>
       </c>
-      <c r="S37" s="46">
+      <c r="S37" s="44">
         <v>40</v>
       </c>
-      <c r="T37" s="44">
+      <c r="T37" s="60">
         <v>60</v>
       </c>
-      <c r="U37" s="45">
+      <c r="U37" s="47">
         <v>8</v>
       </c>
-      <c r="V37" s="46">
+      <c r="V37" s="44">
         <v>12</v>
       </c>
-      <c r="W37" s="50">
+      <c r="W37" s="66">
         <f>SUM(L37:V39)</f>
         <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="2">
         <v>953</v>
       </c>
@@ -4567,9 +4567,9 @@
       <c r="F38" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="62" t="s">
+      <c r="G38" s="62"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="15" t="s">
@@ -4578,22 +4578,22 @@
       <c r="K38" s="1">
         <v>9431</v>
       </c>
-      <c r="L38" s="44"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="50"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="66"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="2">
         <v>954</v>
       </c>
@@ -4606,31 +4606,31 @@
       <c r="F39" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="70"/>
       <c r="J39" s="15" t="s">
         <v>123</v>
       </c>
       <c r="K39" s="1">
         <v>9441</v>
       </c>
-      <c r="L39" s="44"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="50"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="66"/>
     </row>
     <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="10">
         <v>951</v>
       </c>
@@ -4643,13 +4643,13 @@
       <c r="F40" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="64" t="s">
+      <c r="H40" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="57" t="s">
+      <c r="I40" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J40" s="17" t="s">
@@ -4696,8 +4696,8 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="74"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="36">
         <v>952</v>
       </c>
@@ -4710,56 +4710,56 @@
       <c r="F41" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="58"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="17" t="s">
         <v>125</v>
       </c>
       <c r="K41" s="1">
         <v>9422</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="60">
         <v>20</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="44">
         <v>40</v>
       </c>
-      <c r="N41" s="44">
+      <c r="N41" s="60">
         <v>60</v>
       </c>
-      <c r="O41" s="45">
+      <c r="O41" s="47">
         <v>4</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="44">
         <v>16</v>
       </c>
-      <c r="Q41" s="51">
+      <c r="Q41" s="45">
         <v>10</v>
       </c>
-      <c r="R41" s="44">
+      <c r="R41" s="60">
         <v>20</v>
       </c>
-      <c r="S41" s="46">
+      <c r="S41" s="44">
         <v>40</v>
       </c>
-      <c r="T41" s="44">
+      <c r="T41" s="60">
         <v>60</v>
       </c>
-      <c r="U41" s="45">
+      <c r="U41" s="47">
         <v>4</v>
       </c>
-      <c r="V41" s="46">
+      <c r="V41" s="44">
         <v>16</v>
       </c>
-      <c r="W41" s="50">
+      <c r="W41" s="66">
         <f>SUM(L41:V43)</f>
         <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="10">
         <v>953</v>
       </c>
@@ -4772,9 +4772,9 @@
       <c r="F42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="59" t="s">
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="72" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="17" t="s">
@@ -4783,22 +4783,22 @@
       <c r="K42" s="1">
         <v>9432</v>
       </c>
-      <c r="L42" s="44"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="50"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="66"/>
     </row>
     <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="10">
         <v>954</v>
       </c>
@@ -4811,31 +4811,31 @@
       <c r="F43" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="59"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="72"/>
       <c r="J43" s="17" t="s">
         <v>128</v>
       </c>
       <c r="K43" s="1">
         <v>9442</v>
       </c>
-      <c r="L43" s="44"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="50"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="66"/>
     </row>
     <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="2">
         <v>951</v>
       </c>
@@ -4848,13 +4848,13 @@
       <c r="F44" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="56" t="s">
+      <c r="H44" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J44" s="15" t="s">
@@ -4901,8 +4901,8 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="35">
         <v>952</v>
       </c>
@@ -4915,56 +4915,56 @@
       <c r="F45" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="61"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="51"/>
       <c r="J45" s="15" t="s">
         <v>121</v>
       </c>
       <c r="K45" s="1">
         <v>9423</v>
       </c>
-      <c r="L45" s="44">
+      <c r="L45" s="60">
         <v>20</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="44">
         <v>40</v>
       </c>
-      <c r="N45" s="44">
+      <c r="N45" s="60">
         <v>60</v>
       </c>
-      <c r="O45" s="45">
+      <c r="O45" s="47">
         <v>4</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="44">
         <v>16</v>
       </c>
-      <c r="Q45" s="51">
+      <c r="Q45" s="45">
         <v>10</v>
       </c>
-      <c r="R45" s="44">
+      <c r="R45" s="60">
         <v>20</v>
       </c>
-      <c r="S45" s="46">
+      <c r="S45" s="44">
         <v>40</v>
       </c>
-      <c r="T45" s="44">
+      <c r="T45" s="60">
         <v>60</v>
       </c>
-      <c r="U45" s="45">
+      <c r="U45" s="47">
         <v>4</v>
       </c>
-      <c r="V45" s="46">
+      <c r="V45" s="44">
         <v>16</v>
       </c>
-      <c r="W45" s="50">
+      <c r="W45" s="66">
         <f>SUM(L45:V47)</f>
         <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="2">
         <v>953</v>
       </c>
@@ -4977,9 +4977,9 @@
       <c r="F46" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="62" t="s">
+      <c r="G46" s="62"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="15" t="s">
@@ -4988,22 +4988,22 @@
       <c r="K46" s="1">
         <v>9433</v>
       </c>
-      <c r="L46" s="44"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="50"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="66"/>
     </row>
     <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="2">
         <v>954</v>
       </c>
@@ -5016,31 +5016,31 @@
       <c r="F47" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="70"/>
       <c r="J47" s="15" t="s">
         <v>136</v>
       </c>
       <c r="K47" s="1">
         <v>9443</v>
       </c>
-      <c r="L47" s="44"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="50"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="66"/>
     </row>
     <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="10">
         <v>951</v>
       </c>
@@ -5053,13 +5053,13 @@
       <c r="F48" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G48" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="64" t="s">
+      <c r="H48" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J48" s="17" t="s">
@@ -5106,8 +5106,8 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="36">
         <v>952</v>
       </c>
@@ -5120,56 +5120,56 @@
       <c r="F49" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="58"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="17" t="s">
         <v>126</v>
       </c>
       <c r="K49" s="1">
         <v>9424</v>
       </c>
-      <c r="L49" s="44">
+      <c r="L49" s="60">
         <v>20</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="44">
         <v>40</v>
       </c>
-      <c r="N49" s="44">
+      <c r="N49" s="60">
         <v>60</v>
       </c>
-      <c r="O49" s="45">
+      <c r="O49" s="47">
         <v>1</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="44">
         <v>19</v>
       </c>
-      <c r="Q49" s="51">
+      <c r="Q49" s="45">
         <v>10</v>
       </c>
-      <c r="R49" s="44">
+      <c r="R49" s="60">
         <v>20</v>
       </c>
-      <c r="S49" s="46">
+      <c r="S49" s="44">
         <v>40</v>
       </c>
-      <c r="T49" s="44">
+      <c r="T49" s="60">
         <v>60</v>
       </c>
-      <c r="U49" s="45">
+      <c r="U49" s="47">
         <v>1</v>
       </c>
-      <c r="V49" s="46">
+      <c r="V49" s="44">
         <v>19</v>
       </c>
-      <c r="W49" s="50">
+      <c r="W49" s="66">
         <f>SUM(L49:V51)</f>
         <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="10">
         <v>953</v>
       </c>
@@ -5182,9 +5182,9 @@
       <c r="F50" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="59" t="s">
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="72" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="17" t="s">
@@ -5193,22 +5193,22 @@
       <c r="K50" s="1">
         <v>9434</v>
       </c>
-      <c r="L50" s="44"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="50"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="66"/>
     </row>
     <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="74"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="10">
         <v>954</v>
       </c>
@@ -5221,31 +5221,31 @@
       <c r="F51" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="59"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="17" t="s">
         <v>137</v>
       </c>
       <c r="K51" s="1">
         <v>9444</v>
       </c>
-      <c r="L51" s="44"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="50"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="66"/>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="73" t="s">
+      <c r="A52" s="80"/>
+      <c r="B52" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2">
@@ -5260,13 +5260,13 @@
       <c r="F52" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="I52" s="60" t="s">
+      <c r="I52" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J52" s="15" t="s">
@@ -5313,8 +5313,8 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="74"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="35">
         <v>962</v>
       </c>
@@ -5327,56 +5327,56 @@
       <c r="F53" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="51"/>
       <c r="J53" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K53" s="1">
         <v>9521</v>
       </c>
-      <c r="L53" s="44">
+      <c r="L53" s="60">
         <v>20</v>
       </c>
-      <c r="M53" s="46">
+      <c r="M53" s="44">
         <v>40</v>
       </c>
-      <c r="N53" s="44">
+      <c r="N53" s="60">
         <v>60</v>
       </c>
-      <c r="O53" s="45">
+      <c r="O53" s="47">
         <v>8</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P53" s="44">
         <v>12</v>
       </c>
-      <c r="Q53" s="51">
+      <c r="Q53" s="45">
         <v>10</v>
       </c>
-      <c r="R53" s="44">
+      <c r="R53" s="60">
         <v>20</v>
       </c>
-      <c r="S53" s="46">
+      <c r="S53" s="44">
         <v>40</v>
       </c>
-      <c r="T53" s="44">
+      <c r="T53" s="60">
         <v>60</v>
       </c>
-      <c r="U53" s="45">
+      <c r="U53" s="47">
         <v>8</v>
       </c>
-      <c r="V53" s="46">
+      <c r="V53" s="44">
         <v>12</v>
       </c>
-      <c r="W53" s="50">
+      <c r="W53" s="66">
         <f>SUM(L53:V55)</f>
         <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="74"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="2">
         <v>963</v>
       </c>
@@ -5389,9 +5389,9 @@
       <c r="F54" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="62" t="s">
+      <c r="G54" s="62"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="15" t="s">
@@ -5400,22 +5400,22 @@
       <c r="K54" s="1">
         <v>9531</v>
       </c>
-      <c r="L54" s="44"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="50"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="66"/>
     </row>
     <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="74"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="2">
         <v>964</v>
       </c>
@@ -5428,31 +5428,31 @@
       <c r="F55" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="70"/>
       <c r="J55" s="15" t="s">
         <v>144</v>
       </c>
       <c r="K55" s="1">
         <v>9541</v>
       </c>
-      <c r="L55" s="44"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="50"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="66"/>
     </row>
     <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="74"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="10">
         <v>961</v>
       </c>
@@ -5465,13 +5465,13 @@
       <c r="F56" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="63" t="s">
+      <c r="G56" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="H56" s="64" t="s">
+      <c r="H56" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="I56" s="57" t="s">
+      <c r="I56" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J56" s="17" t="s">
@@ -5518,8 +5518,8 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="36">
         <v>962</v>
       </c>
@@ -5532,56 +5532,56 @@
       <c r="F57" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="58"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="54"/>
       <c r="J57" s="17" t="s">
         <v>146</v>
       </c>
       <c r="K57" s="1">
         <v>9522</v>
       </c>
-      <c r="L57" s="44">
+      <c r="L57" s="60">
         <v>20</v>
       </c>
-      <c r="M57" s="46">
+      <c r="M57" s="44">
         <v>40</v>
       </c>
-      <c r="N57" s="44">
+      <c r="N57" s="60">
         <v>60</v>
       </c>
-      <c r="O57" s="45">
-        <v>8</v>
-      </c>
-      <c r="P57" s="46">
-        <v>12</v>
-      </c>
-      <c r="Q57" s="51">
+      <c r="O57" s="47">
+        <v>4</v>
+      </c>
+      <c r="P57" s="44">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="45">
         <v>10</v>
       </c>
-      <c r="R57" s="44">
+      <c r="R57" s="60">
         <v>20</v>
       </c>
-      <c r="S57" s="46">
+      <c r="S57" s="44">
         <v>40</v>
       </c>
-      <c r="T57" s="44">
+      <c r="T57" s="60">
         <v>60</v>
       </c>
-      <c r="U57" s="45">
-        <v>8</v>
-      </c>
-      <c r="V57" s="46">
-        <v>12</v>
-      </c>
-      <c r="W57" s="50">
+      <c r="U57" s="47">
+        <v>4</v>
+      </c>
+      <c r="V57" s="44">
+        <v>16</v>
+      </c>
+      <c r="W57" s="66">
         <f>SUM(L57:V59)</f>
         <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="74"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="10">
         <v>963</v>
       </c>
@@ -5594,9 +5594,9 @@
       <c r="F58" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="59" t="s">
+      <c r="G58" s="73"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="72" t="s">
         <v>37</v>
       </c>
       <c r="J58" s="17" t="s">
@@ -5605,22 +5605,22 @@
       <c r="K58" s="1">
         <v>9532</v>
       </c>
-      <c r="L58" s="44"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="50"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="66"/>
     </row>
     <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="74"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="10">
         <v>964</v>
       </c>
@@ -5633,31 +5633,31 @@
       <c r="F59" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="59"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="17" t="s">
         <v>148</v>
       </c>
       <c r="K59" s="1">
         <v>9542</v>
       </c>
-      <c r="L59" s="44"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="50"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="66"/>
     </row>
     <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="74"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="2">
         <v>961</v>
       </c>
@@ -5670,13 +5670,13 @@
       <c r="F60" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="H60" s="56" t="s">
+      <c r="H60" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="I60" s="60" t="s">
+      <c r="I60" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J60" s="15" t="s">
@@ -5723,8 +5723,8 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="74"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="35">
         <v>962</v>
       </c>
@@ -5737,56 +5737,56 @@
       <c r="F61" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="61"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="51"/>
       <c r="J61" s="15" t="s">
         <v>150</v>
       </c>
       <c r="K61" s="1">
         <v>9523</v>
       </c>
-      <c r="L61" s="44">
+      <c r="L61" s="60">
         <v>20</v>
       </c>
-      <c r="M61" s="46">
+      <c r="M61" s="44">
         <v>40</v>
       </c>
-      <c r="N61" s="44">
+      <c r="N61" s="60">
         <v>60</v>
       </c>
-      <c r="O61" s="45">
+      <c r="O61" s="47">
         <v>8</v>
       </c>
-      <c r="P61" s="46">
+      <c r="P61" s="44">
         <v>12</v>
       </c>
-      <c r="Q61" s="51">
+      <c r="Q61" s="45">
         <v>10</v>
       </c>
-      <c r="R61" s="44">
+      <c r="R61" s="60">
         <v>20</v>
       </c>
-      <c r="S61" s="46">
+      <c r="S61" s="44">
         <v>40</v>
       </c>
-      <c r="T61" s="44">
+      <c r="T61" s="60">
         <v>60</v>
       </c>
-      <c r="U61" s="45">
+      <c r="U61" s="47">
         <v>8</v>
       </c>
-      <c r="V61" s="46">
+      <c r="V61" s="44">
         <v>12</v>
       </c>
-      <c r="W61" s="50">
+      <c r="W61" s="66">
         <f>SUM(L61:V63)</f>
         <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="74"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="2">
         <v>963</v>
       </c>
@@ -5799,9 +5799,9 @@
       <c r="F62" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G62" s="55"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="62" t="s">
+      <c r="G62" s="62"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="15" t="s">
@@ -5810,22 +5810,22 @@
       <c r="K62" s="1">
         <v>9533</v>
       </c>
-      <c r="L62" s="44"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="50"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="66"/>
     </row>
     <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="74"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="2">
         <v>964</v>
       </c>
@@ -5838,31 +5838,31 @@
       <c r="F63" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="55"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="70"/>
       <c r="J63" s="15" t="s">
         <v>152</v>
       </c>
       <c r="K63" s="1">
         <v>9543</v>
       </c>
-      <c r="L63" s="44"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="45"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="50"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="66"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="74"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="10">
         <v>961</v>
       </c>
@@ -5875,13 +5875,13 @@
       <c r="F64" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G64" s="63" t="s">
+      <c r="G64" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="H64" s="64" t="s">
+      <c r="H64" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="I64" s="57" t="s">
+      <c r="I64" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J64" s="17" t="s">
@@ -5928,8 +5928,8 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="74"/>
+      <c r="A65" s="80"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="36">
         <v>962</v>
       </c>
@@ -5942,56 +5942,56 @@
       <c r="F65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G65" s="63"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="58"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="54"/>
       <c r="J65" s="17" t="s">
         <v>154</v>
       </c>
       <c r="K65" s="1">
         <v>9524</v>
       </c>
-      <c r="L65" s="44">
+      <c r="L65" s="60">
         <v>20</v>
       </c>
-      <c r="M65" s="46">
+      <c r="M65" s="44">
         <v>40</v>
       </c>
-      <c r="N65" s="44">
+      <c r="N65" s="60">
         <v>60</v>
       </c>
-      <c r="O65" s="45">
-        <v>8</v>
-      </c>
-      <c r="P65" s="46">
-        <v>12</v>
-      </c>
-      <c r="Q65" s="51">
+      <c r="O65" s="47">
+        <v>2</v>
+      </c>
+      <c r="P65" s="44">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="45">
         <v>10</v>
       </c>
-      <c r="R65" s="44">
+      <c r="R65" s="60">
         <v>20</v>
       </c>
-      <c r="S65" s="46">
+      <c r="S65" s="44">
         <v>40</v>
       </c>
-      <c r="T65" s="44">
+      <c r="T65" s="60">
         <v>60</v>
       </c>
-      <c r="U65" s="45">
-        <v>8</v>
-      </c>
-      <c r="V65" s="46">
-        <v>12</v>
-      </c>
-      <c r="W65" s="50">
+      <c r="U65" s="47">
+        <v>2</v>
+      </c>
+      <c r="V65" s="44">
+        <v>18</v>
+      </c>
+      <c r="W65" s="66">
         <f>SUM(L65:V67)</f>
         <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="74"/>
+      <c r="A66" s="80"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="10">
         <v>963</v>
       </c>
@@ -6004,9 +6004,9 @@
       <c r="F66" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="63"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="59" t="s">
+      <c r="G66" s="73"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="72" t="s">
         <v>37</v>
       </c>
       <c r="J66" s="17" t="s">
@@ -6015,22 +6015,22 @@
       <c r="K66" s="1">
         <v>9534</v>
       </c>
-      <c r="L66" s="44"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="45"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="50"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="60"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="66"/>
     </row>
     <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="74"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="10">
         <v>964</v>
       </c>
@@ -6043,35 +6043,35 @@
       <c r="F67" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="59"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="17" t="s">
         <v>156</v>
       </c>
       <c r="K67" s="1">
         <v>9544</v>
       </c>
-      <c r="L67" s="44"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="50"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="66"/>
     </row>
     <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
       <c r="E68" s="13">
         <f>SUM(E2:E67)</f>
         <v>158</v>
@@ -6083,10 +6083,10 @@
     </row>
     <row r="69" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2">
@@ -6101,13 +6101,13 @@
       <c r="F70" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="H70" s="56" t="s">
+      <c r="H70" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="I70" s="60" t="s">
+      <c r="I70" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J70" s="15" t="s">
@@ -6139,8 +6139,8 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="75"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="61"/>
       <c r="C71" s="35">
         <v>972</v>
       </c>
@@ -6153,41 +6153,41 @@
       <c r="F71" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="55"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="61"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="51"/>
       <c r="J71" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="L71" s="44">
+      <c r="L71" s="60">
         <v>20</v>
       </c>
-      <c r="M71" s="45">
+      <c r="M71" s="47">
         <v>5</v>
       </c>
-      <c r="N71" s="46">
+      <c r="N71" s="44">
+        <v>35</v>
+      </c>
+      <c r="O71" s="45">
+        <v>10</v>
+      </c>
+      <c r="P71" s="60">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="47">
+        <v>5</v>
+      </c>
+      <c r="R71" s="44">
         <v>25</v>
       </c>
-      <c r="O71" s="51">
-        <v>20</v>
-      </c>
-      <c r="P71" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="45">
-        <v>5</v>
-      </c>
-      <c r="R71" s="46">
-        <v>15</v>
-      </c>
-      <c r="S71" s="50">
+      <c r="S71" s="66">
         <f>SUM(L71:R71)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="75"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="2">
         <v>973</v>
       </c>
@@ -6200,26 +6200,26 @@
       <c r="F72" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G72" s="55"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="62" t="s">
+      <c r="G72" s="62"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L72" s="44"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="50"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="66"/>
     </row>
     <row r="73" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-      <c r="B73" s="75"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="61"/>
       <c r="C73" s="2">
         <v>974</v>
       </c>
@@ -6232,28 +6232,28 @@
       <c r="F73" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G73" s="55"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="70"/>
       <c r="J73" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="44"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="51"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="50"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="66"/>
     </row>
     <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="s">
+      <c r="A74" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="13">
         <f>SUM(E70:E73)</f>
         <v>10</v>
@@ -6323,79 +6323,178 @@
     </row>
   </sheetData>
   <mergeCells count="278">
-    <mergeCell ref="V37:V39"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="V45:V47"/>
-    <mergeCell ref="V49:V51"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="V57:V59"/>
-    <mergeCell ref="V61:V63"/>
-    <mergeCell ref="V65:V67"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="A15:A34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="Q16:Q19"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S16:S19"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="W31:W34"/>
+    <mergeCell ref="T16:T19"/>
+    <mergeCell ref="U16:U19"/>
+    <mergeCell ref="V16:V19"/>
+    <mergeCell ref="W16:W19"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="W26:W29"/>
+    <mergeCell ref="W57:W59"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="M61:M63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="W61:W63"/>
+    <mergeCell ref="A36:A67"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="P65:P67"/>
+    <mergeCell ref="Q65:Q67"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="S57:S59"/>
+    <mergeCell ref="T57:T59"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="U61:U63"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="W45:W47"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="T49:T51"/>
+    <mergeCell ref="U49:U51"/>
+    <mergeCell ref="W49:W51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="R53:R55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="T2:Z4"/>
+    <mergeCell ref="U5:Z8"/>
+    <mergeCell ref="U9:Z10"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="W37:W39"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S71:S73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="S31:S34"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="Q71:Q73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="B52:B67"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I10:I11"/>
@@ -6420,187 +6519,88 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="S31:S34"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="Q71:Q73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="S37:S39"/>
-    <mergeCell ref="B52:B67"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="R65:R67"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="P3:P5"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="A15:A34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="V37:V39"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="V45:V47"/>
+    <mergeCell ref="V49:V51"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="V57:V59"/>
+    <mergeCell ref="V61:V63"/>
+    <mergeCell ref="V65:V67"/>
+    <mergeCell ref="S26:S29"/>
     <mergeCell ref="T37:T39"/>
     <mergeCell ref="U37:U39"/>
-    <mergeCell ref="T2:Z4"/>
-    <mergeCell ref="U5:Z8"/>
-    <mergeCell ref="U9:Z10"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="W37:W39"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="U61:U63"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="W45:W47"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="T49:T51"/>
-    <mergeCell ref="U49:U51"/>
-    <mergeCell ref="W49:W51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="R53:R55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="S57:S59"/>
-    <mergeCell ref="T57:T59"/>
     <mergeCell ref="U57:U59"/>
-    <mergeCell ref="A36:A67"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="P65:P67"/>
-    <mergeCell ref="Q65:Q67"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="G60:G63"/>
     <mergeCell ref="S65:S67"/>
     <mergeCell ref="T65:T67"/>
     <mergeCell ref="U65:U67"/>
-    <mergeCell ref="W57:W59"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="M61:M63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="W61:W63"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="W31:W34"/>
-    <mergeCell ref="T16:T19"/>
-    <mergeCell ref="U16:U19"/>
-    <mergeCell ref="V16:V19"/>
-    <mergeCell ref="W16:W19"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="W26:W29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6641,17 +6641,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
       <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6670,48 +6670,48 @@
         <v>22</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="14"/>
       <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="94" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="88" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="25">
@@ -6727,26 +6727,26 @@
       <c r="F4" s="27">
         <v>30</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="88">
         <v>90</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91">
         <v>60</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="83">
+      <c r="K4" s="92"/>
+      <c r="L4" s="88">
         <v>90</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="25">
         <v>102</v>
       </c>
@@ -6760,26 +6760,26 @@
       <c r="F5" s="27">
         <v>30</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="88">
         <v>90</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86">
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91">
         <v>60</v>
       </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="83">
+      <c r="K5" s="92"/>
+      <c r="L5" s="88">
         <v>90</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
       <c r="O5" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="25">
         <v>103</v>
       </c>
@@ -6793,26 +6793,26 @@
       <c r="F6" s="27">
         <v>30</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="88">
         <v>90</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86">
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91">
         <v>60</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="83">
+      <c r="K6" s="92"/>
+      <c r="L6" s="88">
         <v>90</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
       <c r="O6" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="25">
         <v>104</v>
       </c>
@@ -6826,26 +6826,26 @@
       <c r="F7" s="27">
         <v>30</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="88">
         <v>90</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86">
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="91">
         <v>60</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="83">
+      <c r="K7" s="92"/>
+      <c r="L7" s="88">
         <v>90</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
       <c r="O7" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="25">
         <v>105</v>
       </c>
@@ -6859,26 +6859,26 @@
       <c r="F8" s="27">
         <v>30</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="88">
         <v>90</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86">
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91">
         <v>60</v>
       </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="83">
+      <c r="K8" s="92"/>
+      <c r="L8" s="88">
         <v>90</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
       <c r="O8" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="25">
         <v>106</v>
       </c>
@@ -6892,26 +6892,26 @@
       <c r="F9" s="27">
         <v>30</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="88">
         <v>90</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86">
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91">
         <v>60</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="83">
+      <c r="K9" s="92"/>
+      <c r="L9" s="88">
         <v>90</v>
       </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
       <c r="O9" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="25">
         <v>107</v>
       </c>
@@ -6925,26 +6925,26 @@
       <c r="F10" s="27">
         <v>30</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="88">
         <v>90</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86">
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91">
         <v>60</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="83">
+      <c r="K10" s="92"/>
+      <c r="L10" s="88">
         <v>90</v>
       </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
       <c r="O10" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="25">
         <v>108</v>
       </c>
@@ -6958,26 +6958,26 @@
       <c r="F11" s="27">
         <v>30</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="88">
         <v>90</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86">
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91">
         <v>60</v>
       </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="83">
+      <c r="K11" s="92"/>
+      <c r="L11" s="88">
         <v>90</v>
       </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="85"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
       <c r="O11" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="25">
         <v>109</v>
       </c>
@@ -6991,26 +6991,26 @@
       <c r="F12" s="27">
         <v>30</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="88">
         <v>90</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86">
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91">
         <v>60</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="83">
+      <c r="K12" s="92"/>
+      <c r="L12" s="88">
         <v>90</v>
       </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="90"/>
       <c r="O12" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="25">
         <v>110</v>
       </c>
@@ -7024,26 +7024,47 @@
       <c r="F13" s="27">
         <v>30</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="88">
         <v>90</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86">
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91">
         <v>60</v>
       </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="83">
+      <c r="K13" s="92"/>
+      <c r="L13" s="88">
         <v>90</v>
       </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="90"/>
       <c r="O13" s="28">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F2:N2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -7060,27 +7081,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L8:N8"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets/List of Scenarios.xlsx
+++ b/Datasets/List of Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="894" documentId="13_ncr:1_{AEC70A0C-6861-45D1-8D11-9AFD0C174D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006708CA-FE05-46B4-A7D8-B0F365BA7945}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3B63D892-667E-4A0C-A8C4-5E3378AC49C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9271DAA-2DB0-4F59-ACFC-6AB19AC6DC3D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV attacks" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="168">
   <si>
     <t>Attack condition</t>
   </si>
@@ -512,8 +512,143 @@
     <t>9324a-9324b</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">For all 12 sub-scenarios, circuit breakers </t>
+    <t>9423a-9423b</t>
+  </si>
+  <si>
+    <t>Previous 9223</t>
+  </si>
+  <si>
+    <t>Previous 9224</t>
+  </si>
+  <si>
+    <t>9424a-9424b</t>
+  </si>
+  <si>
+    <t>Previous 9323</t>
+  </si>
+  <si>
+    <t>Previous 9324</t>
+  </si>
+  <si>
+    <t>In fault-free operations, compromised MUs spoof one of the ten emergency scenarios by replaying the recorded measurements from a previous faulty situation.</t>
+  </si>
+  <si>
+    <t>9511a-9511b</t>
+  </si>
+  <si>
+    <t>9521a-9521b</t>
+  </si>
+  <si>
+    <t>9523a-9523b</t>
+  </si>
+  <si>
+    <t>9531a-9531b</t>
+  </si>
+  <si>
+    <t>9541a-9541d</t>
+  </si>
+  <si>
+    <t>9512a-9512b</t>
+  </si>
+  <si>
+    <t>9522a-9522b</t>
+  </si>
+  <si>
+    <t>9524a-9524b</t>
+  </si>
+  <si>
+    <t>9532a-9532b</t>
+  </si>
+  <si>
+    <t>9542a-9542d</t>
+  </si>
+  <si>
+    <t>Inject all recorded packets with 50ms HB to spoof one of the ten emergency situations.</t>
+  </si>
+  <si>
+    <t>Inject all recorded packets with 25ms HB to spoof one of the ten emergency situations.</t>
+  </si>
+  <si>
+    <t>Inject the first 80 recorded packets with 50ms HB to spoof one of the ten emergency situations.</t>
+  </si>
+  <si>
+    <t>9513a-9513b</t>
+  </si>
+  <si>
+    <t>9533a-9533b</t>
+  </si>
+  <si>
+    <t>9543a-9543d</t>
+  </si>
+  <si>
+    <t>9544a-9544d</t>
+  </si>
+  <si>
+    <t>9514a-9514b</t>
+  </si>
+  <si>
+    <t>9534a-9534b</t>
+  </si>
+  <si>
+    <t>Inject the first 40 recorded packets with 25ms HB to spoof one of the ten emergency situations.</t>
+  </si>
+  <si>
+    <t>9611a-9611b</t>
+  </si>
+  <si>
+    <t>9621a-9621b</t>
+  </si>
+  <si>
+    <t>9631a-9631b</t>
+  </si>
+  <si>
+    <t>9641a-9641d</t>
+  </si>
+  <si>
+    <t>9612a-9612b</t>
+  </si>
+  <si>
+    <t>9622a-9622b</t>
+  </si>
+  <si>
+    <t>9632a-9632b</t>
+  </si>
+  <si>
+    <t>9642a-9642d</t>
+  </si>
+  <si>
+    <t>9613a-9613b</t>
+  </si>
+  <si>
+    <t>9623a-9623b</t>
+  </si>
+  <si>
+    <t>9633a-9633b</t>
+  </si>
+  <si>
+    <t>9643a-9643d</t>
+  </si>
+  <si>
+    <t>9614a-9614b</t>
+  </si>
+  <si>
+    <t>9624a-9624b</t>
+  </si>
+  <si>
+    <t>9634a-9634b</t>
+  </si>
+  <si>
+    <t>9644a-9644d</t>
+  </si>
+  <si>
+    <t>Modify the measurements of the same number of packets based on the recorded measurements from a previous emergency scenario.</t>
+  </si>
+  <si>
+    <t>Modify the measurements of 80 packets based on the first 80 recorded measurements from a previous emergency scenario.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Circuit breakers </t>
     </r>
     <r>
       <rPr>
@@ -523,7 +658,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>trip OCCASIONALLY</t>
+      <t>ALWAYS trip</t>
     </r>
     <r>
       <rPr>
@@ -543,12 +678,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>interrupted OCCASIONALLY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For all 12 sub-scenarios, circuit breakers </t>
+      <t>ALWAYS interrupted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify the measurements of the same number of packets based on the recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.2 times. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify the measurements of 40 packets based on the first 40 recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.5 times. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Circuit breakers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">trip with </t>
     </r>
     <r>
       <rPr>
@@ -558,17 +718,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>trip IN MOST CASES</t>
+      <t xml:space="preserve">a 5-second DELAY </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> while the power supply is </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and the safety protection </t>
     </r>
     <r>
       <rPr>
@@ -578,20 +737,560 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>interrupted IN MOST CASES.</t>
-    </r>
-  </si>
-  <si>
-    <t>9423a-9423b</t>
-  </si>
-  <si>
-    <t>Previous 9223</t>
-  </si>
-  <si>
-    <t>Previous 9224</t>
-  </si>
-  <si>
-    <t>9424a-9424b</t>
+      <t>DELAY for 5 seconds.</t>
+    </r>
+  </si>
+  <si>
+    <t>When short-circuit faults happen, compromised MUs delete SV packets</t>
+  </si>
+  <si>
+    <t>Delete the first 100 SV packets when a fault occurs.
+Thus, delay protection for almost 5 seconds (100*50ms=5s).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9111, 9121, 9131, 9141)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages every 50ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9112, 9122, 9132, 9142)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages every 25ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(921, 922, 923, 924)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alter original messages with counterfeit measurements to fake fault-free situations even when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inject 100 packets with 50ms HB to spoof one of the ten emergency situations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9311a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV1=F_66kV1=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9311b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV3=F_66kV2=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9321a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV1=XFMR1W1=XFMR1W2=CB_XFMR1=F_XFMR1=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9321b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV3=XFMR2W1=XFMR2W2=CB_XFMR2=F_XFMR2=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9323a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV1=XFMR1W1=1000, XFMR1W2=1732, CB_XFMR1=0, F_XFMR1=3000;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9323b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV3=XFMR2W1=1000, XFMR2W2=1732, CB_XFMR2=0, F_XFMR2=3000;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9331a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 22kV1=F_22kV1=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9331b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 22kV3=F_22kV2=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9341a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FDR1=22kV1=F_FDR1=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9341b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FDR2=F_FDR2=2017; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9341c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FDR3=F_FDR3=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9341d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: FDR4=22kV3=F_FDR4=2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inject 80 packets with 25ms HB to spoof one of the ten emergency situations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9312a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV1=F_66kV1=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9312b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV3=F_66kV2=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9322a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV1=XFMR1W1=XFMR1W2=CB_XFMR1=F_XFMR1=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9322b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV3=XFMR2W1=XFMR2W2=CB_XFMR2=F_XFMR2=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9324a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV1=XFMR1W1=1000, XFMR1W2=1732, CB_XFMR1=0, F_XFMR1=3000;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9324b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV3=XFMR2W1=1000, XFMR2W2=1732, CB_XFMR2=0, F_XFMR2=3000;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9332a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 22kV1=F_22kV1=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9332b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 22kV3=F_22kV2=2017;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9342a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FDR1=22kV1=F_FDR1=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9342b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FDR2=F_FDR2=2017; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9342c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FDR3=F_FDR3=2017; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9342d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: FDR4=22kV3=F_FDR4=2017.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -615,7 +1314,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 66kV1=F_66KV1=2017; </t>
+      <t xml:space="preserve">: 66kV1=F_66kV1=2017; </t>
     </r>
     <r>
       <rPr>
@@ -634,7 +1333,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 66kV3=F_66KV3=2017;
+      <t xml:space="preserve">: 66kV3=F_66kV2=2017;
 </t>
     </r>
     <r>
@@ -753,7 +1452,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 22kV3=F_22kV3=2017;
+      <t xml:space="preserve">: 22kV3=F_22kV2=2017;
 </t>
     </r>
     <r>
@@ -836,7 +1535,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Inject 80 packets with 25ms HB to spoof one of the ten emergency situations:
+      <t xml:space="preserve">Modify the measurements of 2 packets to spoof one of the ten emergency situations:
 </t>
     </r>
     <r>
@@ -847,16 +1546,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9312a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV1=F_66KV1=2017; </t>
+      <t>9412a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV1=F_66kV1=2017; </t>
     </r>
     <r>
       <rPr>
@@ -866,16 +1565,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9312b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV3=F_66KV3=2017;
+      <t>9412b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 66kV3=F_66kV2=2017;
 </t>
     </r>
     <r>
@@ -886,7 +1585,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9322a</t>
+      <t>9422a</t>
     </r>
     <r>
       <rPr>
@@ -906,7 +1605,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9322b</t>
+      <t>9422b</t>
     </r>
     <r>
       <rPr>
@@ -926,7 +1625,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9324a</t>
+      <t>9424a</t>
     </r>
     <r>
       <rPr>
@@ -946,7 +1645,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9324b</t>
+      <t>9424b</t>
     </r>
     <r>
       <rPr>
@@ -966,7 +1665,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9332a</t>
+      <t>9432a</t>
     </r>
     <r>
       <rPr>
@@ -985,16 +1684,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9332b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 22kV3=F_22kV3=2017;
+      <t>9432b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 22kV3=F_22kV2=2017;
 </t>
     </r>
     <r>
@@ -1005,7 +1704,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9342a</t>
+      <t>9442a</t>
     </r>
     <r>
       <rPr>
@@ -1024,7 +1723,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9342b</t>
+      <t>9442b</t>
     </r>
     <r>
       <rPr>
@@ -1044,7 +1743,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9342c</t>
+      <t>9442c</t>
     </r>
     <r>
       <rPr>
@@ -1063,7 +1762,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9342d</t>
+      <t>9442d</t>
     </r>
     <r>
       <rPr>
@@ -1076,855 +1775,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Modify the measurements of 2 packets to spoof one of the ten emergency situations:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9412a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV1=F_66KV1=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9412b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV3=F_66KV3=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9422a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV1=XFMR1W1=XFMR1W2=CB_XFMR1=F_XFMR1=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9422b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV3=XFMR2W1=XFMR2W2=CB_XFMR2=F_XFMR2=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9424a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV1=XFMR1W1=1000, XFMR1W2=1732, CB_XFMR1=0, F_XFMR1=3000;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9424b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV3=XFMR2W1=1000, XFMR2W2=1732, CB_XFMR2=0, F_XFMR2=3000;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9432a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 22kV1=F_22kV1=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9432b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 22kV3=F_22kV3=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9442a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FDR1=22kV1=F_FDR1=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9442b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FDR2=F_FDR2=2017; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9442c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FDR3=F_FDR3=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9442d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: FDR4=22kV3=F_FDR4=2017.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Inject 100 packets with 50ms HB to spoof one of the ten emergency situations:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9311a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV1=F_66KV1=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9311b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV3=F_66KV3=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9321a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV1=XFMR1W1=XFMR1W2=CB_XFMR1=F_XFMR1=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9321b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV3=XFMR2W1=XFMR2W2=CB_XFMR2=F_XFMR2=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9323a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV1=XFMR1W1=1000, XFMR1W2=1732, CB_XFMR1=0, F_XFMR1=3000;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9323b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 66kV3=XFMR2W1=1000, XFMR2W2=1732, CB_XFMR2=0, F_XFMR2=3000;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9331a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 22kV1=F_22kV1=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9331b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 22kV3=F_22kV3=2017;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9341a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FDR1=22kV1=F_FDR1=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9341b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FDR2=F_FDR2=2017; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9341c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FDR3=F_FDR3=2017; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9341d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: FDR4=22kV3=F_FDR4=2017.</t>
-    </r>
-  </si>
-  <si>
-    <t>Previous 9323</t>
-  </si>
-  <si>
-    <t>Previous 9324</t>
-  </si>
-  <si>
-    <t>In fault-free operations, compromised MUs spoof one of the ten emergency scenarios by replaying the recorded measurements from a previous faulty situation.</t>
-  </si>
-  <si>
-    <t>9511a-9511b</t>
-  </si>
-  <si>
-    <t>9521a-9521b</t>
-  </si>
-  <si>
-    <t>9523a-9523b</t>
-  </si>
-  <si>
-    <t>9531a-9531b</t>
-  </si>
-  <si>
-    <t>9541a-9541d</t>
-  </si>
-  <si>
-    <t>9512a-9512b</t>
-  </si>
-  <si>
-    <t>9522a-9522b</t>
-  </si>
-  <si>
-    <t>9524a-9524b</t>
-  </si>
-  <si>
-    <t>9532a-9532b</t>
-  </si>
-  <si>
-    <t>9542a-9542d</t>
-  </si>
-  <si>
-    <t>Inject all recorded packets with 50ms HB to spoof one of the ten emergency situations.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Circuit breakers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trip OCCASIONALLY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> while the power supply is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interrupted.</t>
-    </r>
-  </si>
-  <si>
-    <t>Inject all recorded packets with 25ms HB to spoof one of the ten emergency situations.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Circuit breakers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trip IN MOST CASES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> while the power supply is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interrupted.</t>
-    </r>
-  </si>
-  <si>
-    <t>Inject the first 80 recorded packets with 50ms HB to spoof one of the ten emergency situations.</t>
-  </si>
-  <si>
-    <t>9513a-9513b</t>
-  </si>
-  <si>
-    <t>9533a-9533b</t>
-  </si>
-  <si>
-    <t>9543a-9543d</t>
-  </si>
-  <si>
-    <t>9544a-9544d</t>
-  </si>
-  <si>
-    <t>9514a-9514b</t>
-  </si>
-  <si>
-    <t>9534a-9534b</t>
-  </si>
-  <si>
-    <t>Inject the first 40 recorded packets with 25ms HB to spoof one of the ten emergency situations.</t>
-  </si>
-  <si>
-    <t>9611a-9611b</t>
-  </si>
-  <si>
-    <t>9621a-9621b</t>
-  </si>
-  <si>
-    <t>9631a-9631b</t>
-  </si>
-  <si>
-    <t>9641a-9641d</t>
-  </si>
-  <si>
-    <t>9612a-9612b</t>
-  </si>
-  <si>
-    <t>9622a-9622b</t>
-  </si>
-  <si>
-    <t>9632a-9632b</t>
-  </si>
-  <si>
-    <t>9642a-9642d</t>
-  </si>
-  <si>
-    <t>9613a-9613b</t>
-  </si>
-  <si>
-    <t>9623a-9623b</t>
-  </si>
-  <si>
-    <t>9633a-9633b</t>
-  </si>
-  <si>
-    <t>9643a-9643d</t>
-  </si>
-  <si>
-    <t>9614a-9614b</t>
-  </si>
-  <si>
-    <t>9624a-9624b</t>
-  </si>
-  <si>
-    <t>9634a-9634b</t>
-  </si>
-  <si>
-    <t>9644a-9644d</t>
-  </si>
-  <si>
-    <t>Modify the measurements of the same number of packets based on the recorded measurements from a previous emergency scenario.</t>
-  </si>
-  <si>
-    <t>Modify the measurements of 80 packets based on the first 80 recorded measurements from a previous emergency scenario.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Circuit breakers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALWAYS trip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> while the power supply is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALWAYS interrupted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify the measurements of the same number of packets based on the recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.2 times. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify the measurements of 40 packets based on the first 40 recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.5 times. </t>
-  </si>
-  <si>
-    <t>9711a-9711b</t>
-  </si>
-  <si>
-    <t>9721a-9721b</t>
-  </si>
-  <si>
-    <t>9731a-9731b</t>
-  </si>
-  <si>
-    <t>9741a-9741d</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Circuit breakers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">trip with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a 5-second DELAY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and the safety protection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DELAY for 5 seconds.</t>
-    </r>
-  </si>
-  <si>
-    <t>When short-circuit faults happen, compromised MUs delete SV packets</t>
-  </si>
-  <si>
-    <t>Delete the first 100 SV packets when a fault occurs.
-Thus, delay protection for almost 5 seconds (100*50ms=5s).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(9111, 9121, 9131, 9141)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages every 50ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(9112, 9122, 9132, 9142)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages every 25ms (normal HeartBeat is 50ms) with counterfeit measurements to fake fault-free situations only when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(921, 922, 923, 924)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter original messages with counterfeit measurements to fake fault-free situations even when an over-current status occurs (measurements exceed the pre-defined threshold). The malware stops injecting when the actual measurements are back to normal.</t>
-    </r>
+    <t>971a-971b</t>
+  </si>
+  <si>
+    <t>972a-972b</t>
+  </si>
+  <si>
+    <t>973a-973b</t>
+  </si>
+  <si>
+    <t>974a-974d</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2321,9 +2181,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2361,16 +2218,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2379,104 +2296,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2488,30 +2369,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2808,8 +2665,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71:O73"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,7 +2680,7 @@
     <col min="7" max="7" width="70.85546875" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="32" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2869,25 +2726,25 @@
       <c r="I1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
@@ -2902,19 +2759,19 @@
       <c r="F2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="63">
+      <c r="J2" s="72">
         <v>9111</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="71" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -2926,7 +2783,7 @@
       <c r="N2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -2938,22 +2795,22 @@
       <c r="R2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="76" t="s">
+      <c r="T2" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="2">
         <v>912</v>
       </c>
@@ -2966,47 +2823,47 @@
       <c r="F3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="60">
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="44">
         <v>20</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="45">
         <v>5</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="46">
         <v>35</v>
       </c>
-      <c r="O3" s="65">
+      <c r="O3" s="50">
         <v>10</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="44">
         <v>20</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="45">
         <v>5</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="46">
         <v>25</v>
       </c>
-      <c r="S3" s="78">
+      <c r="S3" s="66">
         <f>SUM(L3:R5)</f>
         <v>120</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="2">
         <v>913</v>
       </c>
@@ -3019,34 +2876,34 @@
       <c r="F4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="70" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="2">
         <v>914</v>
       </c>
@@ -3059,34 +2916,34 @@
       <c r="F5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="65" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="10">
         <v>911</v>
       </c>
@@ -3099,19 +2956,19 @@
       <c r="F6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="74" t="s">
+      <c r="G6" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="71" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -3123,7 +2980,7 @@
       <c r="N6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="18" t="s">
@@ -3135,20 +2992,20 @@
       <c r="R6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="65"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="10">
         <v>912</v>
       </c>
@@ -3161,47 +3018,47 @@
       <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="60">
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="44">
         <v>20</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="45">
         <v>5</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="46">
         <v>35</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="50">
         <v>10</v>
       </c>
-      <c r="P7" s="60">
+      <c r="P7" s="44">
         <v>20</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="45">
         <v>5</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="46">
         <v>25</v>
       </c>
-      <c r="S7" s="78">
+      <c r="S7" s="66">
         <f>SUM(L7:R9)</f>
         <v>120</v>
       </c>
-      <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="10">
         <v>913</v>
       </c>
@@ -3214,36 +3071,36 @@
       <c r="F8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="72" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="10">
         <v>914</v>
       </c>
@@ -3256,34 +3113,34 @@
       <c r="F9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="45" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="77" t="s">
+      <c r="U9" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
@@ -3298,19 +3155,19 @@
       <c r="F10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="46" t="s">
+      <c r="G10" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="77" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="18" t="s">
@@ -3322,7 +3179,7 @@
       <c r="N10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P10" s="18" t="s">
@@ -3334,18 +3191,18 @@
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="43"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="2">
         <v>922</v>
       </c>
@@ -3358,38 +3215,38 @@
       <c r="F11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="60">
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="44">
         <v>20</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="45">
         <v>30</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="44">
         <v>10</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="50">
         <v>10</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="44">
         <v>20</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="45">
         <v>30</v>
       </c>
-      <c r="R11" s="66">
+      <c r="R11" s="43">
         <f>SUM(L11:Q13)</f>
         <v>120</v>
       </c>
-      <c r="S11" s="67"/>
+      <c r="S11" s="75"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="2">
         <v>923</v>
       </c>
@@ -3402,29 +3259,29 @@
       <c r="F12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="70" t="s">
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="67"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="75"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="2">
         <v>924</v>
       </c>
@@ -3437,34 +3294,34 @@
       <c r="F13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="75"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
-      <c r="J14" s="32"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
+      <c r="J14" s="31"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
@@ -3479,19 +3336,19 @@
       <c r="F15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="50" t="s">
+      <c r="G15" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="36" t="s">
         <v>96</v>
       </c>
       <c r="L15" s="18" t="s">
@@ -3503,7 +3360,7 @@
       <c r="N15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P15" s="18" t="s">
@@ -3515,7 +3372,7 @@
       <c r="R15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
       <c r="T15" s="18" t="s">
@@ -3532,12 +3389,12 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="56">
+      <c r="A16" s="55"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="47">
         <v>932</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="6">
@@ -3546,89 +3403,89 @@
       <c r="F16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="51"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16" s="44">
         <v>15</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="45">
         <v>5</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="46">
+        <v>15</v>
+      </c>
+      <c r="O16" s="50">
+        <v>10</v>
+      </c>
+      <c r="P16" s="44">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="45">
         <v>5</v>
       </c>
-      <c r="O16" s="45">
+      <c r="R16" s="46">
+        <v>15</v>
+      </c>
+      <c r="S16" s="50">
         <v>10</v>
       </c>
-      <c r="P16" s="60">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="47">
+      <c r="T16" s="44">
+        <v>15</v>
+      </c>
+      <c r="U16" s="45">
         <v>5</v>
       </c>
-      <c r="R16" s="44">
-        <v>5</v>
-      </c>
-      <c r="S16" s="45">
+      <c r="V16" s="46">
         <v>10</v>
       </c>
-      <c r="T16" s="60">
-        <v>25</v>
-      </c>
-      <c r="U16" s="47">
-        <v>5</v>
-      </c>
-      <c r="V16" s="44">
-        <v>10</v>
-      </c>
-      <c r="W16" s="56">
+      <c r="W16" s="47">
         <f>SUM(L16:V19)</f>
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="6">
         <v>2</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="52"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="82"/>
+      <c r="K17" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="48"/>
     </row>
     <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="2">
         <v>933</v>
       </c>
@@ -3641,33 +3498,33 @@
       <c r="F18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="70" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="61" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="82"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="48"/>
     </row>
     <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="2">
         <v>934</v>
       </c>
@@ -3680,31 +3537,31 @@
       <c r="F19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="70"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="57"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="10">
         <v>931</v>
       </c>
@@ -3717,19 +3574,19 @@
       <c r="F20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="53" t="s">
+      <c r="G20" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="56" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="36" t="s">
         <v>100</v>
       </c>
       <c r="L20" s="18" t="s">
@@ -3741,7 +3598,7 @@
       <c r="N20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="18" t="s">
@@ -3753,7 +3610,7 @@
       <c r="R20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="33" t="s">
         <v>17</v>
       </c>
       <c r="T20" s="18" t="s">
@@ -3770,12 +3627,12 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="58">
+      <c r="A21" s="55"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="79">
         <v>932</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="56" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="8">
@@ -3784,89 +3641,89 @@
       <c r="F21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="54"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="44">
         <v>15</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="45">
         <v>2</v>
       </c>
-      <c r="N21" s="44">
-        <v>5</v>
-      </c>
-      <c r="O21" s="45">
+      <c r="N21" s="46">
+        <v>18</v>
+      </c>
+      <c r="O21" s="50">
         <v>10</v>
       </c>
-      <c r="P21" s="60">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="47">
+      <c r="P21" s="44">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="45">
         <v>2</v>
       </c>
-      <c r="R21" s="44">
-        <v>5</v>
-      </c>
-      <c r="S21" s="45">
+      <c r="R21" s="46">
+        <v>18</v>
+      </c>
+      <c r="S21" s="50">
         <v>10</v>
       </c>
-      <c r="T21" s="60">
-        <v>28</v>
-      </c>
-      <c r="U21" s="47">
+      <c r="T21" s="44">
+        <v>15</v>
+      </c>
+      <c r="U21" s="45">
         <v>2</v>
       </c>
-      <c r="V21" s="44">
+      <c r="V21" s="46">
         <v>13</v>
       </c>
-      <c r="W21" s="56">
+      <c r="W21" s="47">
         <f>SUM(L21:V24)</f>
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="55"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="55"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="60"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="82"/>
+      <c r="K22" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="48"/>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="10">
         <v>933</v>
       </c>
@@ -3879,33 +3736,33 @@
       <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="72" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="58" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="60"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="82"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="48"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="10">
         <v>934</v>
       </c>
@@ -3918,31 +3775,31 @@
       <c r="F24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="72"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="60"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="57"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="49"/>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
@@ -3957,19 +3814,19 @@
       <c r="F25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="46" t="s">
+      <c r="G25" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="36" t="s">
         <v>76</v>
       </c>
       <c r="L25" s="18" t="s">
@@ -3981,7 +3838,7 @@
       <c r="N25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P25" s="18" t="s">
@@ -3993,7 +3850,7 @@
       <c r="R25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="34" t="s">
+      <c r="S25" s="33" t="s">
         <v>17</v>
       </c>
       <c r="T25" s="18" t="s">
@@ -4010,12 +3867,12 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="56">
+      <c r="A26" s="55"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="47">
         <v>942</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="6">
@@ -4024,89 +3881,89 @@
       <c r="F26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="37" t="s">
+      <c r="K26" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="44">
         <v>15</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="45">
         <v>1</v>
       </c>
-      <c r="N26" s="44">
-        <v>5</v>
-      </c>
-      <c r="O26" s="45">
+      <c r="N26" s="46">
+        <v>19</v>
+      </c>
+      <c r="O26" s="50">
         <v>10</v>
       </c>
-      <c r="P26" s="60">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="47">
+      <c r="P26" s="44">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="45">
         <v>1</v>
       </c>
-      <c r="R26" s="44">
-        <v>5</v>
-      </c>
-      <c r="S26" s="45">
+      <c r="R26" s="46">
+        <v>19</v>
+      </c>
+      <c r="S26" s="50">
         <v>10</v>
       </c>
-      <c r="T26" s="60">
-        <v>29</v>
-      </c>
-      <c r="U26" s="47">
+      <c r="T26" s="44">
+        <v>15</v>
+      </c>
+      <c r="U26" s="45">
         <v>1</v>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="46">
         <v>14</v>
       </c>
-      <c r="W26" s="56">
+      <c r="W26" s="47">
         <f>SUM(L26:V29)</f>
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="52"/>
+        <v>106</v>
+      </c>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="82"/>
+        <v>106</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="48"/>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="2">
         <v>943</v>
       </c>
@@ -4119,33 +3976,33 @@
       <c r="F28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="70" t="s">
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="61" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="82"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="48"/>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="2">
         <v>944</v>
       </c>
@@ -4158,31 +4015,31 @@
       <c r="F29" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="70"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="57"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="49"/>
     </row>
     <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="10">
         <v>941</v>
       </c>
@@ -4195,19 +4052,19 @@
       <c r="F30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="74" t="s">
+      <c r="G30" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="56" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="37" t="s">
+      <c r="K30" s="36" t="s">
         <v>80</v>
       </c>
       <c r="L30" s="18" t="s">
@@ -4219,7 +4076,7 @@
       <c r="N30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P30" s="18" t="s">
@@ -4231,7 +4088,7 @@
       <c r="R30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="34" t="s">
+      <c r="S30" s="33" t="s">
         <v>17</v>
       </c>
       <c r="T30" s="18" t="s">
@@ -4248,12 +4105,12 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="58">
+      <c r="A31" s="55"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="79">
         <v>942</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="56" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="8">
@@ -4262,89 +4119,89 @@
       <c r="F31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="54"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="60">
+      <c r="L31" s="44">
         <v>15</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="45">
         <v>0.1</v>
       </c>
-      <c r="N31" s="44">
-        <v>5</v>
-      </c>
-      <c r="O31" s="45">
+      <c r="N31" s="46">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O31" s="50">
         <v>10</v>
       </c>
-      <c r="P31" s="60">
-        <v>29.9</v>
-      </c>
-      <c r="Q31" s="47">
+      <c r="P31" s="44">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="45">
         <v>0.1</v>
       </c>
-      <c r="R31" s="44">
-        <v>5</v>
-      </c>
-      <c r="S31" s="45">
+      <c r="R31" s="46">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="S31" s="50">
         <v>10</v>
       </c>
-      <c r="T31" s="60">
-        <v>29.9</v>
-      </c>
-      <c r="U31" s="47">
+      <c r="T31" s="44">
+        <v>15</v>
+      </c>
+      <c r="U31" s="45">
         <v>0.1</v>
       </c>
-      <c r="V31" s="44">
+      <c r="V31" s="46">
         <v>14.9</v>
       </c>
-      <c r="W31" s="56">
+      <c r="W31" s="47">
         <f>SUM(L31:V34)</f>
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="55"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="82"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="48"/>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="10">
         <v>943</v>
       </c>
@@ -4357,33 +4214,33 @@
       <c r="F33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="72" t="s">
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="58" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="82"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="48"/>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="10">
         <v>944</v>
       </c>
@@ -4396,34 +4253,34 @@
       <c r="F34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="72"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="K34" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="57"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="49"/>
     </row>
     <row r="35" spans="1:23" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
@@ -4436,19 +4293,19 @@
         <v>2</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>119</v>
+      <c r="J36" s="15">
+        <v>9511</v>
       </c>
       <c r="K36" s="1">
         <v>9411</v>
@@ -4468,7 +4325,7 @@
       <c r="P36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="34" t="s">
+      <c r="Q36" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R36" s="18" t="s">
@@ -4491,70 +4348,70 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="35">
+      <c r="A37" s="52"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="34">
         <v>952</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="39" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="15">
+        <v>9521</v>
       </c>
       <c r="K37" s="1">
         <v>9421</v>
       </c>
-      <c r="L37" s="60">
+      <c r="L37" s="44">
         <v>20</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M37" s="46">
         <v>40</v>
       </c>
-      <c r="N37" s="60">
+      <c r="N37" s="44">
         <v>60</v>
       </c>
-      <c r="O37" s="47">
+      <c r="O37" s="45">
         <v>8</v>
       </c>
-      <c r="P37" s="44">
+      <c r="P37" s="46">
         <v>12</v>
       </c>
-      <c r="Q37" s="45">
+      <c r="Q37" s="50">
         <v>10</v>
       </c>
-      <c r="R37" s="60">
+      <c r="R37" s="44">
         <v>20</v>
       </c>
-      <c r="S37" s="44">
+      <c r="S37" s="46">
         <v>40</v>
       </c>
-      <c r="T37" s="60">
+      <c r="T37" s="44">
         <v>60</v>
       </c>
-      <c r="U37" s="47">
+      <c r="U37" s="45">
         <v>8</v>
       </c>
-      <c r="V37" s="44">
+      <c r="V37" s="46">
         <v>12</v>
       </c>
-      <c r="W37" s="66">
+      <c r="W37" s="43">
         <f>SUM(L37:V39)</f>
         <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="2">
         <v>953</v>
       </c>
@@ -4565,35 +4422,35 @@
         <v>2</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="62"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>122</v>
+      <c r="J38" s="15">
+        <v>9531</v>
       </c>
       <c r="K38" s="1">
         <v>9431</v>
       </c>
-      <c r="L38" s="60"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="66"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="43"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="2">
         <v>954</v>
       </c>
@@ -4604,33 +4461,33 @@
         <v>4</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="G39" s="54"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="15">
+        <v>9541</v>
       </c>
       <c r="K39" s="1">
         <v>9441</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="66"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="43"/>
     </row>
     <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="10">
         <v>951</v>
       </c>
@@ -4641,19 +4498,19 @@
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" s="53" t="s">
+      <c r="H40" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="17" t="s">
-        <v>124</v>
+      <c r="J40" s="17">
+        <v>9</v>
       </c>
       <c r="K40" s="1">
         <v>9412</v>
@@ -4673,7 +4530,7 @@
       <c r="P40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q40" s="34" t="s">
+      <c r="Q40" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R40" s="18" t="s">
@@ -4696,70 +4553,70 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="36">
+      <c r="A41" s="52"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="35">
         <v>952</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="8">
         <v>2</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="54"/>
+        <v>119</v>
+      </c>
+      <c r="G41" s="62"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K41" s="1">
         <v>9422</v>
       </c>
-      <c r="L41" s="60">
+      <c r="L41" s="44">
         <v>20</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="46">
         <v>40</v>
       </c>
-      <c r="N41" s="60">
+      <c r="N41" s="44">
         <v>60</v>
       </c>
-      <c r="O41" s="47">
+      <c r="O41" s="45">
         <v>4</v>
       </c>
-      <c r="P41" s="44">
+      <c r="P41" s="46">
         <v>16</v>
       </c>
-      <c r="Q41" s="45">
+      <c r="Q41" s="50">
         <v>10</v>
       </c>
-      <c r="R41" s="60">
+      <c r="R41" s="44">
         <v>20</v>
       </c>
-      <c r="S41" s="44">
+      <c r="S41" s="46">
         <v>40</v>
       </c>
-      <c r="T41" s="60">
+      <c r="T41" s="44">
         <v>60</v>
       </c>
-      <c r="U41" s="47">
+      <c r="U41" s="45">
         <v>4</v>
       </c>
-      <c r="V41" s="44">
+      <c r="V41" s="46">
         <v>16</v>
       </c>
-      <c r="W41" s="66">
+      <c r="W41" s="43">
         <f>SUM(L41:V43)</f>
         <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="10">
         <v>953</v>
       </c>
@@ -4770,35 +4627,35 @@
         <v>2</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="58" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K42" s="1">
         <v>9432</v>
       </c>
-      <c r="L42" s="60"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="66"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="43"/>
     </row>
     <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="10">
         <v>954</v>
       </c>
@@ -4809,33 +4666,33 @@
         <v>4</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="72"/>
+        <v>122</v>
+      </c>
+      <c r="G43" s="62"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K43" s="1">
         <v>9442</v>
       </c>
-      <c r="L43" s="60"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="66"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="43"/>
     </row>
     <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="2">
         <v>951</v>
       </c>
@@ -4846,19 +4703,19 @@
         <v>2</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K44" s="1">
         <v>9413</v>
@@ -4878,7 +4735,7 @@
       <c r="P44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="34" t="s">
+      <c r="Q44" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="18" t="s">
@@ -4901,70 +4758,70 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="35">
+      <c r="A45" s="52"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="34">
         <v>952</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>40</v>
       </c>
       <c r="E45" s="6">
         <v>2</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="51"/>
+        <v>115</v>
+      </c>
+      <c r="G45" s="54"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="60"/>
       <c r="J45" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K45" s="1">
         <v>9423</v>
       </c>
-      <c r="L45" s="60">
+      <c r="L45" s="44">
         <v>20</v>
       </c>
-      <c r="M45" s="44">
+      <c r="M45" s="46">
         <v>40</v>
       </c>
-      <c r="N45" s="60">
+      <c r="N45" s="44">
         <v>60</v>
       </c>
-      <c r="O45" s="47">
+      <c r="O45" s="45">
         <v>4</v>
       </c>
-      <c r="P45" s="44">
+      <c r="P45" s="46">
         <v>16</v>
       </c>
-      <c r="Q45" s="45">
+      <c r="Q45" s="50">
         <v>10</v>
       </c>
-      <c r="R45" s="60">
+      <c r="R45" s="44">
         <v>20</v>
       </c>
-      <c r="S45" s="44">
+      <c r="S45" s="46">
         <v>40</v>
       </c>
-      <c r="T45" s="60">
+      <c r="T45" s="44">
         <v>60</v>
       </c>
-      <c r="U45" s="47">
+      <c r="U45" s="45">
         <v>4</v>
       </c>
-      <c r="V45" s="44">
+      <c r="V45" s="46">
         <v>16</v>
       </c>
-      <c r="W45" s="66">
+      <c r="W45" s="43">
         <f>SUM(L45:V47)</f>
         <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
-      <c r="B46" s="49"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="2">
         <v>953</v>
       </c>
@@ -4975,35 +4832,35 @@
         <v>2</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="54"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="61" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K46" s="1">
         <v>9433</v>
       </c>
-      <c r="L46" s="60"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="66"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="43"/>
     </row>
     <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="2">
         <v>954</v>
       </c>
@@ -5014,33 +4871,33 @@
         <v>4</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="62"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="70"/>
+        <v>128</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="61"/>
       <c r="J47" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K47" s="1">
         <v>9443</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="66"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="43"/>
     </row>
     <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="10">
         <v>951</v>
       </c>
@@ -5051,19 +4908,19 @@
         <v>2</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="H48" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="56" t="s">
         <v>36</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K48" s="1">
         <v>9414</v>
@@ -5083,7 +4940,7 @@
       <c r="P48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q48" s="34" t="s">
+      <c r="Q48" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R48" s="18" t="s">
@@ -5106,70 +4963,70 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="36">
+      <c r="A49" s="52"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="35">
         <v>952</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="8">
         <v>2</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="73"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="G49" s="62"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="57"/>
       <c r="J49" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K49" s="1">
         <v>9424</v>
       </c>
-      <c r="L49" s="60">
+      <c r="L49" s="44">
         <v>20</v>
       </c>
-      <c r="M49" s="44">
+      <c r="M49" s="46">
         <v>40</v>
       </c>
-      <c r="N49" s="60">
+      <c r="N49" s="44">
         <v>60</v>
       </c>
-      <c r="O49" s="47">
+      <c r="O49" s="45">
         <v>1</v>
       </c>
-      <c r="P49" s="44">
+      <c r="P49" s="46">
         <v>19</v>
       </c>
-      <c r="Q49" s="45">
+      <c r="Q49" s="50">
         <v>10</v>
       </c>
-      <c r="R49" s="60">
+      <c r="R49" s="44">
         <v>20</v>
       </c>
-      <c r="S49" s="44">
+      <c r="S49" s="46">
         <v>40</v>
       </c>
-      <c r="T49" s="60">
+      <c r="T49" s="44">
         <v>60</v>
       </c>
-      <c r="U49" s="47">
+      <c r="U49" s="45">
         <v>1</v>
       </c>
-      <c r="V49" s="44">
+      <c r="V49" s="46">
         <v>19</v>
       </c>
-      <c r="W49" s="66">
+      <c r="W49" s="43">
         <f>SUM(L49:V51)</f>
         <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="10">
         <v>953</v>
       </c>
@@ -5180,35 +5037,35 @@
         <v>2</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="73"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="62"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="58" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K50" s="1">
         <v>9434</v>
       </c>
-      <c r="L50" s="60"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="66"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="43"/>
     </row>
     <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="10">
         <v>954</v>
       </c>
@@ -5219,33 +5076,33 @@
         <v>4</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="73"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="72"/>
+        <v>129</v>
+      </c>
+      <c r="G51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K51" s="1">
         <v>9444</v>
       </c>
-      <c r="L51" s="60"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="66"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="43"/>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="48" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2">
@@ -5258,19 +5115,19 @@
         <v>2</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I52" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K52" s="1">
         <v>9511</v>
@@ -5290,7 +5147,7 @@
       <c r="P52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="34" t="s">
+      <c r="Q52" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R52" s="18" t="s">
@@ -5313,70 +5170,70 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="35">
+      <c r="A53" s="52"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="34">
         <v>962</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="39" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="G53" s="54"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K53" s="1">
         <v>9521</v>
       </c>
-      <c r="L53" s="60">
+      <c r="L53" s="44">
         <v>20</v>
       </c>
-      <c r="M53" s="44">
+      <c r="M53" s="46">
         <v>40</v>
       </c>
-      <c r="N53" s="60">
+      <c r="N53" s="44">
         <v>60</v>
       </c>
-      <c r="O53" s="47">
+      <c r="O53" s="45">
         <v>8</v>
       </c>
-      <c r="P53" s="44">
+      <c r="P53" s="46">
         <v>12</v>
       </c>
-      <c r="Q53" s="45">
+      <c r="Q53" s="50">
         <v>10</v>
       </c>
-      <c r="R53" s="60">
+      <c r="R53" s="44">
         <v>20</v>
       </c>
-      <c r="S53" s="44">
+      <c r="S53" s="46">
         <v>40</v>
       </c>
-      <c r="T53" s="60">
+      <c r="T53" s="44">
         <v>60</v>
       </c>
-      <c r="U53" s="47">
+      <c r="U53" s="45">
         <v>8</v>
       </c>
-      <c r="V53" s="44">
+      <c r="V53" s="46">
         <v>12</v>
       </c>
-      <c r="W53" s="66">
+      <c r="W53" s="43">
         <f>SUM(L53:V55)</f>
         <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="49"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="2">
         <v>963</v>
       </c>
@@ -5387,35 +5244,35 @@
         <v>2</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="54"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="61" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K54" s="1">
         <v>9531</v>
       </c>
-      <c r="L54" s="60"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="66"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="43"/>
     </row>
     <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="49"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="2">
         <v>964</v>
       </c>
@@ -5426,33 +5283,33 @@
         <v>4</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="62"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="70"/>
+        <v>136</v>
+      </c>
+      <c r="G55" s="54"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="61"/>
       <c r="J55" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K55" s="1">
         <v>9541</v>
       </c>
-      <c r="L55" s="60"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="66"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="43"/>
     </row>
     <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="49"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="10">
         <v>961</v>
       </c>
@@ -5463,19 +5320,19 @@
         <v>2</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G56" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="H56" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="I56" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" s="56" t="s">
         <v>36</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K56" s="1">
         <v>9512</v>
@@ -5495,7 +5352,7 @@
       <c r="P56" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q56" s="34" t="s">
+      <c r="Q56" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R56" s="18" t="s">
@@ -5518,70 +5375,70 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="36">
+      <c r="A57" s="52"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="35">
         <v>962</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E57" s="8">
         <v>2</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="73"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="54"/>
+        <v>138</v>
+      </c>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="57"/>
       <c r="J57" s="17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K57" s="1">
         <v>9522</v>
       </c>
-      <c r="L57" s="60">
+      <c r="L57" s="44">
         <v>20</v>
       </c>
-      <c r="M57" s="44">
+      <c r="M57" s="46">
         <v>40</v>
       </c>
-      <c r="N57" s="60">
+      <c r="N57" s="44">
         <v>60</v>
       </c>
-      <c r="O57" s="47">
+      <c r="O57" s="45">
         <v>4</v>
       </c>
-      <c r="P57" s="44">
+      <c r="P57" s="46">
         <v>16</v>
       </c>
-      <c r="Q57" s="45">
+      <c r="Q57" s="50">
         <v>10</v>
       </c>
-      <c r="R57" s="60">
+      <c r="R57" s="44">
         <v>20</v>
       </c>
-      <c r="S57" s="44">
+      <c r="S57" s="46">
         <v>40</v>
       </c>
-      <c r="T57" s="60">
+      <c r="T57" s="44">
         <v>60</v>
       </c>
-      <c r="U57" s="47">
+      <c r="U57" s="45">
         <v>4</v>
       </c>
-      <c r="V57" s="44">
+      <c r="V57" s="46">
         <v>16</v>
       </c>
-      <c r="W57" s="66">
+      <c r="W57" s="43">
         <f>SUM(L57:V59)</f>
         <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
-      <c r="B58" s="49"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="10">
         <v>963</v>
       </c>
@@ -5592,35 +5449,35 @@
         <v>2</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="62"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="58" t="s">
         <v>37</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K58" s="1">
         <v>9532</v>
       </c>
-      <c r="L58" s="60"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="66"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="43"/>
     </row>
     <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="80"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="10">
         <v>964</v>
       </c>
@@ -5631,33 +5488,33 @@
         <v>4</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="73"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="72"/>
+        <v>140</v>
+      </c>
+      <c r="G59" s="62"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="58"/>
       <c r="J59" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K59" s="1">
         <v>9542</v>
       </c>
-      <c r="L59" s="60"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="66"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="43"/>
     </row>
     <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
-      <c r="B60" s="49"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="2">
         <v>961</v>
       </c>
@@ -5668,19 +5525,19 @@
         <v>2</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="H60" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I60" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K60" s="1">
         <v>9513</v>
@@ -5700,7 +5557,7 @@
       <c r="P60" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q60" s="34" t="s">
+      <c r="Q60" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R60" s="18" t="s">
@@ -5723,70 +5580,70 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="80"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="35">
+      <c r="A61" s="52"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="34">
         <v>962</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="39" t="s">
         <v>40</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61" s="62"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="51"/>
+        <v>142</v>
+      </c>
+      <c r="G61" s="54"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="60"/>
       <c r="J61" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K61" s="1">
         <v>9523</v>
       </c>
-      <c r="L61" s="60">
+      <c r="L61" s="44">
         <v>20</v>
       </c>
-      <c r="M61" s="44">
+      <c r="M61" s="46">
         <v>40</v>
       </c>
-      <c r="N61" s="60">
+      <c r="N61" s="44">
         <v>60</v>
       </c>
-      <c r="O61" s="47">
+      <c r="O61" s="45">
         <v>8</v>
       </c>
-      <c r="P61" s="44">
+      <c r="P61" s="46">
         <v>12</v>
       </c>
-      <c r="Q61" s="45">
+      <c r="Q61" s="50">
         <v>10</v>
       </c>
-      <c r="R61" s="60">
+      <c r="R61" s="44">
         <v>20</v>
       </c>
-      <c r="S61" s="44">
+      <c r="S61" s="46">
         <v>40</v>
       </c>
-      <c r="T61" s="60">
+      <c r="T61" s="44">
         <v>60</v>
       </c>
-      <c r="U61" s="47">
+      <c r="U61" s="45">
         <v>8</v>
       </c>
-      <c r="V61" s="44">
+      <c r="V61" s="46">
         <v>12</v>
       </c>
-      <c r="W61" s="66">
+      <c r="W61" s="43">
         <f>SUM(L61:V63)</f>
         <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="80"/>
-      <c r="B62" s="49"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="2">
         <v>963</v>
       </c>
@@ -5797,35 +5654,35 @@
         <v>2</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="54"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="61" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K62" s="1">
         <v>9533</v>
       </c>
-      <c r="L62" s="60"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="60"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="66"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="43"/>
     </row>
     <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="80"/>
-      <c r="B63" s="49"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="2">
         <v>964</v>
       </c>
@@ -5836,33 +5693,33 @@
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="62"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="70"/>
+        <v>144</v>
+      </c>
+      <c r="G63" s="54"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="61"/>
       <c r="J63" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K63" s="1">
         <v>9543</v>
       </c>
-      <c r="L63" s="60"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="66"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="43"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="49"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="10">
         <v>961</v>
       </c>
@@ -5873,19 +5730,19 @@
         <v>2</v>
       </c>
       <c r="F64" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G64" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="H64" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="I64" s="53" t="s">
+      <c r="H64" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="56" t="s">
         <v>36</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K64" s="1">
         <v>9514</v>
@@ -5905,7 +5762,7 @@
       <c r="P64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q64" s="34" t="s">
+      <c r="Q64" s="33" t="s">
         <v>17</v>
       </c>
       <c r="R64" s="18" t="s">
@@ -5928,70 +5785,70 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="36">
+      <c r="A65" s="52"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="35">
         <v>962</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E65" s="8">
         <v>2</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G65" s="73"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="54"/>
+        <v>146</v>
+      </c>
+      <c r="G65" s="62"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="57"/>
       <c r="J65" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K65" s="1">
         <v>9524</v>
       </c>
-      <c r="L65" s="60">
+      <c r="L65" s="44">
         <v>20</v>
       </c>
-      <c r="M65" s="44">
+      <c r="M65" s="46">
         <v>40</v>
       </c>
-      <c r="N65" s="60">
+      <c r="N65" s="44">
         <v>60</v>
       </c>
-      <c r="O65" s="47">
+      <c r="O65" s="45">
         <v>2</v>
       </c>
-      <c r="P65" s="44">
+      <c r="P65" s="46">
         <v>18</v>
       </c>
-      <c r="Q65" s="45">
+      <c r="Q65" s="50">
         <v>10</v>
       </c>
-      <c r="R65" s="60">
+      <c r="R65" s="44">
         <v>20</v>
       </c>
-      <c r="S65" s="44">
+      <c r="S65" s="46">
         <v>40</v>
       </c>
-      <c r="T65" s="60">
+      <c r="T65" s="44">
         <v>60</v>
       </c>
-      <c r="U65" s="47">
+      <c r="U65" s="45">
         <v>2</v>
       </c>
-      <c r="V65" s="44">
+      <c r="V65" s="46">
         <v>18</v>
       </c>
-      <c r="W65" s="66">
+      <c r="W65" s="43">
         <f>SUM(L65:V67)</f>
         <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
-      <c r="B66" s="49"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="10">
         <v>963</v>
       </c>
@@ -6002,35 +5859,35 @@
         <v>2</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G66" s="73"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="62"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="58" t="s">
         <v>37</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K66" s="1">
         <v>9534</v>
       </c>
-      <c r="L66" s="60"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="66"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="43"/>
     </row>
     <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="10">
         <v>964</v>
       </c>
@@ -6041,52 +5898,52 @@
         <v>4</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" s="73"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="72"/>
+        <v>148</v>
+      </c>
+      <c r="G67" s="62"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="58"/>
       <c r="J67" s="17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K67" s="1">
         <v>9544</v>
       </c>
-      <c r="L67" s="60"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="66"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="13">
         <f>SUM(E2:E67)</f>
         <v>158</v>
       </c>
-      <c r="G68" s="33"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="1"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
     <row r="69" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="61" t="s">
+      <c r="A70" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="69" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2">
@@ -6099,19 +5956,19 @@
         <v>2</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="H70" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I70" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="H70" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I70" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="15" t="s">
-        <v>141</v>
+      <c r="J70" s="15">
+        <v>971</v>
       </c>
       <c r="L70" s="18" t="s">
         <v>14</v>
@@ -6122,7 +5979,7 @@
       <c r="N70" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O70" s="34" t="s">
+      <c r="O70" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P70" s="18" t="s">
@@ -6139,55 +5996,55 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="35">
+      <c r="A71" s="55"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="34">
         <v>972</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="39" t="s">
         <v>40</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G71" s="62"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L71" s="60">
+        <v>165</v>
+      </c>
+      <c r="G71" s="54"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="15">
+        <v>972</v>
+      </c>
+      <c r="L71" s="44">
         <v>20</v>
       </c>
-      <c r="M71" s="47">
+      <c r="M71" s="45">
         <v>5</v>
       </c>
-      <c r="N71" s="44">
+      <c r="N71" s="46">
         <v>35</v>
       </c>
-      <c r="O71" s="45">
+      <c r="O71" s="50">
         <v>10</v>
       </c>
-      <c r="P71" s="60">
+      <c r="P71" s="44">
         <v>20</v>
       </c>
-      <c r="Q71" s="47">
+      <c r="Q71" s="45">
         <v>5</v>
       </c>
-      <c r="R71" s="44">
+      <c r="R71" s="46">
         <v>25</v>
       </c>
-      <c r="S71" s="66">
+      <c r="S71" s="43">
         <f>SUM(L71:R71)</f>
         <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="2">
         <v>973</v>
       </c>
@@ -6198,28 +6055,28 @@
         <v>2</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="62"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" s="54"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J72" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L72" s="60"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="66"/>
+      <c r="J72" s="15">
+        <v>973</v>
+      </c>
+      <c r="L72" s="44"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="43"/>
     </row>
     <row r="73" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="61"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="2">
         <v>974</v>
       </c>
@@ -6230,36 +6087,36 @@
         <v>4</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" s="62"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="L73" s="60"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="66"/>
+        <v>167</v>
+      </c>
+      <c r="G73" s="54"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="15">
+        <v>974</v>
+      </c>
+      <c r="L73" s="44"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="43"/>
     </row>
     <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="13">
         <f>SUM(E70:E73)</f>
         <v>10</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="33"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="1"/>
       <c r="J74"/>
       <c r="K74"/>
@@ -6323,34 +6180,232 @@
     </row>
   </sheetData>
   <mergeCells count="278">
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="W31:W34"/>
-    <mergeCell ref="T16:T19"/>
-    <mergeCell ref="U16:U19"/>
-    <mergeCell ref="V16:V19"/>
-    <mergeCell ref="W16:W19"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="W26:W29"/>
-    <mergeCell ref="W57:W59"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="M61:M63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="W61:W63"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="V37:V39"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="V45:V47"/>
+    <mergeCell ref="V49:V51"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="V57:V59"/>
+    <mergeCell ref="V61:V63"/>
+    <mergeCell ref="V65:V67"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="U37:U39"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="T65:T67"/>
+    <mergeCell ref="U65:U67"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="S71:S73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="S31:S34"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="Q71:Q73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="B52:B67"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="T2:Z4"/>
+    <mergeCell ref="U5:Z8"/>
+    <mergeCell ref="U9:Z10"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="W37:W39"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="U61:U63"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="W45:W47"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="T49:T51"/>
+    <mergeCell ref="U49:U51"/>
+    <mergeCell ref="W49:W51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="R53:R55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="S57:S59"/>
+    <mergeCell ref="T57:T59"/>
     <mergeCell ref="A36:A67"/>
     <mergeCell ref="G70:G73"/>
     <mergeCell ref="H70:H73"/>
@@ -6375,232 +6430,34 @@
     <mergeCell ref="I56:I57"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="G60:G63"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="S57:S59"/>
-    <mergeCell ref="T57:T59"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="U61:U63"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="W45:W47"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="T49:T51"/>
-    <mergeCell ref="U49:U51"/>
-    <mergeCell ref="W49:W51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="R53:R55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="T2:Z4"/>
-    <mergeCell ref="U5:Z8"/>
-    <mergeCell ref="U9:Z10"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="W37:W39"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="R65:R67"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="S31:S34"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="Q71:Q73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="S37:S39"/>
-    <mergeCell ref="B52:B67"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S16:S19"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="Q16:Q19"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="V37:V39"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="V45:V47"/>
-    <mergeCell ref="V49:V51"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="V57:V59"/>
-    <mergeCell ref="V61:V63"/>
-    <mergeCell ref="V65:V67"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="U37:U39"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="U65:U67"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="M61:M63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="W31:W34"/>
+    <mergeCell ref="T16:T19"/>
+    <mergeCell ref="U16:U19"/>
+    <mergeCell ref="V16:V19"/>
+    <mergeCell ref="W16:W19"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="W26:W29"/>
+    <mergeCell ref="W57:W59"/>
+    <mergeCell ref="W61:W63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6641,17 +6498,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
       <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6670,26 +6527,26 @@
         <v>22</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
       <c r="O2" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="14"/>
       <c r="F3" s="24" t="s">
         <v>14</v>
@@ -6699,10 +6556,10 @@
       </c>
       <c r="H3" s="87"/>
       <c r="I3" s="87"/>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="86"/>
+      <c r="K3" s="93"/>
       <c r="L3" s="87" t="s">
         <v>16</v>
       </c>
@@ -6711,7 +6568,7 @@
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="25">
@@ -6727,26 +6584,26 @@
       <c r="F4" s="27">
         <v>30</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="82">
         <v>90</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91">
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85">
         <v>60</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="88">
+      <c r="K4" s="86"/>
+      <c r="L4" s="82">
         <v>90</v>
       </c>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
       <c r="O4" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="25">
         <v>102</v>
       </c>
@@ -6760,26 +6617,26 @@
       <c r="F5" s="27">
         <v>30</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="82">
         <v>90</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91">
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85">
         <v>60</v>
       </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="88">
+      <c r="K5" s="86"/>
+      <c r="L5" s="82">
         <v>90</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
       <c r="O5" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="25">
         <v>103</v>
       </c>
@@ -6793,26 +6650,26 @@
       <c r="F6" s="27">
         <v>30</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="82">
         <v>90</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91">
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85">
         <v>60</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="88">
+      <c r="K6" s="86"/>
+      <c r="L6" s="82">
         <v>90</v>
       </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="84"/>
       <c r="O6" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="25">
         <v>104</v>
       </c>
@@ -6826,26 +6683,26 @@
       <c r="F7" s="27">
         <v>30</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="82">
         <v>90</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="91">
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85">
         <v>60</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="88">
+      <c r="K7" s="86"/>
+      <c r="L7" s="82">
         <v>90</v>
       </c>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
       <c r="O7" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="25">
         <v>105</v>
       </c>
@@ -6859,26 +6716,26 @@
       <c r="F8" s="27">
         <v>30</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="82">
         <v>90</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91">
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85">
         <v>60</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="88">
+      <c r="K8" s="86"/>
+      <c r="L8" s="82">
         <v>90</v>
       </c>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="84"/>
       <c r="O8" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="25">
         <v>106</v>
       </c>
@@ -6892,26 +6749,26 @@
       <c r="F9" s="27">
         <v>30</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="82">
         <v>90</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91">
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85">
         <v>60</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="88">
+      <c r="K9" s="86"/>
+      <c r="L9" s="82">
         <v>90</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="25">
         <v>107</v>
       </c>
@@ -6925,26 +6782,26 @@
       <c r="F10" s="27">
         <v>30</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="82">
         <v>90</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91">
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85">
         <v>60</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="88">
+      <c r="K10" s="86"/>
+      <c r="L10" s="82">
         <v>90</v>
       </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="90"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="25">
         <v>108</v>
       </c>
@@ -6958,26 +6815,26 @@
       <c r="F11" s="27">
         <v>30</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="82">
         <v>90</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91">
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85">
         <v>60</v>
       </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="88">
+      <c r="K11" s="86"/>
+      <c r="L11" s="82">
         <v>90</v>
       </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="84"/>
       <c r="O11" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="25">
         <v>109</v>
       </c>
@@ -6991,26 +6848,26 @@
       <c r="F12" s="27">
         <v>30</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="82">
         <v>90</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91">
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85">
         <v>60</v>
       </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="88">
+      <c r="K12" s="86"/>
+      <c r="L12" s="82">
         <v>90</v>
       </c>
-      <c r="M12" s="89"/>
-      <c r="N12" s="90"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="25">
         <v>110</v>
       </c>
@@ -7024,47 +6881,26 @@
       <c r="F13" s="27">
         <v>30</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="82">
         <v>90</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91">
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85">
         <v>60</v>
       </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="88">
+      <c r="K13" s="86"/>
+      <c r="L13" s="82">
         <v>90</v>
       </c>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="28">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="F2:N2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -7081,6 +6917,27 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L8:N8"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets/List of Scenarios.xlsx
+++ b/Datasets/List of Scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dataset QUTZS23\GitHub\QUT-ZSS-2023-SV\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3B63D892-667E-4A0C-A8C4-5E3378AC49C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9271DAA-2DB0-4F59-ACFC-6AB19AC6DC3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79494373-B2EA-41BA-9A51-ED96567EF155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="136">
   <si>
     <t>Attack condition</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Time sections of successive behaviours in seconds</t>
   </si>
   <si>
-    <t>means outliers (non valid data) because MATLAB cannot process the physical behaviours of such attacks reasonably (transformers will be damaged physically in the real world). Data was labelled as N/V.</t>
-  </si>
-  <si>
-    <t>means valid data that systems were recovered from a real/fabricated fault. Data was labelled as 0.</t>
-  </si>
-  <si>
     <t>Emergency operation</t>
   </si>
   <si>
@@ -191,18 +185,9 @@
     <t>9142a-9142d</t>
   </si>
   <si>
-    <t>need to create</t>
-  </si>
-  <si>
-    <t>previous 911</t>
-  </si>
-  <si>
     <t>9112</t>
   </si>
   <si>
-    <t>previous 912</t>
-  </si>
-  <si>
     <t>Possible physical impacts</t>
   </si>
   <si>
@@ -218,12 +203,6 @@
     <t>923</t>
   </si>
   <si>
-    <t>previous 913</t>
-  </si>
-  <si>
-    <t>previous 914</t>
-  </si>
-  <si>
     <t>921a-921b</t>
   </si>
   <si>
@@ -264,33 +243,6 @@
   </si>
   <si>
     <t>9342a-9342d</t>
-  </si>
-  <si>
-    <t>Previous 9311</t>
-  </si>
-  <si>
-    <t>Previous 9321</t>
-  </si>
-  <si>
-    <t>Previous 9331</t>
-  </si>
-  <si>
-    <t>Previous 9341</t>
-  </si>
-  <si>
-    <t>Previous 9312</t>
-  </si>
-  <si>
-    <t>Previous 9322</t>
-  </si>
-  <si>
-    <t>Previous 9332</t>
-  </si>
-  <si>
-    <t>Previous 9342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The DMZ represents a buffer between the 1st attack cycle and the 2nd attack cycle. Two different colours of DMZ indicate two different conditions. </t>
   </si>
   <si>
     <t>9411a-9411b</t>
@@ -482,30 +434,6 @@
     </r>
   </si>
   <si>
-    <t>Previous 9211</t>
-  </si>
-  <si>
-    <t>Previous 9221</t>
-  </si>
-  <si>
-    <t>Previous 9231</t>
-  </si>
-  <si>
-    <t>Previous 9241</t>
-  </si>
-  <si>
-    <t>Previous 9212</t>
-  </si>
-  <si>
-    <t>Previous 9222</t>
-  </si>
-  <si>
-    <t>Previous 9232</t>
-  </si>
-  <si>
-    <t>Previous 9242</t>
-  </si>
-  <si>
     <t>9323a-9323b</t>
   </si>
   <si>
@@ -515,21 +443,9 @@
     <t>9423a-9423b</t>
   </si>
   <si>
-    <t>Previous 9223</t>
-  </si>
-  <si>
-    <t>Previous 9224</t>
-  </si>
-  <si>
     <t>9424a-9424b</t>
   </si>
   <si>
-    <t>Previous 9323</t>
-  </si>
-  <si>
-    <t>Previous 9324</t>
-  </si>
-  <si>
     <t>In fault-free operations, compromised MUs spoof one of the ten emergency scenarios by replaying the recorded measurements from a previous faulty situation.</t>
   </si>
   <si>
@@ -554,9 +470,6 @@
     <t>9522a-9522b</t>
   </si>
   <si>
-    <t>9524a-9524b</t>
-  </si>
-  <si>
     <t>9532a-9532b</t>
   </si>
   <si>
@@ -569,9 +482,6 @@
     <t>Inject all recorded packets with 25ms HB to spoof one of the ten emergency situations.</t>
   </si>
   <si>
-    <t>Inject the first 80 recorded packets with 50ms HB to spoof one of the ten emergency situations.</t>
-  </si>
-  <si>
     <t>9513a-9513b</t>
   </si>
   <si>
@@ -581,18 +491,6 @@
     <t>9543a-9543d</t>
   </si>
   <si>
-    <t>9544a-9544d</t>
-  </si>
-  <si>
-    <t>9514a-9514b</t>
-  </si>
-  <si>
-    <t>9534a-9534b</t>
-  </si>
-  <si>
-    <t>Inject the first 40 recorded packets with 25ms HB to spoof one of the ten emergency situations.</t>
-  </si>
-  <si>
     <t>9611a-9611b</t>
   </si>
   <si>
@@ -639,12 +537,6 @@
   </si>
   <si>
     <t>9644a-9644d</t>
-  </si>
-  <si>
-    <t>Modify the measurements of the same number of packets based on the recorded measurements from a previous emergency scenario.</t>
-  </si>
-  <si>
-    <t>Modify the measurements of 80 packets based on the first 80 recorded measurements from a previous emergency scenario.</t>
   </si>
   <si>
     <r>
@@ -692,12 +584,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Modify the measurements of the same number of packets based on the recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.2 times. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify the measurements of 40 packets based on the first 40 recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.5 times. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Circuit breakers </t>
     </r>
@@ -1773,6 +1659,24 @@
       </rPr>
       <t>: FDR4=22kV3=F_FDR4=2017.</t>
     </r>
+  </si>
+  <si>
+    <t>Inject the first half of the recorded packets with 25ms HB to spoof one of the ten emergency situations.</t>
+  </si>
+  <si>
+    <t>Modify the measurements of original SV packets based on all the recorded measurements from a previous emergency scenario.</t>
+  </si>
+  <si>
+    <t>Modify the measurements of original SV packets based on the first 1/3 of the recorded measurements from a previous emergency scenario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify the measurements of original SV packets based on all the recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.1 times. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify the measurements of original SV packets based on the first 1/4 of the recorded measurements from a previous emergency scenario, while increasing the measurement values to 1.2 times. </t>
+  </si>
+  <si>
+    <t>The DMZ represents a buffer between the 1st attack cycle and the 2nd attack cycle. Since systems were recovered from a real/fabricated fault, the data in DMZ was labelled as 0.</t>
   </si>
   <si>
     <t>971a-971b</t>
@@ -1889,7 +1793,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1922,18 +1826,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2090,11 +1988,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2153,7 +2060,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2212,12 +2119,24 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2227,7 +2146,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2239,9 +2188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2254,94 +2200,103 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2350,7 +2305,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,6 +2325,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2393,10 +2354,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2663,10 +2620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6D2FFF-64FD-4790-BE66-86F2381ADCA2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,7 +2647,7 @@
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.140625" customWidth="1"/>
     <col min="23" max="25" width="7.140625" customWidth="1"/>
@@ -2721,59 +2678,57 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>911</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6">
         <v>2</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="72">
+        <v>41</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="87">
         <v>9111</v>
       </c>
-      <c r="K2" s="71" t="s">
-        <v>51</v>
-      </c>
+      <c r="K2" s="89"/>
       <c r="L2" s="18" t="s">
         <v>14</v>
       </c>
@@ -2795,182 +2750,169 @@
       <c r="R2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
+      <c r="T2" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="2">
         <v>912</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="44">
+        <v>42</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="48">
         <v>20</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="49">
         <v>5</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="50">
         <v>35</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="57">
         <v>10</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="48">
         <v>20</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="49">
         <v>5</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="50">
         <v>25</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="47">
         <f>SUM(L3:R5)</f>
         <v>120</v>
       </c>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="83"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="2">
         <v>913</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
+        <v>43</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="89"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="85"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="2">
         <v>914</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
+        <v>47</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="10">
         <v>911</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>52</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="89"/>
       <c r="L6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2992,184 +2934,148 @@
       <c r="R6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="10">
         <v>912</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="44">
+        <v>45</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="48">
         <v>20</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="49">
         <v>5</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="50">
         <v>35</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="57">
         <v>10</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="48">
         <v>20</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="49">
         <v>5</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="50">
         <v>25</v>
       </c>
-      <c r="S7" s="66">
+      <c r="S7" s="47">
         <f>SUM(L7:R9)</f>
         <v>120</v>
       </c>
-      <c r="T7" s="74"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="10">
         <v>913</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="89"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="47"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="10">
         <v>914</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
+        <v>48</v>
+      </c>
+      <c r="G9" s="70"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="47"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>921</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="77" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="94"/>
       <c r="L10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3191,122 +3097,113 @@
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
+      <c r="S10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="2">
         <v>922</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="44">
+        <v>56</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="48">
         <v>20</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="49">
         <v>30</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="48">
         <v>10</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="57">
         <v>10</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="48">
         <v>20</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="49">
         <v>30</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="47">
         <f>SUM(L11:Q13)</f>
         <v>120</v>
       </c>
-      <c r="S11" s="75"/>
+      <c r="S11" s="96"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="2">
         <v>923</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="75"/>
+        <v>57</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="96"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="69"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="2">
         <v>924</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6">
         <v>4</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="75"/>
+        <v>58</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="96"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -3318,39 +3215,37 @@
       <c r="S14" s="38"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>931</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="59" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>96</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K15" s="36"/>
       <c r="L15" s="18" t="s">
         <v>14</v>
       </c>
@@ -3388,207 +3283,197 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="47">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="61">
         <v>932</v>
       </c>
-      <c r="D16" s="59" t="s">
-        <v>40</v>
+      <c r="D16" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="44">
+        <v>62</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="48">
         <v>15</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="49">
         <v>5</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="50">
         <v>15</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="57">
         <v>10</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="48">
         <v>15</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="49">
         <v>5</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="50">
         <v>15</v>
       </c>
-      <c r="S16" s="50">
+      <c r="S16" s="57">
         <v>10</v>
       </c>
-      <c r="T16" s="44">
+      <c r="T16" s="48">
         <v>15</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="49">
         <v>5</v>
       </c>
-      <c r="V16" s="46">
+      <c r="V16" s="50">
         <v>10</v>
       </c>
-      <c r="W16" s="47">
+      <c r="W16" s="61">
         <f>SUM(L16:V19)</f>
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="78"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="6">
         <v>2</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="78"/>
+        <v>80</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="48"/>
-    </row>
-    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="68"/>
+        <v>80</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="62"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="2">
         <v>933</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="61" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="48"/>
-    </row>
-    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="68"/>
+        <v>63</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="62"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="2">
         <v>934</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="61"/>
+        <v>64</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="49"/>
+        <v>64</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="63"/>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="10">
         <v>931</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>100</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K20" s="36"/>
       <c r="L20" s="18" t="s">
         <v>14</v>
       </c>
@@ -3627,208 +3512,198 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="79">
+      <c r="A21" s="45"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="90">
         <v>932</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>40</v>
+      <c r="D21" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="8">
         <v>2</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="57"/>
+        <v>66</v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="44">
+        <v>66</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="48">
         <v>15</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="49">
         <v>2</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="50">
         <v>18</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="57">
         <v>10</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="48">
         <v>15</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="49">
         <v>2</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="50">
         <v>18</v>
       </c>
-      <c r="S21" s="50">
+      <c r="S21" s="57">
         <v>10</v>
       </c>
-      <c r="T21" s="44">
+      <c r="T21" s="48">
         <v>15</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="49">
         <v>2</v>
       </c>
-      <c r="V21" s="46">
+      <c r="V21" s="50">
         <v>13</v>
       </c>
-      <c r="W21" s="47">
+      <c r="W21" s="61">
         <f>SUM(L21:V24)</f>
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="81"/>
+        <v>81</v>
+      </c>
+      <c r="G22" s="70"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="92"/>
       <c r="J22" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="48"/>
+        <v>81</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="62"/>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="10">
         <v>933</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="8">
         <v>2</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="58" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="60" t="s">
+        <v>35</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="48"/>
+        <v>67</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="62"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="10">
         <v>934</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="8">
         <v>4</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="58"/>
+        <v>68</v>
+      </c>
+      <c r="G24" s="70"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="49"/>
+        <v>68</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="63"/>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
         <v>941</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>76</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K25" s="36"/>
       <c r="L25" s="18" t="s">
         <v>14</v>
       </c>
@@ -3867,206 +3742,196 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="47">
+      <c r="A26" s="45"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="61">
         <v>942</v>
       </c>
-      <c r="D26" s="59" t="s">
-        <v>40</v>
+      <c r="D26" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="6">
         <v>2</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="60"/>
+        <v>70</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="44">
+        <v>70</v>
+      </c>
+      <c r="K26" s="36"/>
+      <c r="L26" s="48">
         <v>15</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="49">
         <v>1</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="50">
         <v>19</v>
       </c>
-      <c r="O26" s="50">
+      <c r="O26" s="57">
         <v>10</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="48">
         <v>15</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="49">
         <v>1</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="50">
         <v>19</v>
       </c>
-      <c r="S26" s="50">
+      <c r="S26" s="57">
         <v>10</v>
       </c>
-      <c r="T26" s="44">
+      <c r="T26" s="48">
         <v>15</v>
       </c>
-      <c r="U26" s="45">
+      <c r="U26" s="49">
         <v>1</v>
       </c>
-      <c r="V26" s="46">
+      <c r="V26" s="50">
         <v>14</v>
       </c>
-      <c r="W26" s="47">
+      <c r="W26" s="61">
         <f>SUM(L26:V29)</f>
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="78"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="78"/>
+        <v>82</v>
+      </c>
+      <c r="G27" s="67"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="97"/>
       <c r="J27" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="48"/>
+        <v>82</v>
+      </c>
+      <c r="K27" s="36"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="69"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="2">
         <v>943</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="61" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="48"/>
+        <v>71</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="62"/>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="69"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="2">
         <v>944</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="6">
         <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="61"/>
+        <v>72</v>
+      </c>
+      <c r="G29" s="67"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="63"/>
     </row>
     <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="69"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="10">
         <v>941</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="8">
         <v>2</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>36</v>
+        <v>73</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K30" s="36"/>
       <c r="L30" s="18" t="s">
         <v>14</v>
       </c>
@@ -4105,211 +3970,200 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="79">
+      <c r="A31" s="45"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="90">
         <v>942</v>
       </c>
-      <c r="D31" s="56" t="s">
-        <v>40</v>
+      <c r="D31" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="E31" s="8">
         <v>2</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="57"/>
+        <v>74</v>
+      </c>
+      <c r="G31" s="70"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="44">
+        <v>74</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="48">
         <v>15</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="49">
         <v>0.1</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="50">
         <v>19.899999999999999</v>
       </c>
-      <c r="O31" s="50">
+      <c r="O31" s="57">
         <v>10</v>
       </c>
-      <c r="P31" s="44">
+      <c r="P31" s="48">
         <v>15</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="49">
         <v>0.1</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="50">
         <v>19.899999999999999</v>
       </c>
-      <c r="S31" s="50">
+      <c r="S31" s="57">
         <v>10</v>
       </c>
-      <c r="T31" s="44">
+      <c r="T31" s="48">
         <v>15</v>
       </c>
-      <c r="U31" s="45">
+      <c r="U31" s="49">
         <v>0.1</v>
       </c>
-      <c r="V31" s="46">
+      <c r="V31" s="50">
         <v>14.9</v>
       </c>
-      <c r="W31" s="47">
+      <c r="W31" s="61">
         <f>SUM(L31:V34)</f>
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="81"/>
+        <v>83</v>
+      </c>
+      <c r="G32" s="70"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="92"/>
       <c r="J32" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="48"/>
+        <v>83</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="62"/>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="69"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="10">
         <v>943</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E33" s="8">
         <v>2</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="58" t="s">
-        <v>37</v>
+        <v>75</v>
+      </c>
+      <c r="G33" s="70"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="60" t="s">
+        <v>35</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="48"/>
+        <v>75</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="62"/>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="69"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="10">
         <v>944</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="8">
         <v>4</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="58"/>
+        <v>76</v>
+      </c>
+      <c r="G34" s="70"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="60"/>
       <c r="J34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="63"/>
     </row>
     <row r="35" spans="1:23" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="67" t="s">
+      <c r="A36" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>951</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>36</v>
+        <v>85</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="J36" s="15">
         <v>9511</v>
       </c>
-      <c r="K36" s="1">
-        <v>9411</v>
-      </c>
       <c r="L36" s="18" t="s">
         <v>14</v>
       </c>
@@ -4331,189 +4185,161 @@
       <c r="R36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S36" s="20" t="s">
+      <c r="S36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="34">
         <v>952</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="60"/>
+        <v>86</v>
+      </c>
+      <c r="G37" s="67"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="15">
         <v>9521</v>
       </c>
-      <c r="K37" s="1">
-        <v>9421</v>
-      </c>
-      <c r="L37" s="44">
+      <c r="L37" s="48">
         <v>20</v>
       </c>
-      <c r="M37" s="46">
-        <v>40</v>
-      </c>
-      <c r="N37" s="44">
-        <v>60</v>
-      </c>
-      <c r="O37" s="45">
-        <v>8</v>
-      </c>
-      <c r="P37" s="46">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="50">
+      <c r="M37" s="50">
+        <v>70</v>
+      </c>
+      <c r="N37" s="48">
+        <v>30</v>
+      </c>
+      <c r="O37" s="49">
+        <v>3</v>
+      </c>
+      <c r="P37" s="50">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="57">
         <v>10</v>
       </c>
-      <c r="R37" s="44">
+      <c r="R37" s="48">
         <v>20</v>
       </c>
-      <c r="S37" s="46">
-        <v>40</v>
-      </c>
-      <c r="T37" s="44">
-        <v>60</v>
-      </c>
-      <c r="U37" s="45">
-        <v>8</v>
-      </c>
-      <c r="V37" s="46">
-        <v>12</v>
-      </c>
-      <c r="W37" s="43">
-        <f>SUM(L37:V39)</f>
-        <v>290</v>
+      <c r="S37" s="49">
+        <v>3</v>
+      </c>
+      <c r="T37" s="51">
+        <v>17</v>
+      </c>
+      <c r="U37" s="47">
+        <f>SUM(L37:T39)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="68"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="2">
         <v>953</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="61" t="s">
-        <v>37</v>
+        <v>88</v>
+      </c>
+      <c r="G38" s="67"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="J38" s="15">
         <v>9531</v>
       </c>
-      <c r="K38" s="1">
-        <v>9431</v>
-      </c>
-      <c r="L38" s="44"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="43"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="47"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="68"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="2">
         <v>954</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="61"/>
+        <v>89</v>
+      </c>
+      <c r="G39" s="67"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="15">
         <v>9541</v>
       </c>
-      <c r="K39" s="1">
-        <v>9441</v>
-      </c>
-      <c r="L39" s="44"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="43"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="47"/>
     </row>
     <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="68"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="10">
         <v>951</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="8">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="I40" s="56" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="J40" s="17">
-        <v>9</v>
-      </c>
-      <c r="K40" s="1">
-        <v>9412</v>
+        <v>9512</v>
       </c>
       <c r="L40" s="18" t="s">
         <v>14</v>
@@ -4536,189 +4362,161 @@
       <c r="R40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="20" t="s">
+      <c r="S40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V40" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="35">
         <v>952</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="8">
         <v>2</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K41" s="1">
-        <v>9422</v>
-      </c>
-      <c r="L41" s="44">
+        <v>91</v>
+      </c>
+      <c r="G41" s="70"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="17">
+        <v>9522</v>
+      </c>
+      <c r="L41" s="48">
         <v>20</v>
       </c>
-      <c r="M41" s="46">
-        <v>40</v>
-      </c>
-      <c r="N41" s="44">
-        <v>60</v>
-      </c>
-      <c r="O41" s="45">
-        <v>4</v>
-      </c>
-      <c r="P41" s="46">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="50">
+      <c r="M41" s="50">
+        <v>70</v>
+      </c>
+      <c r="N41" s="48">
+        <v>30</v>
+      </c>
+      <c r="O41" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="P41" s="50">
+        <v>28.5</v>
+      </c>
+      <c r="Q41" s="57">
         <v>10</v>
       </c>
-      <c r="R41" s="44">
+      <c r="R41" s="77">
         <v>20</v>
       </c>
-      <c r="S41" s="46">
-        <v>40</v>
-      </c>
-      <c r="T41" s="44">
-        <v>60</v>
-      </c>
-      <c r="U41" s="45">
-        <v>4</v>
-      </c>
-      <c r="V41" s="46">
-        <v>16</v>
-      </c>
-      <c r="W41" s="43">
-        <f>SUM(L41:V43)</f>
-        <v>290</v>
+      <c r="S41" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="T41" s="51">
+        <v>18.5</v>
+      </c>
+      <c r="U41" s="47">
+        <f>SUM(L41:T43)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="10">
         <v>953</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E42" s="8">
         <v>2</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K42" s="1">
-        <v>9432</v>
-      </c>
-      <c r="L42" s="44"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="G42" s="70"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="17">
+        <v>9532</v>
+      </c>
+      <c r="L42" s="48"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="47"/>
     </row>
     <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="10">
         <v>954</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E43" s="8">
         <v>4</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" s="1">
-        <v>9442</v>
-      </c>
-      <c r="L43" s="44"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="43"/>
+        <v>93</v>
+      </c>
+      <c r="G43" s="70"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="17">
+        <v>9542</v>
+      </c>
+      <c r="L43" s="48"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="47"/>
     </row>
     <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="68"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="2">
         <v>951</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E44" s="6">
         <v>2</v>
       </c>
       <c r="F44" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K44" s="1">
-        <v>9413</v>
+      <c r="H44" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="15">
+        <v>9513</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>14</v>
@@ -4741,189 +4539,163 @@
       <c r="R44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S44" s="20" t="s">
+      <c r="S44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V44" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="68"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="34">
         <v>952</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E45" s="6">
         <v>2</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="54"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K45" s="1">
-        <v>9423</v>
-      </c>
-      <c r="L45" s="44">
+        <v>87</v>
+      </c>
+      <c r="G45" s="67"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="15">
+        <v>9523</v>
+      </c>
+      <c r="L45" s="48">
         <v>20</v>
       </c>
-      <c r="M45" s="46">
-        <v>40</v>
-      </c>
-      <c r="N45" s="44">
-        <v>60</v>
-      </c>
-      <c r="O45" s="45">
-        <v>4</v>
-      </c>
-      <c r="P45" s="46">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="50">
+      <c r="M45" s="50">
+        <v>70</v>
+      </c>
+      <c r="N45" s="48">
+        <v>30</v>
+      </c>
+      <c r="O45" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="P45" s="50">
+        <v>29.25</v>
+      </c>
+      <c r="Q45" s="57">
         <v>10</v>
       </c>
-      <c r="R45" s="44">
+      <c r="R45" s="77">
         <v>20</v>
       </c>
-      <c r="S45" s="46">
-        <v>40</v>
-      </c>
-      <c r="T45" s="44">
-        <v>60</v>
-      </c>
-      <c r="U45" s="45">
-        <v>4</v>
-      </c>
-      <c r="V45" s="46">
-        <v>16</v>
-      </c>
-      <c r="W45" s="43">
-        <f>SUM(L45:V47)</f>
-        <v>290</v>
+      <c r="S45" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="T45" s="50">
+        <v>19.25</v>
+      </c>
+      <c r="U45" s="47">
+        <f>SUM(L45:T47)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="2">
         <v>953</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E46" s="6">
         <v>2</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" s="1">
-        <v>9433</v>
-      </c>
-      <c r="L46" s="44"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="43"/>
+        <v>97</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="15">
+        <v>9533</v>
+      </c>
+      <c r="L46" s="48"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="47"/>
     </row>
     <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="68"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="2">
         <v>954</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E47" s="6">
         <v>4</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" s="1">
-        <v>9443</v>
-      </c>
-      <c r="L47" s="44"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="43"/>
+        <v>98</v>
+      </c>
+      <c r="G47" s="67"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="15">
+        <v>9543</v>
+      </c>
+      <c r="L47" s="48"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="79"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="47"/>
     </row>
     <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="68"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="68" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" s="10">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E48" s="8">
         <v>2</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K48" s="1">
-        <v>9414</v>
+        <v>99</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="17">
+        <v>9611</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>14</v>
@@ -4946,191 +4718,161 @@
       <c r="R48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S48" s="20" t="s">
+      <c r="S48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V48" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="68"/>
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="35">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E49" s="8">
         <v>2</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49" s="62"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="K49" s="1">
-        <v>9424</v>
-      </c>
-      <c r="L49" s="44">
+        <v>100</v>
+      </c>
+      <c r="G49" s="70"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="17">
+        <v>9621</v>
+      </c>
+      <c r="L49" s="48">
         <v>20</v>
       </c>
-      <c r="M49" s="46">
-        <v>40</v>
-      </c>
-      <c r="N49" s="44">
-        <v>60</v>
-      </c>
-      <c r="O49" s="45">
-        <v>1</v>
-      </c>
-      <c r="P49" s="46">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="50">
+      <c r="M49" s="50">
+        <v>70</v>
+      </c>
+      <c r="N49" s="48">
+        <v>30</v>
+      </c>
+      <c r="O49" s="49">
+        <v>3</v>
+      </c>
+      <c r="P49" s="50">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="57">
         <v>10</v>
       </c>
-      <c r="R49" s="44">
+      <c r="R49" s="48">
         <v>20</v>
       </c>
-      <c r="S49" s="46">
-        <v>40</v>
-      </c>
-      <c r="T49" s="44">
-        <v>60</v>
-      </c>
-      <c r="U49" s="45">
-        <v>1</v>
-      </c>
-      <c r="V49" s="46">
-        <v>19</v>
-      </c>
-      <c r="W49" s="43">
-        <f>SUM(L49:V51)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="68"/>
+      <c r="S49" s="49">
+        <v>3</v>
+      </c>
+      <c r="T49" s="51">
+        <v>17</v>
+      </c>
+      <c r="U49" s="47">
+        <f>SUM(L49:T51)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="10">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E50" s="8">
         <v>2</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K50" s="1">
-        <v>9434</v>
-      </c>
-      <c r="L50" s="44"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="43"/>
-    </row>
-    <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="68"/>
+        <v>101</v>
+      </c>
+      <c r="G50" s="70"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="17">
+        <v>9631</v>
+      </c>
+      <c r="L50" s="48"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="47"/>
+    </row>
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="65"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="10">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E51" s="8">
         <v>4</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K51" s="1">
-        <v>9444</v>
-      </c>
-      <c r="L51" s="44"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="43"/>
-    </row>
-    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="67" t="s">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G51" s="70"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="17">
+        <v>9641</v>
+      </c>
+      <c r="L51" s="48"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="47"/>
+    </row>
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="65"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="2">
         <v>961</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E52" s="6">
         <v>2</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="I52" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K52" s="1">
-        <v>9511</v>
+        <v>103</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="15">
+        <v>9612</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>14</v>
@@ -5153,189 +4895,161 @@
       <c r="R52" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S52" s="20" t="s">
+      <c r="S52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T52" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V52" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="68"/>
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="65"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="34">
         <v>962</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="54"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K53" s="1">
-        <v>9521</v>
-      </c>
-      <c r="L53" s="44">
+        <v>104</v>
+      </c>
+      <c r="G53" s="67"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="15">
+        <v>9622</v>
+      </c>
+      <c r="L53" s="48">
         <v>20</v>
       </c>
-      <c r="M53" s="46">
-        <v>40</v>
-      </c>
-      <c r="N53" s="44">
-        <v>60</v>
-      </c>
-      <c r="O53" s="45">
-        <v>8</v>
-      </c>
-      <c r="P53" s="46">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="50">
+      <c r="M53" s="50">
+        <v>70</v>
+      </c>
+      <c r="N53" s="48">
+        <v>30</v>
+      </c>
+      <c r="O53" s="71">
+        <v>1</v>
+      </c>
+      <c r="P53" s="51">
+        <v>29</v>
+      </c>
+      <c r="Q53" s="74">
         <v>10</v>
       </c>
-      <c r="R53" s="44">
+      <c r="R53" s="77">
         <v>20</v>
       </c>
-      <c r="S53" s="46">
-        <v>40</v>
-      </c>
-      <c r="T53" s="44">
-        <v>60</v>
-      </c>
-      <c r="U53" s="45">
-        <v>8</v>
-      </c>
-      <c r="V53" s="46">
-        <v>12</v>
-      </c>
-      <c r="W53" s="43">
-        <f>SUM(L53:V55)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="68"/>
+      <c r="S53" s="71">
+        <v>1</v>
+      </c>
+      <c r="T53" s="51">
+        <v>19</v>
+      </c>
+      <c r="U53" s="47">
+        <f>SUM(L53:T55)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="65"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="2">
         <v>963</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E54" s="6">
         <v>2</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="K54" s="1">
-        <v>9531</v>
-      </c>
-      <c r="L54" s="44"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="43"/>
-    </row>
-    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="68"/>
+        <v>105</v>
+      </c>
+      <c r="G54" s="67"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="15">
+        <v>9632</v>
+      </c>
+      <c r="L54" s="48"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="47"/>
+    </row>
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="65"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="2">
         <v>964</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E55" s="6">
         <v>4</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K55" s="1">
-        <v>9541</v>
-      </c>
-      <c r="L55" s="44"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="43"/>
-    </row>
-    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="68"/>
+        <v>106</v>
+      </c>
+      <c r="G55" s="67"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="15">
+        <v>9642</v>
+      </c>
+      <c r="L55" s="48"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="47"/>
+    </row>
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="65"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="10">
         <v>961</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E56" s="8">
         <v>2</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="H56" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="I56" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="K56" s="1">
-        <v>9512</v>
+        <v>107</v>
+      </c>
+      <c r="G56" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="17">
+        <v>9613</v>
       </c>
       <c r="L56" s="18" t="s">
         <v>14</v>
@@ -5358,189 +5072,161 @@
       <c r="R56" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S56" s="20" t="s">
+      <c r="S56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T56" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U56" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V56" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W56" s="3" t="s">
+      <c r="U56" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="68"/>
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="35">
         <v>962</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="8">
         <v>2</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="K57" s="1">
-        <v>9522</v>
-      </c>
-      <c r="L57" s="44">
+        <v>108</v>
+      </c>
+      <c r="G57" s="70"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="17">
+        <v>9623</v>
+      </c>
+      <c r="L57" s="48">
         <v>20</v>
       </c>
-      <c r="M57" s="46">
-        <v>40</v>
-      </c>
-      <c r="N57" s="44">
-        <v>60</v>
-      </c>
-      <c r="O57" s="45">
-        <v>4</v>
-      </c>
-      <c r="P57" s="46">
-        <v>16</v>
-      </c>
-      <c r="Q57" s="50">
+      <c r="M57" s="50">
+        <v>70</v>
+      </c>
+      <c r="N57" s="48">
+        <v>30</v>
+      </c>
+      <c r="O57" s="49">
+        <v>3</v>
+      </c>
+      <c r="P57" s="50">
+        <v>27</v>
+      </c>
+      <c r="Q57" s="57">
         <v>10</v>
       </c>
-      <c r="R57" s="44">
+      <c r="R57" s="48">
         <v>20</v>
       </c>
-      <c r="S57" s="46">
-        <v>40</v>
-      </c>
-      <c r="T57" s="44">
-        <v>60</v>
-      </c>
-      <c r="U57" s="45">
-        <v>4</v>
-      </c>
-      <c r="V57" s="46">
-        <v>16</v>
-      </c>
-      <c r="W57" s="43">
-        <f>SUM(L57:V59)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="68"/>
+      <c r="S57" s="49">
+        <v>3</v>
+      </c>
+      <c r="T57" s="51">
+        <v>17</v>
+      </c>
+      <c r="U57" s="47">
+        <f>SUM(L57:T59)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="10">
         <v>963</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E58" s="8">
         <v>2</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="K58" s="1">
-        <v>9532</v>
-      </c>
-      <c r="L58" s="44"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="43"/>
-    </row>
-    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="68"/>
+        <v>109</v>
+      </c>
+      <c r="G58" s="70"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" s="17">
+        <v>9633</v>
+      </c>
+      <c r="L58" s="48"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="47"/>
+    </row>
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="65"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="10">
         <v>964</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E59" s="8">
         <v>4</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="K59" s="1">
-        <v>9542</v>
-      </c>
-      <c r="L59" s="44"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="43"/>
-    </row>
-    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="68"/>
+        <v>110</v>
+      </c>
+      <c r="G59" s="70"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="17">
+        <v>9643</v>
+      </c>
+      <c r="L59" s="48"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="47"/>
+    </row>
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="65"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="2">
         <v>961</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G60" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H60" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="I60" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K60" s="1">
-        <v>9513</v>
+        <v>111</v>
+      </c>
+      <c r="G60" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="15">
+        <v>9614</v>
       </c>
       <c r="L60" s="18" t="s">
         <v>14</v>
@@ -5563,580 +5249,358 @@
       <c r="R60" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S60" s="20" t="s">
+      <c r="S60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T60" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T60" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U60" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V60" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W60" s="3" t="s">
+      <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="68"/>
+    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="65"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="34">
         <v>962</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="54"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K61" s="1">
-        <v>9523</v>
-      </c>
-      <c r="L61" s="44">
+        <v>112</v>
+      </c>
+      <c r="G61" s="67"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="15">
+        <v>9624</v>
+      </c>
+      <c r="L61" s="48">
         <v>20</v>
       </c>
-      <c r="M61" s="46">
-        <v>40</v>
-      </c>
-      <c r="N61" s="44">
-        <v>60</v>
-      </c>
-      <c r="O61" s="45">
-        <v>8</v>
-      </c>
-      <c r="P61" s="46">
-        <v>12</v>
-      </c>
-      <c r="Q61" s="50">
+      <c r="M61" s="50">
+        <v>70</v>
+      </c>
+      <c r="N61" s="48">
+        <v>30</v>
+      </c>
+      <c r="O61" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="P61" s="50">
+        <v>29.25</v>
+      </c>
+      <c r="Q61" s="57">
         <v>10</v>
       </c>
-      <c r="R61" s="44">
+      <c r="R61" s="77">
         <v>20</v>
       </c>
-      <c r="S61" s="46">
-        <v>40</v>
-      </c>
-      <c r="T61" s="44">
-        <v>60</v>
-      </c>
-      <c r="U61" s="45">
-        <v>8</v>
-      </c>
-      <c r="V61" s="46">
-        <v>12</v>
-      </c>
-      <c r="W61" s="43">
-        <f>SUM(L61:V63)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="68"/>
+      <c r="S61" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="T61" s="50">
+        <v>19.25</v>
+      </c>
+      <c r="U61" s="47">
+        <f>SUM(L61:T63)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="65"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="2">
         <v>963</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="K62" s="1">
-        <v>9533</v>
-      </c>
-      <c r="L62" s="44"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="43"/>
-    </row>
-    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="68"/>
+        <v>113</v>
+      </c>
+      <c r="G62" s="67"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="15">
+        <v>9634</v>
+      </c>
+      <c r="L62" s="48"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="47"/>
+    </row>
+    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="2">
         <v>964</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E63" s="6">
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G63" s="54"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K63" s="1">
-        <v>9543</v>
-      </c>
-      <c r="L63" s="44"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="50"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="45"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="43"/>
-    </row>
-    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="10">
-        <v>961</v>
-      </c>
-      <c r="D64" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="67"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="15">
+        <v>9644</v>
+      </c>
+      <c r="L63" s="48"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="79"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="47"/>
+    </row>
+    <row r="64" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="13">
+        <f>SUM(E2:E63)</f>
+        <v>148</v>
+      </c>
+      <c r="G64" s="32"/>
+      <c r="H64" s="1"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2">
+        <v>971</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="110">
+        <v>971</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N66" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="P66" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q66" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R66" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="34">
+        <v>972</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" s="67"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="111"/>
+      <c r="L67" s="48">
+        <v>20</v>
+      </c>
+      <c r="M67" s="49">
+        <v>5</v>
+      </c>
+      <c r="N67" s="50">
+        <v>75</v>
+      </c>
+      <c r="O67" s="57">
+        <v>10</v>
+      </c>
+      <c r="P67" s="48">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="49">
+        <v>5</v>
+      </c>
+      <c r="R67" s="50">
+        <v>25</v>
+      </c>
+      <c r="S67" s="47">
+        <f>SUM(L67:R67)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="45"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="2">
+        <v>973</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E68" s="6">
         <v>2</v>
       </c>
-      <c r="F64" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G64" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="H64" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K64" s="1">
-        <v>9514</v>
-      </c>
-      <c r="L64" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N64" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O64" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P64" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q64" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="R64" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="S64" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="T64" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U64" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V64" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W64" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="35">
-        <v>962</v>
-      </c>
-      <c r="D65" s="40" t="s">
+      <c r="F68" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="67"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" s="110">
+        <v>973</v>
+      </c>
+      <c r="L68" s="48"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="47"/>
+    </row>
+    <row r="69" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="2">
+        <v>974</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="8">
-        <v>2</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G65" s="62"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K65" s="1">
-        <v>9524</v>
-      </c>
-      <c r="L65" s="44">
-        <v>20</v>
-      </c>
-      <c r="M65" s="46">
-        <v>40</v>
-      </c>
-      <c r="N65" s="44">
-        <v>60</v>
-      </c>
-      <c r="O65" s="45">
-        <v>2</v>
-      </c>
-      <c r="P65" s="46">
-        <v>18</v>
-      </c>
-      <c r="Q65" s="50">
+      <c r="E69" s="6">
+        <v>4</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69" s="67"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="111"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="47"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="88"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="13">
+        <f>SUM(E66:E69)</f>
         <v>10</v>
       </c>
-      <c r="R65" s="44">
-        <v>20</v>
-      </c>
-      <c r="S65" s="46">
-        <v>40</v>
-      </c>
-      <c r="T65" s="44">
-        <v>60</v>
-      </c>
-      <c r="U65" s="45">
-        <v>2</v>
-      </c>
-      <c r="V65" s="46">
-        <v>18</v>
-      </c>
-      <c r="W65" s="43">
-        <f>SUM(L65:V67)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="10">
-        <v>963</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="8">
-        <v>2</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G66" s="62"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K66" s="1">
-        <v>9534</v>
-      </c>
-      <c r="L66" s="44"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="45"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="43"/>
-    </row>
-    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="10">
-        <v>964</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="8">
-        <v>4</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G67" s="62"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K67" s="1">
-        <v>9544</v>
-      </c>
-      <c r="L67" s="44"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="43"/>
-    </row>
-    <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="13">
-        <f>SUM(E2:E67)</f>
-        <v>158</v>
-      </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="1"/>
-      <c r="J68"/>
-      <c r="K68"/>
-    </row>
-    <row r="69" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="2">
-        <v>971</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G70" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I70" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" s="15">
-        <v>971</v>
-      </c>
-      <c r="L70" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N70" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O70" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="P70" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q70" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R70" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="34">
-        <v>972</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="15">
-        <v>972</v>
-      </c>
-      <c r="L71" s="44">
-        <v>20</v>
-      </c>
-      <c r="M71" s="45">
-        <v>5</v>
-      </c>
-      <c r="N71" s="46">
-        <v>35</v>
-      </c>
-      <c r="O71" s="50">
-        <v>10</v>
-      </c>
-      <c r="P71" s="44">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="45">
-        <v>5</v>
-      </c>
-      <c r="R71" s="46">
-        <v>25</v>
-      </c>
-      <c r="S71" s="43">
-        <f>SUM(L71:R71)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="2">
-        <v>973</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G72" s="54"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72" s="15">
-        <v>973</v>
-      </c>
-      <c r="L72" s="44"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="43"/>
-    </row>
-    <row r="73" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="2">
-        <v>974</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="6">
-        <v>4</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="54"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="15">
-        <v>974</v>
-      </c>
-      <c r="L73" s="44"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="43"/>
-    </row>
-    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="13">
-        <f>SUM(E70:E73)</f>
-        <v>10</v>
-      </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="1"/>
-      <c r="J74"/>
-      <c r="K74"/>
-    </row>
-    <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="9"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="1"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+    </row>
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
     </row>
-    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
     </row>
     <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6166,42 +5630,12 @@
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="278">
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="V37:V39"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="V45:V47"/>
-    <mergeCell ref="V49:V51"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="V57:V59"/>
-    <mergeCell ref="V61:V63"/>
-    <mergeCell ref="V65:V67"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="U37:U39"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="U65:U67"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
+  <mergeCells count="246">
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="T61:T63"/>
     <mergeCell ref="Q31:Q34"/>
     <mergeCell ref="R31:R34"/>
     <mergeCell ref="B15:B24"/>
@@ -6214,34 +5648,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="R45:R47"/>
     <mergeCell ref="M16:M19"/>
     <mergeCell ref="N16:N19"/>
     <mergeCell ref="O16:O19"/>
     <mergeCell ref="P16:P19"/>
     <mergeCell ref="Q16:Q19"/>
     <mergeCell ref="R16:R19"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T37:T39"/>
     <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="T9:T10"/>
     <mergeCell ref="S16:S19"/>
     <mergeCell ref="R11:R13"/>
     <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T16:T19"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K6:K7"/>
@@ -6268,12 +5696,10 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I66:I67"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
     <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="I2:I3"/>
@@ -6284,47 +5710,33 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="S67:S69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="P31:P34"/>
     <mergeCell ref="S31:S34"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="Q71:Q73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="I68:I69"/>
     <mergeCell ref="P37:P39"/>
     <mergeCell ref="O37:O39"/>
     <mergeCell ref="Q37:Q39"/>
     <mergeCell ref="R37:R39"/>
     <mergeCell ref="S37:S39"/>
-    <mergeCell ref="B52:B67"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="B48:B63"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="A15:A34"/>
+    <mergeCell ref="R61:R63"/>
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
     <mergeCell ref="N26:N29"/>
@@ -6332,26 +5744,37 @@
     <mergeCell ref="P26:P29"/>
     <mergeCell ref="Q26:Q29"/>
     <mergeCell ref="R26:R29"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="U49:U51"/>
     <mergeCell ref="T2:Z4"/>
-    <mergeCell ref="U5:Z8"/>
-    <mergeCell ref="U9:Z10"/>
     <mergeCell ref="L41:L43"/>
     <mergeCell ref="M41:M43"/>
     <mergeCell ref="N41:N43"/>
@@ -6362,89 +5785,64 @@
     <mergeCell ref="S41:S43"/>
     <mergeCell ref="T41:T43"/>
     <mergeCell ref="U41:U43"/>
-    <mergeCell ref="W41:W43"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="S7:S9"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="N3:N5"/>
-    <mergeCell ref="W37:W39"/>
-    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="U37:U39"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="L16:L19"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="U61:U63"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="W45:W47"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="W31:W34"/>
+    <mergeCell ref="S57:S59"/>
     <mergeCell ref="R49:R51"/>
     <mergeCell ref="S49:S51"/>
     <mergeCell ref="T49:T51"/>
-    <mergeCell ref="U49:U51"/>
-    <mergeCell ref="W49:W51"/>
-    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="Q53:Q55"/>
     <mergeCell ref="R53:R55"/>
     <mergeCell ref="S53:S55"/>
     <mergeCell ref="T53:T55"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
     <mergeCell ref="L57:L59"/>
     <mergeCell ref="M57:M59"/>
     <mergeCell ref="N57:N59"/>
     <mergeCell ref="O57:O59"/>
     <mergeCell ref="P57:P59"/>
     <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="S57:S59"/>
-    <mergeCell ref="T57:T59"/>
-    <mergeCell ref="A36:A67"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="P65:P67"/>
-    <mergeCell ref="Q65:Q67"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I57"/>
     <mergeCell ref="I58:I59"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="A36:A63"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="O67:O69"/>
     <mergeCell ref="M61:M63"/>
     <mergeCell ref="N61:N63"/>
     <mergeCell ref="O61:O63"/>
     <mergeCell ref="P61:P63"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="W31:W34"/>
-    <mergeCell ref="T16:T19"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="B36:B47"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="H44:H47"/>
     <mergeCell ref="U16:U19"/>
     <mergeCell ref="V16:V19"/>
     <mergeCell ref="W16:W19"/>
@@ -6456,8 +5854,30 @@
     <mergeCell ref="U26:U29"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="W26:W29"/>
-    <mergeCell ref="W57:W59"/>
-    <mergeCell ref="W61:W63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="U61:U63"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="T57:T59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6486,7 +5906,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -6498,17 +5918,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
       <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6524,52 +5944,52 @@
         <v>1</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
+      <c r="F2" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="14"/>
       <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="87" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="109"/>
+      <c r="L3" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>21</v>
+      <c r="A4" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="25">
         <v>101</v>
@@ -6578,32 +5998,32 @@
         <v>1</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="27">
         <v>30</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="98">
         <v>90</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85">
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101">
         <v>60</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="82">
+      <c r="K4" s="102"/>
+      <c r="L4" s="98">
         <v>90</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
       <c r="O4" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="25">
         <v>102</v>
       </c>
@@ -6611,32 +6031,32 @@
         <v>1</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="27">
         <v>30</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="98">
         <v>90</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85">
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101">
         <v>60</v>
       </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="82">
+      <c r="K5" s="102"/>
+      <c r="L5" s="98">
         <v>90</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="100"/>
       <c r="O5" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="25">
         <v>103</v>
       </c>
@@ -6644,32 +6064,32 @@
         <v>1</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="27">
         <v>30</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="98">
         <v>90</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85">
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101">
         <v>60</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="82">
+      <c r="K6" s="102"/>
+      <c r="L6" s="98">
         <v>90</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="84"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="100"/>
       <c r="O6" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="25">
         <v>104</v>
       </c>
@@ -6677,32 +6097,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="27">
         <v>30</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="98">
         <v>90</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85">
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101">
         <v>60</v>
       </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="82">
+      <c r="K7" s="102"/>
+      <c r="L7" s="98">
         <v>90</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="100"/>
       <c r="O7" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="25">
         <v>105</v>
       </c>
@@ -6710,32 +6130,32 @@
         <v>1</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="27">
         <v>30</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="98">
         <v>90</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85">
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101">
         <v>60</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="82">
+      <c r="K8" s="102"/>
+      <c r="L8" s="98">
         <v>90</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="100"/>
       <c r="O8" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="25">
         <v>106</v>
       </c>
@@ -6743,32 +6163,32 @@
         <v>1</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="27">
         <v>30</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="98">
         <v>90</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85">
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101">
         <v>60</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="82">
+      <c r="K9" s="102"/>
+      <c r="L9" s="98">
         <v>90</v>
       </c>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="100"/>
       <c r="O9" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="25">
         <v>107</v>
       </c>
@@ -6776,32 +6196,32 @@
         <v>1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="27">
         <v>30</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="98">
         <v>90</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85">
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101">
         <v>60</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="82">
+      <c r="K10" s="102"/>
+      <c r="L10" s="98">
         <v>90</v>
       </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="100"/>
       <c r="O10" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="25">
         <v>108</v>
       </c>
@@ -6809,32 +6229,32 @@
         <v>1</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="27">
         <v>30</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="98">
         <v>90</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85">
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101">
         <v>60</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="82">
+      <c r="K11" s="102"/>
+      <c r="L11" s="98">
         <v>90</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
       <c r="O11" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="25">
         <v>109</v>
       </c>
@@ -6842,32 +6262,32 @@
         <v>1</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="27">
         <v>30</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="98">
         <v>90</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85">
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101">
         <v>60</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="82">
+      <c r="K12" s="102"/>
+      <c r="L12" s="98">
         <v>90</v>
       </c>
-      <c r="M12" s="83"/>
-      <c r="N12" s="84"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
       <c r="O12" s="28">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="25">
         <v>110</v>
       </c>
@@ -6875,26 +6295,26 @@
         <v>1</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="27">
         <v>30</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="98">
         <v>90</v>
       </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85">
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101">
         <v>60</v>
       </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="82">
+      <c r="K13" s="102"/>
+      <c r="L13" s="98">
         <v>90</v>
       </c>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
       <c r="O13" s="28">
         <v>270</v>
       </c>
